--- a/design.xlsx
+++ b/design.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="104">
   <si>
     <t>色識別アプリ</t>
     <rPh sb="0" eb="1">
@@ -351,14 +351,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>　　　　①</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>④</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>画像を選択</t>
     <rPh sb="0" eb="2">
       <t>ガゾウ</t>
@@ -380,10 +372,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>⑤</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>色を判定</t>
     <rPh sb="0" eb="1">
       <t>イロ</t>
@@ -394,10 +382,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>RGB:255,255,255</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>画像入力画面です。色を判定ボタンを押下すると、選択した位置の色を判定して表示します。</t>
     <rPh sb="4" eb="6">
       <t>ガメン</t>
@@ -434,22 +418,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>色判定する位置を示すポインター</t>
-    <rPh sb="0" eb="1">
-      <t>イロ</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>ハンテイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>イチ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>シメ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>②</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -458,98 +426,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ボタンを押下し、画像を選択することで、画面上部に選択した画像が表示されます。</t>
-    <rPh sb="4" eb="6">
-      <t>オウカ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ジョウブ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ボタンを押下すると、ポインターの位置の色を判定します。</t>
-    <rPh sb="4" eb="6">
-      <t>オウカ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>イチ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>イロ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ハンテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>④</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>テキスト</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>判定結果の色名を表示します。</t>
-    <rPh sb="0" eb="2">
-      <t>ハンテイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>イロ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>⑤</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テキスト</t>
-  </si>
-  <si>
-    <t>判定結果のRGB値を表示します。</t>
-    <rPh sb="0" eb="2">
-      <t>ハンテイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>チ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>バージョン</t>
@@ -897,6 +778,97 @@
     </rPh>
     <rPh sb="7" eb="9">
       <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>　</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>①</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メニュー画面へ</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>②</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　③</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>④</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポインターの位置の色を判定するボタン</t>
+    <rPh sb="6" eb="8">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メニュー画面へ遷移するボタン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>色判定する位置を示すポインター。クリックした位置にポインターが移動する</t>
+    <rPh sb="0" eb="1">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>シメ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>取り込む画像を選択するボタン</t>
+    <rPh sb="0" eb="1">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センタク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -908,7 +880,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm;@"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -978,6 +950,14 @@
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -1185,7 +1165,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1300,6 +1280,51 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1318,54 +1343,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1378,44 +1355,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1591,85 +1574,62 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>833437</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>464344</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="図 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="733425" y="1695450"/>
-          <a:ext cx="5276850" cy="2571750"/>
+          <a:off x="1524000" y="1714500"/>
+          <a:ext cx="3512344" cy="2119312"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
       </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>選択した画像を表示します</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>107156</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>15875</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>136525</xdr:rowOff>
+      <xdr:rowOff>100806</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1678,58 +1638,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="942975" y="4819650"/>
-          <a:ext cx="692150" cy="165100"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>31750</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="直線矢印コネクタ 3"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3362325" y="4438650"/>
-          <a:ext cx="546100" cy="142875"/>
+          <a:off x="2721769" y="4191000"/>
+          <a:ext cx="449262" cy="160337"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1761,14 +1671,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>238124</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>15875</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>111125</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1778,8 +1688,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="933450" y="4476750"/>
-          <a:ext cx="701675" cy="139700"/>
+          <a:off x="928687" y="4202906"/>
+          <a:ext cx="706438" cy="158750"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1810,16 +1720,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>100012</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>3175</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>61913</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1828,8 +1738,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3352800" y="4800600"/>
-          <a:ext cx="527050" cy="133350"/>
+          <a:off x="4081463" y="4183856"/>
+          <a:ext cx="493712" cy="128588"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1860,15 +1770,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>333375</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>78581</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>885825</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>421481</xdr:colOff>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1878,12 +1788,13 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1228725" y="3048000"/>
-          <a:ext cx="342900" cy="333375"/>
+          <a:off x="3960019" y="1709738"/>
+          <a:ext cx="342900" cy="276225"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartOr">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -1906,7 +1817,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1914,16 +1825,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>261938</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>107156</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>150019</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>80963</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1932,8 +1843,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="485775" y="2686050"/>
-          <a:ext cx="695325" cy="428625"/>
+          <a:off x="3417094" y="1654969"/>
+          <a:ext cx="614363" cy="140494"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2736,7 +2647,7 @@
       <c r="I7" s="23"/>
     </row>
     <row r="8" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="44"/>
+      <c r="A8" s="38"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -2791,16 +2702,16 @@
     </row>
     <row r="12" spans="1:13" ht="30.75" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
-      <c r="B12" s="41" t="s">
+      <c r="B12" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="45"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="39"/>
       <c r="J12" s="32"/>
       <c r="K12" s="32"/>
       <c r="L12" s="5"/>
@@ -2897,7 +2808,7 @@
       <c r="M18" s="5"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A19" s="46"/>
+      <c r="A19" s="40"/>
       <c r="B19" s="12" t="s">
         <v>4</v>
       </c>
@@ -3020,17 +2931,17 @@
       <c r="M26" s="5"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A27" s="38" t="s">
+      <c r="A27" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="39"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="39"/>
-      <c r="I27" s="40"/>
+      <c r="B27" s="54"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="55"/>
       <c r="L27" s="5"/>
       <c r="M27" s="5"/>
     </row>
@@ -3060,15 +2971,15 @@
       <c r="B29" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="38" t="s">
+      <c r="C29" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="40"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="54"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="55"/>
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
     </row>
@@ -3079,15 +2990,15 @@
       <c r="B30" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="38" t="s">
+      <c r="C30" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="D30" s="39"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="39"/>
-      <c r="I30" s="40"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="54"/>
+      <c r="H30" s="54"/>
+      <c r="I30" s="55"/>
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
@@ -3100,15 +3011,15 @@
       <c r="B31" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="38" t="s">
+      <c r="C31" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="D31" s="39"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="39"/>
-      <c r="I31" s="40"/>
+      <c r="D31" s="54"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="54"/>
+      <c r="G31" s="54"/>
+      <c r="H31" s="54"/>
+      <c r="I31" s="55"/>
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
@@ -3135,7 +3046,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M35"/>
+  <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
@@ -3144,7 +3055,7 @@
     <col min="2" max="2" width="12.25" customWidth="1"/>
     <col min="3" max="3" width="11.125" customWidth="1"/>
     <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.75" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
@@ -3265,7 +3176,7 @@
       <c r="I7" s="23"/>
     </row>
     <row r="8" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="44"/>
+      <c r="A8" s="38"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -3280,7 +3191,9 @@
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="3"/>
@@ -3318,23 +3231,21 @@
     </row>
     <row r="12" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
-      <c r="B12" s="47"/>
+      <c r="B12" s="41"/>
       <c r="C12" s="32"/>
       <c r="D12" s="32"/>
       <c r="E12" s="32"/>
       <c r="F12" s="32"/>
       <c r="G12" s="32"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="45"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
       <c r="J12" s="32"/>
       <c r="K12" s="32"/>
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A13" s="50" t="s">
-        <v>40</v>
-      </c>
+      <c r="A13" s="43"/>
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -3424,8 +3335,8 @@
       <c r="M18" s="5"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A19" s="46"/>
-      <c r="B19" s="5"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
@@ -3470,17 +3381,13 @@
     </row>
     <row r="22" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="4"/>
-      <c r="B22" s="48" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" s="49"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="48" t="s">
-        <v>41</v>
-      </c>
-      <c r="F22" s="2"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="3"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="77"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="77"/>
+      <c r="H22" s="6"/>
       <c r="I22" s="6"/>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
@@ -3489,17 +3396,13 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G23" s="5"/>
-      <c r="H23" s="6"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="9"/>
       <c r="I23" s="6"/>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
@@ -3508,17 +3411,19 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A24" s="4"/>
-      <c r="B24" s="50" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="6"/>
+      <c r="B24" s="42" t="s">
+        <v>97</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="76" t="s">
+        <v>98</v>
+      </c>
+      <c r="E24" s="76"/>
+      <c r="F24" s="76" t="s">
+        <v>99</v>
+      </c>
+      <c r="G24" s="2"/>
+      <c r="H24" s="3"/>
       <c r="I24" s="6"/>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
@@ -3529,14 +3434,16 @@
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="13" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D25" s="5"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G25" s="5"/>
+      <c r="E25" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" s="5"/>
+      <c r="G25" s="13" t="s">
+        <v>96</v>
+      </c>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
       <c r="J25" s="5"/>
@@ -3549,7 +3456,7 @@
       <c r="B26" s="7"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
-      <c r="E26" s="7"/>
+      <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c r="H26" s="9"/>
@@ -3588,17 +3495,17 @@
       <c r="M28" s="5"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A29" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="B29" s="39"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="40"/>
+      <c r="A29" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="54"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="54"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="55"/>
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
     </row>
@@ -3625,20 +3532,20 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A31" s="13" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C31" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="D31" s="39"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="39"/>
-      <c r="I31" s="40"/>
+        <v>46</v>
+      </c>
+      <c r="C31" s="53" t="s">
+        <v>102</v>
+      </c>
+      <c r="D31" s="54"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="54"/>
+      <c r="G31" s="54"/>
+      <c r="H31" s="54"/>
+      <c r="I31" s="55"/>
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
@@ -3646,85 +3553,69 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A32" s="13" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C32" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="D32" s="35"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="35"/>
-      <c r="I32" s="36"/>
+        <v>48</v>
+      </c>
+      <c r="C32" s="53" t="s">
+        <v>103</v>
+      </c>
+      <c r="D32" s="54"/>
+      <c r="E32" s="54"/>
+      <c r="F32" s="54"/>
+      <c r="G32" s="54"/>
+      <c r="H32" s="54"/>
+      <c r="I32" s="55"/>
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A33" s="13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C33" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="39"/>
-      <c r="H33" s="39"/>
-      <c r="I33" s="40"/>
+        <v>48</v>
+      </c>
+      <c r="C33" s="53" t="s">
+        <v>100</v>
+      </c>
+      <c r="D33" s="54"/>
+      <c r="E33" s="54"/>
+      <c r="F33" s="54"/>
+      <c r="G33" s="54"/>
+      <c r="H33" s="54"/>
+      <c r="I33" s="55"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A34" s="13" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C34" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="D34" s="39"/>
-      <c r="E34" s="39"/>
-      <c r="F34" s="39"/>
-      <c r="G34" s="39"/>
-      <c r="H34" s="39"/>
-      <c r="I34" s="40"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A35" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="B35" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="C35" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="D35" s="39"/>
-      <c r="E35" s="39"/>
-      <c r="F35" s="39"/>
-      <c r="G35" s="39"/>
-      <c r="H35" s="39"/>
-      <c r="I35" s="40"/>
+        <v>36</v>
+      </c>
+      <c r="C34" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="D34" s="54"/>
+      <c r="E34" s="54"/>
+      <c r="F34" s="54"/>
+      <c r="G34" s="54"/>
+      <c r="H34" s="54"/>
+      <c r="I34" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A29:I29"/>
     <mergeCell ref="C33:I33"/>
     <mergeCell ref="C34:I34"/>
-    <mergeCell ref="C35:I35"/>
     <mergeCell ref="C31:I31"/>
+    <mergeCell ref="C32:I32"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3809,7 +3700,7 @@
       <c r="D4" s="35"/>
       <c r="E4" s="35"/>
       <c r="F4" s="26" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="G4" s="30">
         <v>1</v>
@@ -3825,7 +3716,7 @@
         <v>28</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="D5" s="35"/>
       <c r="E5" s="35"/>
@@ -3840,7 +3731,7 @@
         <v>30</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="D6" s="35"/>
       <c r="E6" s="35"/>
@@ -3863,7 +3754,7 @@
       <c r="I7" s="23"/>
     </row>
     <row r="8" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="44"/>
+      <c r="A8" s="38"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -3875,43 +3766,43 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
-      <c r="B9" s="51"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="53"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="46"/>
       <c r="I9" s="6"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
-      <c r="B10" s="54"/>
+      <c r="B10" s="47"/>
       <c r="C10" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="D10" s="56"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="57"/>
+        <v>54</v>
+      </c>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="50"/>
       <c r="I10" s="6"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
     </row>
     <row r="11" spans="1:13" ht="24" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
-      <c r="B11" s="54"/>
+      <c r="B11" s="47"/>
       <c r="C11" s="5"/>
-      <c r="D11" s="58" t="s">
-        <v>66</v>
-      </c>
-      <c r="E11" s="56"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="57"/>
+      <c r="D11" s="51" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="50"/>
       <c r="I11" s="6"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
@@ -3920,29 +3811,29 @@
     </row>
     <row r="12" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
-      <c r="B12" s="54"/>
+      <c r="B12" s="47"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="45"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="39"/>
       <c r="K12" s="32"/>
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
     </row>
     <row r="13" spans="1:13" ht="24" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
-      <c r="B13" s="54"/>
+      <c r="B13" s="47"/>
       <c r="C13" s="5"/>
-      <c r="D13" s="58" t="s">
-        <v>67</v>
-      </c>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="57"/>
+      <c r="D13" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="50"/>
       <c r="I13" s="6"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
@@ -3951,15 +3842,15 @@
     </row>
     <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
-      <c r="B14" s="54"/>
+      <c r="B14" s="47"/>
       <c r="C14" s="12" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="D14" s="5"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="57"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="50"/>
       <c r="I14" s="6"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
@@ -3968,15 +3859,15 @@
     </row>
     <row r="15" spans="1:13" ht="24" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
-      <c r="B15" s="54"/>
+      <c r="B15" s="47"/>
       <c r="C15" s="5"/>
-      <c r="D15" s="58" t="s">
-        <v>69</v>
-      </c>
-      <c r="E15" s="56"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="56"/>
-      <c r="H15" s="57"/>
+      <c r="D15" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="49"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="50"/>
       <c r="I15" s="6"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
@@ -3985,15 +3876,15 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
-      <c r="B16" s="54"/>
+      <c r="B16" s="47"/>
       <c r="C16" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="D16" s="56"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="57"/>
+        <v>68</v>
+      </c>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="50"/>
       <c r="I16" s="6"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
@@ -4001,15 +3892,15 @@
     </row>
     <row r="17" spans="1:13" ht="24" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
-      <c r="B17" s="54"/>
+      <c r="B17" s="47"/>
       <c r="C17" s="5"/>
-      <c r="D17" s="58" t="s">
-        <v>70</v>
-      </c>
-      <c r="E17" s="56"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="57"/>
+      <c r="D17" s="51" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="49"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="50"/>
       <c r="I17" s="6"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
@@ -4018,13 +3909,13 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
-      <c r="B18" s="54"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="57"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="50"/>
       <c r="I18" s="6"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
@@ -4033,13 +3924,13 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
-      <c r="B19" s="54"/>
-      <c r="C19" s="55"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="56"/>
-      <c r="H19" s="57"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="50"/>
       <c r="I19" s="6"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
@@ -4048,17 +3939,17 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A20" s="4"/>
-      <c r="B20" s="54"/>
+      <c r="B20" s="47"/>
       <c r="C20" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="D20" s="60" t="s">
-        <v>71</v>
-      </c>
-      <c r="E20" s="61"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="57"/>
+        <v>69</v>
+      </c>
+      <c r="D20" s="59" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" s="60"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="50"/>
       <c r="I20" s="6"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
@@ -4069,8 +3960,8 @@
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="5"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="63"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="62"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="6"/>
@@ -4121,17 +4012,17 @@
       <c r="M24" s="5"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A25" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="39"/>
-      <c r="I25" s="40"/>
+      <c r="A25" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" s="54"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="55"/>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
@@ -4160,20 +4051,20 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A27" s="13" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="C27" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="39"/>
-      <c r="I27" s="40"/>
+        <v>62</v>
+      </c>
+      <c r="C27" s="53" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" s="54"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="55"/>
       <c r="L27" s="5"/>
       <c r="M27" s="5"/>
     </row>
@@ -4182,17 +4073,17 @@
         <v>4</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="C28" s="38" t="s">
-        <v>75</v>
-      </c>
-      <c r="D28" s="39"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="40"/>
+        <v>50</v>
+      </c>
+      <c r="C28" s="53" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="54"/>
+      <c r="I28" s="55"/>
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
     </row>
@@ -4201,17 +4092,17 @@
         <v>4</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="C29" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="40"/>
+        <v>50</v>
+      </c>
+      <c r="C29" s="53" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" s="54"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="54"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="55"/>
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
     </row>
@@ -4222,15 +4113,15 @@
       <c r="B30" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="38" t="s">
-        <v>77</v>
-      </c>
-      <c r="D30" s="39"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="39"/>
-      <c r="I30" s="40"/>
+      <c r="C30" s="53" t="s">
+        <v>66</v>
+      </c>
+      <c r="D30" s="54"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="54"/>
+      <c r="H30" s="54"/>
+      <c r="I30" s="55"/>
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
@@ -4266,7 +4157,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32:I32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -4340,7 +4233,7 @@
       <c r="D4" s="35"/>
       <c r="E4" s="35"/>
       <c r="F4" s="26" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="G4" s="30">
         <v>1</v>
@@ -4356,7 +4249,7 @@
         <v>28</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="D5" s="35"/>
       <c r="E5" s="35"/>
@@ -4371,7 +4264,7 @@
         <v>30</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="D6" s="35"/>
       <c r="E6" s="35"/>
@@ -4394,7 +4287,7 @@
       <c r="I7" s="23"/>
     </row>
     <row r="8" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="44"/>
+      <c r="A8" s="38"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -4406,53 +4299,53 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
-      <c r="B9" s="64" t="s">
-        <v>83</v>
-      </c>
-      <c r="C9" s="65"/>
-      <c r="D9" s="64" t="s">
-        <v>84</v>
-      </c>
-      <c r="E9" s="65"/>
-      <c r="F9" s="64" t="s">
-        <v>85</v>
-      </c>
-      <c r="G9" s="66"/>
-      <c r="H9" s="65"/>
+      <c r="B9" s="70" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="71"/>
+      <c r="D9" s="70" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" s="71"/>
+      <c r="F9" s="70" t="s">
+        <v>74</v>
+      </c>
+      <c r="G9" s="74"/>
+      <c r="H9" s="71"/>
       <c r="I9" s="6"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A10" s="50" t="s">
-        <v>65</v>
-      </c>
-      <c r="B10" s="67"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="69"/>
-      <c r="H10" s="68"/>
+      <c r="A10" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="72"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="75"/>
+      <c r="H10" s="73"/>
       <c r="I10" s="6"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
-      <c r="B11" s="70">
+      <c r="B11" s="63">
         <v>43737.5</v>
       </c>
-      <c r="C11" s="71"/>
-      <c r="D11" s="60" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="61"/>
-      <c r="F11" s="60" t="s">
-        <v>86</v>
-      </c>
-      <c r="G11" s="72"/>
-      <c r="H11" s="61"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="60"/>
+      <c r="F11" s="59" t="s">
+        <v>75</v>
+      </c>
+      <c r="G11" s="67"/>
+      <c r="H11" s="60"/>
       <c r="I11" s="6"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
@@ -4461,33 +4354,33 @@
     </row>
     <row r="12" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
-      <c r="B12" s="73"/>
-      <c r="C12" s="74"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="75"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="45"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="39"/>
       <c r="K12" s="32"/>
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
-      <c r="B13" s="70">
+      <c r="B13" s="63">
         <v>43737.541666666664</v>
       </c>
-      <c r="C13" s="71"/>
-      <c r="D13" s="60" t="s">
-        <v>87</v>
-      </c>
-      <c r="E13" s="61"/>
-      <c r="F13" s="60" t="s">
-        <v>88</v>
-      </c>
-      <c r="G13" s="72"/>
-      <c r="H13" s="61"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="59" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" s="60"/>
+      <c r="F13" s="59" t="s">
+        <v>77</v>
+      </c>
+      <c r="G13" s="67"/>
+      <c r="H13" s="60"/>
       <c r="I13" s="6"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
@@ -4496,13 +4389,13 @@
     </row>
     <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
-      <c r="B14" s="73"/>
-      <c r="C14" s="74"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="75"/>
-      <c r="H14" s="63"/>
+      <c r="B14" s="65"/>
+      <c r="C14" s="66"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="62"/>
       <c r="I14" s="6"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
@@ -4511,19 +4404,19 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
-      <c r="B15" s="70">
+      <c r="B15" s="63">
         <v>43738.5</v>
       </c>
-      <c r="C15" s="71"/>
-      <c r="D15" s="60" t="s">
-        <v>89</v>
-      </c>
-      <c r="E15" s="61"/>
-      <c r="F15" s="60" t="s">
-        <v>90</v>
-      </c>
-      <c r="G15" s="72"/>
-      <c r="H15" s="61"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="59" t="s">
+        <v>78</v>
+      </c>
+      <c r="E15" s="60"/>
+      <c r="F15" s="59" t="s">
+        <v>79</v>
+      </c>
+      <c r="G15" s="67"/>
+      <c r="H15" s="60"/>
       <c r="I15" s="6"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
@@ -4532,13 +4425,13 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
-      <c r="B16" s="73"/>
-      <c r="C16" s="74"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="75"/>
-      <c r="H16" s="63"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="62"/>
       <c r="I16" s="6"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
@@ -4546,19 +4439,19 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
-      <c r="B17" s="70">
+      <c r="B17" s="63">
         <v>43738.5</v>
       </c>
-      <c r="C17" s="71"/>
-      <c r="D17" s="60" t="s">
-        <v>91</v>
-      </c>
-      <c r="E17" s="61"/>
-      <c r="F17" s="76" t="s">
-        <v>92</v>
-      </c>
-      <c r="G17" s="72"/>
-      <c r="H17" s="61"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="59" t="s">
+        <v>80</v>
+      </c>
+      <c r="E17" s="60"/>
+      <c r="F17" s="69" t="s">
+        <v>81</v>
+      </c>
+      <c r="G17" s="67"/>
+      <c r="H17" s="60"/>
       <c r="I17" s="6"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
@@ -4567,13 +4460,13 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
-      <c r="B18" s="73"/>
-      <c r="C18" s="74"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="75"/>
-      <c r="H18" s="63"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="68"/>
+      <c r="H18" s="62"/>
       <c r="I18" s="6"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
@@ -4581,20 +4474,20 @@
       <c r="M18" s="5"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A19" s="46"/>
-      <c r="B19" s="70">
+      <c r="A19" s="40"/>
+      <c r="B19" s="63">
         <v>43739.5</v>
       </c>
-      <c r="C19" s="71"/>
-      <c r="D19" s="60" t="s">
-        <v>93</v>
-      </c>
-      <c r="E19" s="61"/>
-      <c r="F19" s="76" t="s">
-        <v>94</v>
-      </c>
-      <c r="G19" s="72"/>
-      <c r="H19" s="61"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="59" t="s">
+        <v>82</v>
+      </c>
+      <c r="E19" s="60"/>
+      <c r="F19" s="69" t="s">
+        <v>83</v>
+      </c>
+      <c r="G19" s="67"/>
+      <c r="H19" s="60"/>
       <c r="I19" s="6"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
@@ -4603,13 +4496,13 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A20" s="4"/>
-      <c r="B20" s="73"/>
-      <c r="C20" s="74"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="63"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="75"/>
-      <c r="H20" s="63"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="68"/>
+      <c r="H20" s="62"/>
       <c r="I20" s="6"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
@@ -4618,19 +4511,19 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A21" s="4"/>
-      <c r="B21" s="70">
+      <c r="B21" s="63">
         <v>43739.541666666664</v>
       </c>
-      <c r="C21" s="71"/>
-      <c r="D21" s="60" t="s">
-        <v>95</v>
-      </c>
-      <c r="E21" s="61"/>
-      <c r="F21" s="60" t="s">
-        <v>96</v>
-      </c>
-      <c r="G21" s="72"/>
-      <c r="H21" s="61"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="59" t="s">
+        <v>84</v>
+      </c>
+      <c r="E21" s="60"/>
+      <c r="F21" s="59" t="s">
+        <v>85</v>
+      </c>
+      <c r="G21" s="67"/>
+      <c r="H21" s="60"/>
       <c r="I21" s="6"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
@@ -4639,13 +4532,13 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A22" s="4"/>
-      <c r="B22" s="73"/>
-      <c r="C22" s="74"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="63"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="75"/>
-      <c r="H22" s="63"/>
+      <c r="B22" s="65"/>
+      <c r="C22" s="66"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="68"/>
+      <c r="H22" s="62"/>
       <c r="I22" s="6"/>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
@@ -4671,12 +4564,12 @@
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="D24" s="60" t="s">
-        <v>98</v>
-      </c>
-      <c r="E24" s="61"/>
+        <v>86</v>
+      </c>
+      <c r="D24" s="59" t="s">
+        <v>87</v>
+      </c>
+      <c r="E24" s="60"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="6"/>
@@ -4690,8 +4583,8 @@
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="5"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="63"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="62"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="6"/>
@@ -4745,17 +4638,17 @@
       <c r="M28" s="5"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A29" s="38" t="s">
-        <v>99</v>
-      </c>
-      <c r="B29" s="39"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="40"/>
+      <c r="A29" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="B29" s="54"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="54"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="55"/>
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
     </row>
@@ -4782,20 +4675,20 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A31" s="13" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="C31" s="38" t="s">
-        <v>102</v>
-      </c>
-      <c r="D31" s="39"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="39"/>
-      <c r="I31" s="40"/>
+        <v>90</v>
+      </c>
+      <c r="C31" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="D31" s="54"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="54"/>
+      <c r="G31" s="54"/>
+      <c r="H31" s="54"/>
+      <c r="I31" s="55"/>
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
@@ -4803,30 +4696,37 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A32" s="13" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="C32" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="D32" s="39"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="39"/>
-      <c r="I32" s="40"/>
+        <v>93</v>
+      </c>
+      <c r="C32" s="53" t="s">
+        <v>94</v>
+      </c>
+      <c r="D32" s="54"/>
+      <c r="E32" s="54"/>
+      <c r="F32" s="54"/>
+      <c r="G32" s="54"/>
+      <c r="H32" s="54"/>
+      <c r="I32" s="55"/>
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B21:C22"/>
-    <mergeCell ref="D21:E22"/>
-    <mergeCell ref="F21:H22"/>
-    <mergeCell ref="D24:E25"/>
-    <mergeCell ref="C31:I31"/>
+    <mergeCell ref="B9:C10"/>
+    <mergeCell ref="D9:E10"/>
+    <mergeCell ref="F9:H10"/>
+    <mergeCell ref="B11:C12"/>
+    <mergeCell ref="D11:E12"/>
+    <mergeCell ref="F11:H12"/>
+    <mergeCell ref="B13:C14"/>
+    <mergeCell ref="D13:E14"/>
+    <mergeCell ref="F13:H14"/>
+    <mergeCell ref="B15:C16"/>
+    <mergeCell ref="D15:E16"/>
+    <mergeCell ref="F15:H16"/>
     <mergeCell ref="C32:I32"/>
     <mergeCell ref="A29:I29"/>
     <mergeCell ref="B17:C18"/>
@@ -4835,18 +4735,11 @@
     <mergeCell ref="B19:C20"/>
     <mergeCell ref="D19:E20"/>
     <mergeCell ref="F19:H20"/>
-    <mergeCell ref="B13:C14"/>
-    <mergeCell ref="D13:E14"/>
-    <mergeCell ref="F13:H14"/>
-    <mergeCell ref="B15:C16"/>
-    <mergeCell ref="D15:E16"/>
-    <mergeCell ref="F15:H16"/>
-    <mergeCell ref="B9:C10"/>
-    <mergeCell ref="D9:E10"/>
-    <mergeCell ref="F9:H10"/>
-    <mergeCell ref="B11:C12"/>
-    <mergeCell ref="D11:E12"/>
-    <mergeCell ref="F11:H12"/>
+    <mergeCell ref="B21:C22"/>
+    <mergeCell ref="D21:E22"/>
+    <mergeCell ref="F21:H22"/>
+    <mergeCell ref="D24:E25"/>
+    <mergeCell ref="C31:I31"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/design.xlsx
+++ b/design.xlsx
@@ -13,9 +13,10 @@
   </bookViews>
   <sheets>
     <sheet name="menu" sheetId="1" r:id="rId1"/>
-    <sheet name="importpicture" sheetId="2" r:id="rId2"/>
+    <sheet name="importPicture" sheetId="2" r:id="rId2"/>
     <sheet name="result" sheetId="3" r:id="rId3"/>
     <sheet name="history" sheetId="4" r:id="rId4"/>
+    <sheet name=" screenTransition" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="133">
   <si>
     <t>色識別アプリ</t>
     <rPh sb="0" eb="1">
@@ -39,23 +40,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>色を識別する</t>
-    <rPh sb="0" eb="1">
-      <t>イロ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>シキベツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>履歴</t>
-    <rPh sb="0" eb="2">
-      <t>リレキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>①</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -351,16 +335,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>画像を選択</t>
-    <rPh sb="0" eb="2">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>白</t>
     <rPh sb="0" eb="1">
       <t>シロ</t>
@@ -372,16 +346,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>色を判定</t>
-    <rPh sb="0" eb="1">
-      <t>イロ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ハンテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>画像入力画面です。色を判定ボタンを押下すると、選択した位置の色を判定して表示します。</t>
     <rPh sb="4" eb="6">
       <t>ガメン</t>
@@ -503,13 +467,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>RGB値：255,0,0</t>
-    <rPh sb="3" eb="4">
-      <t>チ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>戻る</t>
     <rPh sb="0" eb="1">
       <t>モド</t>
@@ -584,10 +541,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>③</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>④</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -602,28 +555,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>判定の履歴を一覧表示する履歴画面</t>
-    <rPh sb="0" eb="2">
-      <t>ハンテイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>リレキ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>リレキ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>日時</t>
     <rPh sb="0" eb="2">
       <t>ニチジ</t>
@@ -715,34 +646,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>履歴画面です。判定した日時、色、RGB値を一覧表示します。</t>
-    <rPh sb="0" eb="2">
-      <t>リレキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ハンテイ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ニチジ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>イロ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>チ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>①</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -757,13 +660,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>判定した日時、色、RGB値を一覧で表示</t>
-    <rPh sb="17" eb="19">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>②</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -782,42 +678,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <t>　</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>①</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メニュー画面へ</t>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>②</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　③</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>④</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ポインターの位置の色を判定するボタン</t>
     <rPh sb="6" eb="8">
       <t>イチ</t>
@@ -857,7 +717,121 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>取り込む画像を選択するボタン</t>
+    <t>①</t>
+  </si>
+  <si>
+    <t>③</t>
+  </si>
+  <si>
+    <t>④</t>
+  </si>
+  <si>
+    <t>①</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>②</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>③</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>④</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(画像未選択)</t>
+    <rPh sb="1" eb="3">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(画像選択済み)</t>
+    <rPh sb="5" eb="6">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択した画像</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇〇.PNG</t>
+  </si>
+  <si>
+    <t>〇〇.PNG</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇〇.JPEG</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>履歴画面です。判定した日時、色、RGB値、選択した画像を一覧表示します。</t>
+    <rPh sb="0" eb="2">
+      <t>リレキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画像入力画面へ</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>取り込む画像を選択するボタン。
+押下すると、画像選択のダイアログが表示され、選択した画像を画面に表示します。</t>
     <rPh sb="0" eb="1">
       <t>ト</t>
     </rPh>
@@ -869,6 +843,279 @@
     </rPh>
     <rPh sb="7" eb="9">
       <t>センタク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>履歴画面へ</t>
+    <rPh sb="0" eb="2">
+      <t>リレキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>結果画面</t>
+    <rPh sb="0" eb="2">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>履歴画面</t>
+    <rPh sb="0" eb="2">
+      <t>リレキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画像入力画面</t>
+  </si>
+  <si>
+    <t>画像入力画面</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メニュー画面</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑤</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>判定した画像名を表示</t>
+    <rPh sb="0" eb="2">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>②</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>④</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>判定した画像</t>
+    <rPh sb="0" eb="2">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>色</t>
+  </si>
+  <si>
+    <t>RGB値</t>
+    <rPh sb="3" eb="4">
+      <t>チ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Y座標</t>
+    <rPh sb="1" eb="3">
+      <t>ザヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>X座標</t>
+    <rPh sb="1" eb="3">
+      <t>ザヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>判定した画像：</t>
+    <rPh sb="0" eb="2">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤</t>
+  </si>
+  <si>
+    <t>RGB値：</t>
+    <rPh sb="3" eb="4">
+      <t>チ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>255,0,0</t>
+  </si>
+  <si>
+    <t>画面遷移図</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>センイズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メニュー画面へボタンを押下</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>色を判定ボタンを押下</t>
+    <rPh sb="0" eb="1">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>戻るボタンを押下</t>
+    <rPh sb="0" eb="1">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画像入力画面へボタンを押下</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>履歴画面へボタンを押下</t>
+    <rPh sb="0" eb="4">
+      <t>リレキガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>判定結果をDBに保持し、一覧表示する履歴画面</t>
+    <rPh sb="0" eb="2">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ホジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>リレキ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DBから判定した日時、色、RGB値、選択した画像情報を取得し、一覧で表示</t>
+    <rPh sb="24" eb="26">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -880,7 +1127,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm;@"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -950,14 +1197,6 @@
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -1165,7 +1404,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1199,9 +1438,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1265,9 +1501,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1289,24 +1522,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1323,6 +1541,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
@@ -1355,6 +1585,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1367,37 +1609,124 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1574,22 +1903,17 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>833437</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>333373</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>127214</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>464344</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="2512219" cy="1515847"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="図 8"/>
+        <xdr:cNvPr id="41" name="図 40"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1608,8 +1932,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1524000" y="1714500"/>
-          <a:ext cx="3512344" cy="2119312"/>
+          <a:off x="4214811" y="1841714"/>
+          <a:ext cx="2512219" cy="1515847"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1617,178 +1941,706 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>107156</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>500063</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>130969</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>15875</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>100806</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>488156</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>166685</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="直線矢印コネクタ 2"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2721769" y="4191000"/>
-          <a:ext cx="449262" cy="160337"/>
+          <a:off x="6060282" y="3512344"/>
+          <a:ext cx="797718" cy="202404"/>
         </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
+        <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="FF0000"/>
+            <a:sysClr val="windowText" lastClr="000000"/>
           </a:solidFill>
-          <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent2"/>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>130969</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="745076" cy="242374"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="テキスト ボックス 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3512344"/>
+          <a:ext cx="745076" cy="242374"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:schemeClr val="accent2"/>
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent2"/>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
         </a:fontRef>
       </xdr:style>
-    </xdr:cxnSp>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t>画像を選択</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>130970</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="745076" cy="242374"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="テキスト ボックス 27"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3929063" y="3512345"/>
+          <a:ext cx="745076" cy="242374"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t>画像を選択</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="629660" cy="242374"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="テキスト ボックス 28"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1119188" y="3500438"/>
+          <a:ext cx="629660" cy="242374"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t>色を判定</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>130969</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="629660" cy="242374"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="テキスト ボックス 30"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5095875" y="3512344"/>
+          <a:ext cx="629660" cy="242374"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t>色を判定</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>452438</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>130969</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="923651" cy="242374"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="テキスト ボックス 31"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2071688" y="3512344"/>
+          <a:ext cx="923651" cy="242374"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t>メニュー画面へ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>452438</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="923651" cy="242374"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="テキスト ボックス 32"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6012657" y="3500438"/>
+          <a:ext cx="923651" cy="242374"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t>メニュー画面へ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>23813</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>130969</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>23812</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>23811</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="正方形/長方形 33"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23813" y="3512344"/>
+          <a:ext cx="690562" cy="226217"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>238124</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:colOff>380999</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>130969</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>15875</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>111125</xdr:rowOff>
+      <xdr:colOff>119062</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>23811</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="直線矢印コネクタ 4"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="正方形/長方形 34"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="928687" y="4202906"/>
-          <a:ext cx="706438" cy="158750"/>
+          <a:off x="1071562" y="3512344"/>
+          <a:ext cx="666750" cy="226217"/>
         </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
+        <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="FF0000"/>
+            <a:sysClr val="windowText" lastClr="000000"/>
           </a:solidFill>
-          <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent2"/>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
         </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent2"/>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
         </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent2"/>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
+          <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
-    </xdr:cxnSp>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>511968</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>23811</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="正方形/長方形 35"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2131218" y="3524250"/>
+          <a:ext cx="809626" cy="214311"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
+      <xdr:colOff>47624</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>3175</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>61913</xdr:rowOff>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="直線矢印コネクタ 5"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="正方形/長方形 36"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4081463" y="4183856"/>
-          <a:ext cx="493712" cy="128588"/>
+          <a:off x="3929062" y="3524251"/>
+          <a:ext cx="738188" cy="214311"/>
         </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
+        <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="FF0000"/>
+            <a:sysClr val="windowText" lastClr="000000"/>
           </a:solidFill>
-          <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent2"/>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
         </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent2"/>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
         </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent2"/>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
+          <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
-    </xdr:cxnSp>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>78581</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>464344</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>421481</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>214313</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>11906</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="フローチャート: 論理和 6"/>
+        <xdr:cNvPr id="38" name="正方形/長方形 37"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3960019" y="1709738"/>
+          <a:off x="5036344" y="3524250"/>
+          <a:ext cx="738188" cy="202406"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="フローチャート: 論理和 38"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="690563" y="2381250"/>
           <a:ext cx="342900" cy="276225"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartOr">
@@ -1825,26 +2677,435 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>261938</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>61913</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="フローチャート: 論理和 39"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5655469" y="1833563"/>
+          <a:ext cx="342900" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartOr">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>226219</xdr:colOff>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>107156</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>150019</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>80963</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>173831</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>140494</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="直線矢印コネクタ 7"/>
+        <xdr:cNvPr id="42" name="直線矢印コネクタ 41"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3417094" y="1654969"/>
-          <a:ext cx="614363" cy="140494"/>
+          <a:off x="4798219" y="1821656"/>
+          <a:ext cx="935831" cy="33338"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>420163</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>130970</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="直線矢印コネクタ 45"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="28" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4024312" y="3333750"/>
+          <a:ext cx="277289" cy="178595"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>202406</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>611188</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>123032</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="49" name="直線矢印コネクタ 48"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4774406" y="3333750"/>
+          <a:ext cx="408782" cy="170657"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>119062</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>345281</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="50" name="直線矢印コネクタ 49"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6488906" y="3357562"/>
+          <a:ext cx="226219" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>166687</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>372538</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>130969</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="54" name="直線矢印コネクタ 53"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="4" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="166687" y="3333750"/>
+          <a:ext cx="205851" cy="178594"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>226218</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>130968</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>682101</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="57" name="直線矢印コネクタ 56"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="916781" y="3345656"/>
+          <a:ext cx="455883" cy="178595"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>261937</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>130968</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>634477</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>130970</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="59" name="直線矢印コネクタ 58"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1881187" y="3345656"/>
+          <a:ext cx="372540" cy="166689"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>130969</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>98695</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>11907</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="61" name="直線矢印コネクタ 60"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="238125" y="2178844"/>
+          <a:ext cx="551133" cy="214313"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1881,15 +3142,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>107156</xdr:rowOff>
+      <xdr:colOff>202406</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>39688</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>46038</xdr:rowOff>
+      <xdr:colOff>15876</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>141287</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1898,8 +3159,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1809750" y="4898231"/>
-          <a:ext cx="696913" cy="110332"/>
+          <a:off x="1821656" y="4143375"/>
+          <a:ext cx="658814" cy="22225"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1930,15 +3191,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>154781</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>782638</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>237332</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1980,15 +3241,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>797719</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>154781</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>500063</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>23813</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2048,15 +3309,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>178594</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>154781</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>27782</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>153195</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2098,15 +3359,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>142874</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>51594</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>153196</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2146,6 +3407,56 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>571499</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>11905</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>556418</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>201613</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="直線矢印コネクタ 11"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8727280" y="2893218"/>
+          <a:ext cx="675482" cy="189708"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2154,15 +3465,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>107156</xdr:rowOff>
+      <xdr:colOff>178594</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>83343</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>39688</xdr:colOff>
+      <xdr:colOff>27782</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>46038</xdr:rowOff>
+      <xdr:rowOff>129381</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2171,8 +3482,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1809750" y="4364831"/>
-          <a:ext cx="696913" cy="110332"/>
+          <a:off x="1797844" y="4167187"/>
+          <a:ext cx="694532" cy="46038"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2205,13 +3516,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>273844</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>130968</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>175419</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>46831</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2243,6 +3554,745 @@
         </a:fillRef>
         <a:effectRef idx="2">
           <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>416719</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>83344</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>59531</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="正方形/長方形 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7322344" y="928688"/>
+          <a:ext cx="2428875" cy="631031"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>250032</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>130968</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>607219</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="正方形/長方形 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3012282" y="4964906"/>
+          <a:ext cx="2428875" cy="631031"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>226219</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>83344</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>583406</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2988469" y="3083719"/>
+          <a:ext cx="2428875" cy="631031"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>202406</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>107156</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>559593</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2964656" y="940594"/>
+          <a:ext cx="2428875" cy="631031"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>607219</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>59530</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>238124</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>154780</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="テキスト ボックス 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3369469" y="1059655"/>
+          <a:ext cx="1702593" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t>メニュー画面</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>547688</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>11906</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>226218</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>130968</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="テキスト ボックス 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3309938" y="3178969"/>
+          <a:ext cx="1750218" cy="452437"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t>画像入力画面</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>35719</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>35718</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>130969</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="テキスト ボックス 4"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3548063" y="5036344"/>
+          <a:ext cx="1321593" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t>結果画面</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>178593</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="テキスト ボックス 5"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7834313" y="1023938"/>
+          <a:ext cx="1321593" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t>履歴画面</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>226218</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>107156</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>238124</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>59531</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="直線矢印コネクタ 10"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3679031" y="1607344"/>
+          <a:ext cx="11906" cy="1452562"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>250031</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>83344</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>261937</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>130968</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="直線矢印コネクタ 11"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3702844" y="3750469"/>
+          <a:ext cx="11906" cy="1214437"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>404812</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>130968</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>416719</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="直線矢印コネクタ 13"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4548187" y="1631156"/>
+          <a:ext cx="11907" cy="1393032"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>571499</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>107156</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>392906</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>107157</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="直線矢印コネクタ 14"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5405437" y="1107281"/>
+          <a:ext cx="1893094" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>440531</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>83344</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>452437</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="直線矢印コネクタ 15"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4583906" y="3750469"/>
+          <a:ext cx="11906" cy="1178720"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>535782</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>35719</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>35719</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="直線矢印コネクタ 16"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5369720" y="1369219"/>
+          <a:ext cx="1916905" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -2530,124 +4580,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="22"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A2" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="23"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="24" t="s">
+      <c r="C2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="G2" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="26" t="s">
+      <c r="H2" s="18"/>
+      <c r="I2" s="19"/>
+    </row>
+    <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A3" s="26"/>
+      <c r="B3" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="C3" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="19"/>
-      <c r="I2" s="20"/>
-    </row>
-    <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A3" s="27"/>
-      <c r="B3" s="26" t="s">
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="G3" s="27">
+        <v>43715</v>
+      </c>
+      <c r="H3" s="18"/>
+      <c r="I3" s="19"/>
+    </row>
+    <row r="4" spans="1:13" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A4" s="28"/>
+      <c r="B4" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="26" t="s">
+      <c r="C4" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="28">
-        <v>43715</v>
-      </c>
-      <c r="H3" s="19"/>
-      <c r="I3" s="20"/>
-    </row>
-    <row r="4" spans="1:13" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A4" s="29"/>
-      <c r="B4" s="25" t="s">
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="G4" s="29">
+        <v>1</v>
+      </c>
+      <c r="H4" s="18"/>
+      <c r="I4" s="19"/>
+    </row>
+    <row r="5" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="26" t="s">
+      <c r="B5" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="30">
-        <v>1</v>
-      </c>
-      <c r="H4" s="19"/>
-      <c r="I4" s="20"/>
-    </row>
-    <row r="5" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="31" t="s">
+      <c r="C5" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="19"/>
+    </row>
+    <row r="6" spans="1:13" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A6" s="26"/>
+      <c r="B6" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C6" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="20"/>
-    </row>
-    <row r="6" spans="1:13" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A6" s="27"/>
-      <c r="B6" s="25" t="s">
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="19"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A7" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="20"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A7" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="23"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="22"/>
     </row>
     <row r="8" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="38"/>
+      <c r="A8" s="36"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -2659,13 +4709,15 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="3"/>
+      <c r="B9" s="46" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="48"/>
       <c r="I9" s="6"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
@@ -2674,8 +4726,8 @@
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
-      <c r="D10" s="12" t="s">
-        <v>3</v>
+      <c r="D10" s="11" t="s">
+        <v>1</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -2702,18 +4754,18 @@
     </row>
     <row r="12" spans="1:13" ht="30.75" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
-      <c r="B12" s="56" t="s">
+      <c r="B12" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="57"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="32"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
     </row>
@@ -2808,15 +4860,15 @@
       <c r="M18" s="5"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A19" s="40"/>
-      <c r="B19" s="12" t="s">
-        <v>4</v>
+      <c r="A19" s="38"/>
+      <c r="B19" s="11" t="s">
+        <v>2</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
-      <c r="F19" s="12" t="s">
-        <v>5</v>
+      <c r="F19" s="11" t="s">
+        <v>3</v>
       </c>
       <c r="G19" s="5"/>
       <c r="H19" s="6"/>
@@ -2859,15 +4911,15 @@
     <row r="22" spans="1:13" ht="21" x14ac:dyDescent="0.15">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
-      <c r="C22" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D22" s="36"/>
+      <c r="C22" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="D22" s="83"/>
       <c r="E22" s="5"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="33" t="s">
-        <v>2</v>
-      </c>
+      <c r="F22" s="84" t="s">
+        <v>105</v>
+      </c>
+      <c r="G22" s="85"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
       <c r="J22" s="5"/>
@@ -2914,112 +4966,112 @@
       <c r="M25" s="5"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A26" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="17"/>
+      <c r="A26" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="16"/>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A27" s="53" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27" s="54"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="54"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="54"/>
-      <c r="I27" s="55"/>
+      <c r="A27" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="51"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="52"/>
       <c r="L27" s="5"/>
       <c r="M27" s="5"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="17"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="16"/>
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A29" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C29" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="D29" s="54"/>
-      <c r="E29" s="54"/>
-      <c r="F29" s="54"/>
-      <c r="G29" s="54"/>
-      <c r="H29" s="54"/>
-      <c r="I29" s="55"/>
+      <c r="A29" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="51"/>
+      <c r="E29" s="51"/>
+      <c r="F29" s="51"/>
+      <c r="G29" s="51"/>
+      <c r="H29" s="51"/>
+      <c r="I29" s="52"/>
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A30" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30" s="13" t="s">
+      <c r="A30" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" s="54"/>
-      <c r="E30" s="54"/>
-      <c r="F30" s="54"/>
-      <c r="G30" s="54"/>
-      <c r="H30" s="54"/>
-      <c r="I30" s="55"/>
+      <c r="D30" s="51"/>
+      <c r="E30" s="51"/>
+      <c r="F30" s="51"/>
+      <c r="G30" s="51"/>
+      <c r="H30" s="51"/>
+      <c r="I30" s="52"/>
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
       <c r="M30" s="5"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A31" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B31" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C31" s="53" t="s">
-        <v>14</v>
-      </c>
-      <c r="D31" s="54"/>
-      <c r="E31" s="54"/>
-      <c r="F31" s="54"/>
-      <c r="G31" s="54"/>
-      <c r="H31" s="54"/>
-      <c r="I31" s="55"/>
+      <c r="A31" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="51"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="52"/>
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
@@ -3030,12 +5082,14 @@
       <c r="K32" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
     <mergeCell ref="C30:I30"/>
     <mergeCell ref="C31:I31"/>
     <mergeCell ref="B12:H12"/>
     <mergeCell ref="C29:I29"/>
     <mergeCell ref="A27:I27"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="F22:G22"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3046,7 +5100,1139 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M34"/>
+  <dimension ref="A1:M33"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="12.25" customWidth="1"/>
+    <col min="3" max="3" width="11.125" customWidth="1"/>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="8" max="8" width="10.625" customWidth="1"/>
+    <col min="9" max="9" width="9.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="22"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="33"/>
+      <c r="I2" s="34"/>
+    </row>
+    <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A3" s="26"/>
+      <c r="B3" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="27">
+        <v>43731</v>
+      </c>
+      <c r="H3" s="33"/>
+      <c r="I3" s="34"/>
+    </row>
+    <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A4" s="28"/>
+      <c r="B4" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="29">
+        <v>1</v>
+      </c>
+      <c r="H4" s="33"/>
+      <c r="I4" s="34"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A5" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="34"/>
+    </row>
+    <row r="6" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A6" s="26"/>
+      <c r="B6" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="34"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A7" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="22"/>
+    </row>
+    <row r="8" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="36"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A9" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="F9" t="s">
+        <v>97</v>
+      </c>
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A10" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="B10" s="47"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="48"/>
+      <c r="F10" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="48"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A11" s="4"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="6"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A12" s="4"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="6"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="6"/>
+    </row>
+    <row r="13" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="6"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="6"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A14" s="39"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="6"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="6"/>
+    </row>
+    <row r="15" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="4"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="6"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="6"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A16" s="4"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="6"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="6"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="6"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="6"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A18" s="4"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="6"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="6"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A19" s="4"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="6"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="6"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A20" s="86" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20" s="87" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" s="87" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" s="9"/>
+      <c r="F20" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="H20" s="5"/>
+      <c r="I20" s="71" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A21" s="1"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="3"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="3"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A22" s="4"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="6"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="6"/>
+    </row>
+    <row r="23" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="7"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="9"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="9"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A24" s="4"/>
+      <c r="C24" s="5"/>
+      <c r="I24" s="6"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A25" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="16"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A26" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="51"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="52"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A27" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="16"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A28" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="50" t="s">
+        <v>88</v>
+      </c>
+      <c r="D28" s="51"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="52"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+    </row>
+    <row r="29" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="79" t="s">
+        <v>104</v>
+      </c>
+      <c r="D29" s="51"/>
+      <c r="E29" s="51"/>
+      <c r="F29" s="51"/>
+      <c r="G29" s="51"/>
+      <c r="H29" s="51"/>
+      <c r="I29" s="52"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A30" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="D30" s="51"/>
+      <c r="E30" s="51"/>
+      <c r="F30" s="51"/>
+      <c r="G30" s="51"/>
+      <c r="H30" s="51"/>
+      <c r="I30" s="52"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A31" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="50" t="s">
+        <v>87</v>
+      </c>
+      <c r="D31" s="51"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="52"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+    </row>
+    <row r="33" spans="10:11" x14ac:dyDescent="0.15">
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A26:I26"/>
+    <mergeCell ref="C30:I30"/>
+    <mergeCell ref="C31:I31"/>
+    <mergeCell ref="C28:I28"/>
+    <mergeCell ref="C29:I29"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr autoPageBreaks="0"/>
+  </sheetPr>
+  <dimension ref="A1:S35"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="12.25" customWidth="1"/>
+    <col min="3" max="3" width="11.125" customWidth="1"/>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A1" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="22"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A2" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="33"/>
+      <c r="I2" s="34"/>
+    </row>
+    <row r="3" spans="1:19" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A3" s="26"/>
+      <c r="B3" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="27">
+        <v>43744</v>
+      </c>
+      <c r="H3" s="33"/>
+      <c r="I3" s="34"/>
+    </row>
+    <row r="4" spans="1:19" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A4" s="28"/>
+      <c r="B4" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" s="29">
+        <v>1</v>
+      </c>
+      <c r="H4" s="33"/>
+      <c r="I4" s="34"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A5" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="34"/>
+    </row>
+    <row r="6" spans="1:19" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A6" s="26"/>
+      <c r="B6" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="34"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A7" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="22"/>
+    </row>
+    <row r="8" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="36"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A9" s="4"/>
+      <c r="B9" s="88" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" s="89"/>
+      <c r="D9" s="89"/>
+      <c r="E9" s="89"/>
+      <c r="F9" s="89"/>
+      <c r="G9" s="89"/>
+      <c r="H9" s="90"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A10" s="4"/>
+      <c r="B10" s="60" t="s">
+        <v>115</v>
+      </c>
+      <c r="C10" s="61"/>
+      <c r="D10" s="60" t="s">
+        <v>119</v>
+      </c>
+      <c r="E10" s="74" t="s">
+        <v>118</v>
+      </c>
+      <c r="F10" s="74" t="s">
+        <v>116</v>
+      </c>
+      <c r="G10" s="60" t="s">
+        <v>117</v>
+      </c>
+      <c r="H10" s="61"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A11" s="4"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="75"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+    </row>
+    <row r="12" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="4"/>
+      <c r="B12" s="99"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="101"/>
+      <c r="E12" s="101"/>
+      <c r="F12" s="101"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="72"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="O12" s="91"/>
+      <c r="P12" s="92" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q12" s="91"/>
+      <c r="R12" s="91"/>
+      <c r="S12" s="91"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A13" s="4"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="O13" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="P13" s="42"/>
+      <c r="Q13" s="42"/>
+      <c r="R13" s="42"/>
+      <c r="S13" s="42"/>
+    </row>
+    <row r="14" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="4"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="37"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="M14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q14" s="42"/>
+      <c r="R14" s="42"/>
+      <c r="S14" s="42"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A15" s="4"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="42"/>
+      <c r="R15" s="42"/>
+      <c r="S15" s="42"/>
+    </row>
+    <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="4"/>
+      <c r="B16" s="96" t="s">
+        <v>99</v>
+      </c>
+      <c r="C16" s="97"/>
+      <c r="D16" s="102" t="s">
+        <v>121</v>
+      </c>
+      <c r="E16" s="102" t="s">
+        <v>121</v>
+      </c>
+      <c r="F16" s="105" t="s">
+        <v>122</v>
+      </c>
+      <c r="G16" s="104" t="s">
+        <v>124</v>
+      </c>
+      <c r="H16" s="98"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="35"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q16" s="42"/>
+      <c r="R16" s="42"/>
+      <c r="S16" s="42"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A17" s="4"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="O17" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="42"/>
+      <c r="R17" s="42"/>
+      <c r="S17" s="42"/>
+    </row>
+    <row r="18" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="4"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q18" s="42"/>
+      <c r="R18" s="45"/>
+      <c r="S18" s="42"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A19" s="4"/>
+      <c r="B19" s="100"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="103"/>
+      <c r="E19" s="103"/>
+      <c r="F19" s="103"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="73"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="O19" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="P19" s="42"/>
+      <c r="Q19" s="42"/>
+      <c r="R19" s="42"/>
+      <c r="S19" s="42"/>
+    </row>
+    <row r="20" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="4"/>
+      <c r="B20" s="40"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q20" s="42"/>
+      <c r="R20" s="45"/>
+      <c r="S20" s="42"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A21" s="4"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="5"/>
+      <c r="O21" s="41"/>
+      <c r="P21" s="42"/>
+      <c r="Q21" s="42"/>
+      <c r="R21" s="42"/>
+      <c r="S21" s="42"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A22" s="4"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="D22" s="80" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" s="81"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A24" s="4"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A25" s="4"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A26" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A27" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" s="51"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="52"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A28" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A29" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="93" t="s">
+        <v>112</v>
+      </c>
+      <c r="D29" s="94"/>
+      <c r="E29" s="94"/>
+      <c r="F29" s="94"/>
+      <c r="G29" s="94"/>
+      <c r="H29" s="94"/>
+      <c r="I29" s="95"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A30" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="D30" s="51"/>
+      <c r="E30" s="51"/>
+      <c r="F30" s="51"/>
+      <c r="G30" s="51"/>
+      <c r="H30" s="51"/>
+      <c r="I30" s="52"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A31" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" s="50" t="s">
+        <v>59</v>
+      </c>
+      <c r="D31" s="51"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="52"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A32" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="D32" s="51"/>
+      <c r="E32" s="51"/>
+      <c r="F32" s="51"/>
+      <c r="G32" s="51"/>
+      <c r="H32" s="51"/>
+      <c r="I32" s="52"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A33" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="D33" s="51"/>
+      <c r="E33" s="51"/>
+      <c r="F33" s="51"/>
+      <c r="G33" s="51"/>
+      <c r="H33" s="51"/>
+      <c r="I33" s="52"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="B10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="G10:H11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="A27:I27"/>
+    <mergeCell ref="C31:I31"/>
+    <mergeCell ref="C30:I30"/>
+    <mergeCell ref="C33:I33"/>
+    <mergeCell ref="C32:I32"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="C29:I29"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="D16:E16" numberStoredAsText="1"/>
+  </ignoredErrors>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
@@ -3055,128 +6241,128 @@
     <col min="2" max="2" width="12.25" customWidth="1"/>
     <col min="3" max="3" width="11.125" customWidth="1"/>
     <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="7" max="7" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="22"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A2" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="23"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="25" t="s">
+      <c r="C2" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="26" t="s">
+      <c r="G2" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="106"/>
+      <c r="I2" s="34"/>
+    </row>
+    <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A3" s="26"/>
+      <c r="B3" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="35" t="s">
+      <c r="C3" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="35"/>
-      <c r="I2" s="36"/>
-    </row>
-    <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A3" s="27"/>
-      <c r="B3" s="26" t="s">
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="G3" s="27">
+        <v>43737</v>
+      </c>
+      <c r="H3" s="33"/>
+      <c r="I3" s="34"/>
+    </row>
+    <row r="4" spans="1:13" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A4" s="28"/>
+      <c r="B4" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="26" t="s">
+      <c r="C4" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="28">
-        <v>43731</v>
-      </c>
-      <c r="H3" s="35"/>
-      <c r="I3" s="36"/>
-    </row>
-    <row r="4" spans="1:13" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A4" s="29"/>
-      <c r="B4" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="34" t="s">
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="29">
+        <v>1</v>
+      </c>
+      <c r="H4" s="33"/>
+      <c r="I4" s="34"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A5" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="G4" s="30">
-        <v>1</v>
-      </c>
-      <c r="H4" s="35"/>
-      <c r="I4" s="36"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A5" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="34"/>
+    </row>
+    <row r="6" spans="1:13" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A6" s="26"/>
+      <c r="B6" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="36"/>
-    </row>
-    <row r="6" spans="1:13" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A6" s="27"/>
-      <c r="B6" s="25" t="s">
+      <c r="C6" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="34"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A7" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="36"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A7" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="23"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="22"/>
     </row>
     <row r="8" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="38"/>
+      <c r="A8" s="36"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -3186,118 +6372,147 @@
       <c r="H8" s="2"/>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A9" s="4"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="3"/>
+    <row r="9" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="69"/>
+      <c r="B9" s="46" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="48"/>
       <c r="I9" s="6"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="6"/>
+      <c r="B10" s="60" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="61"/>
+      <c r="D10" s="60" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="60" t="s">
+        <v>67</v>
+      </c>
+      <c r="F10" s="61"/>
+      <c r="G10" s="60" t="s">
+        <v>98</v>
+      </c>
+      <c r="H10" s="61"/>
       <c r="I10" s="6"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="6"/>
+      <c r="A11" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="62"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="63"/>
       <c r="I11" s="6"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-    </row>
-    <row r="12" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="32"/>
+      <c r="B12" s="64">
+        <v>43737.5</v>
+      </c>
+      <c r="C12" s="65"/>
+      <c r="D12" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" s="57"/>
+      <c r="G12" s="56" t="s">
+        <v>100</v>
+      </c>
+      <c r="H12" s="57"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A13" s="43"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
+    <row r="13" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="4"/>
+      <c r="B13" s="66"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="37"/>
+      <c r="K13" s="31"/>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
     </row>
-    <row r="14" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="6"/>
+      <c r="B14" s="64">
+        <v>43737.541666666664</v>
+      </c>
+      <c r="C14" s="65"/>
+      <c r="D14" s="56" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" s="57"/>
+      <c r="G14" s="56" t="s">
+        <v>100</v>
+      </c>
+      <c r="H14" s="57"/>
       <c r="I14" s="6"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
-      <c r="L14" s="37"/>
-      <c r="M14" s="37"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+    </row>
+    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="6"/>
+      <c r="B15" s="66"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="59"/>
       <c r="I15" s="6"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="35"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="6"/>
+      <c r="B16" s="64">
+        <v>43738.5</v>
+      </c>
+      <c r="C16" s="65"/>
+      <c r="D16" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="F16" s="57"/>
+      <c r="G16" s="56" t="s">
+        <v>101</v>
+      </c>
+      <c r="H16" s="57"/>
       <c r="I16" s="6"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
@@ -3306,28 +6521,35 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="6"/>
+      <c r="B17" s="66"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="59"/>
       <c r="I17" s="6"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="6"/>
+      <c r="B18" s="64">
+        <v>43738.5</v>
+      </c>
+      <c r="C18" s="65"/>
+      <c r="D18" s="56" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" s="68" t="s">
+        <v>74</v>
+      </c>
+      <c r="F18" s="76"/>
+      <c r="G18" s="56" t="s">
+        <v>101</v>
+      </c>
+      <c r="H18" s="57"/>
       <c r="I18" s="6"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
@@ -3336,13 +6558,13 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="6"/>
+      <c r="B19" s="66"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="77"/>
+      <c r="F19" s="78"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="59"/>
       <c r="I19" s="6"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
@@ -3350,44 +6572,60 @@
       <c r="M19" s="5"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="6"/>
+      <c r="A20" s="38"/>
+      <c r="B20" s="64">
+        <v>43739.5</v>
+      </c>
+      <c r="C20" s="65"/>
+      <c r="D20" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" s="68" t="s">
+        <v>76</v>
+      </c>
+      <c r="F20" s="76"/>
+      <c r="G20" s="56" t="s">
+        <v>101</v>
+      </c>
+      <c r="H20" s="57"/>
       <c r="I20" s="6"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
+      <c r="L20" s="11"/>
       <c r="M20" s="5"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="6"/>
+      <c r="B21" s="66"/>
+      <c r="C21" s="67"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="77"/>
+      <c r="F21" s="78"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="59"/>
       <c r="I21" s="6"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
     </row>
-    <row r="22" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A22" s="4"/>
-      <c r="B22" s="43"/>
-      <c r="C22" s="77"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="77"/>
-      <c r="H22" s="6"/>
+      <c r="B22" s="64">
+        <v>43739.541666666664</v>
+      </c>
+      <c r="C22" s="65"/>
+      <c r="D22" s="56" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" s="56" t="s">
+        <v>78</v>
+      </c>
+      <c r="F22" s="57"/>
+      <c r="G22" s="56" t="s">
+        <v>101</v>
+      </c>
+      <c r="H22" s="57"/>
       <c r="I22" s="6"/>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
@@ -3396,13 +6634,13 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A23" s="4"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="9"/>
+      <c r="B23" s="66"/>
+      <c r="C23" s="67"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="59"/>
       <c r="I23" s="6"/>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
@@ -3411,19 +6649,10 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A24" s="4"/>
-      <c r="B24" s="42" t="s">
-        <v>97</v>
-      </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="76" t="s">
-        <v>98</v>
-      </c>
-      <c r="E24" s="76"/>
-      <c r="F24" s="76" t="s">
-        <v>99</v>
-      </c>
-      <c r="G24" s="2"/>
-      <c r="H24" s="3"/>
+      <c r="B24" s="4"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="6"/>
       <c r="I24" s="6"/>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
@@ -3433,17 +6662,15 @@
     <row r="25" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
-      <c r="C25" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D25" s="5"/>
-      <c r="E25" s="13" t="s">
-        <v>43</v>
-      </c>
+      <c r="C25" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25" s="80" t="s">
+        <v>80</v>
+      </c>
+      <c r="E25" s="81"/>
       <c r="F25" s="5"/>
-      <c r="G25" s="13" t="s">
-        <v>96</v>
-      </c>
+      <c r="G25" s="5"/>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
       <c r="J25" s="5"/>
@@ -3480,1269 +6707,181 @@
       <c r="M27" s="5"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A28" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="17"/>
+      <c r="A28" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="16"/>
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A29" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="B29" s="54"/>
-      <c r="C29" s="54"/>
-      <c r="D29" s="54"/>
-      <c r="E29" s="54"/>
-      <c r="F29" s="54"/>
-      <c r="G29" s="54"/>
-      <c r="H29" s="54"/>
-      <c r="I29" s="55"/>
+      <c r="A29" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="B29" s="51"/>
+      <c r="C29" s="51"/>
+      <c r="D29" s="51"/>
+      <c r="E29" s="51"/>
+      <c r="F29" s="51"/>
+      <c r="G29" s="51"/>
+      <c r="H29" s="51"/>
+      <c r="I29" s="52"/>
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A30" s="14" t="s">
+      <c r="A30" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="17"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="16"/>
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
       <c r="M30" s="5"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A31" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="B31" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C31" s="53" t="s">
-        <v>102</v>
-      </c>
-      <c r="D31" s="54"/>
-      <c r="E31" s="54"/>
-      <c r="F31" s="54"/>
-      <c r="G31" s="54"/>
-      <c r="H31" s="54"/>
-      <c r="I31" s="55"/>
+      <c r="A31" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C31" s="50" t="s">
+        <v>132</v>
+      </c>
+      <c r="D31" s="51"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="52"/>
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
       <c r="M31" s="5"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A32" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C32" s="53" t="s">
-        <v>103</v>
-      </c>
-      <c r="D32" s="54"/>
-      <c r="E32" s="54"/>
-      <c r="F32" s="54"/>
-      <c r="G32" s="54"/>
-      <c r="H32" s="54"/>
-      <c r="I32" s="55"/>
+      <c r="A32" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C32" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="D32" s="51"/>
+      <c r="E32" s="51"/>
+      <c r="F32" s="51"/>
+      <c r="G32" s="51"/>
+      <c r="H32" s="51"/>
+      <c r="I32" s="52"/>
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A33" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B33" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C33" s="53" t="s">
-        <v>100</v>
-      </c>
-      <c r="D33" s="54"/>
-      <c r="E33" s="54"/>
-      <c r="F33" s="54"/>
-      <c r="G33" s="54"/>
-      <c r="H33" s="54"/>
-      <c r="I33" s="55"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A34" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B34" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C34" s="53" t="s">
-        <v>101</v>
-      </c>
-      <c r="D34" s="54"/>
-      <c r="E34" s="54"/>
-      <c r="F34" s="54"/>
-      <c r="G34" s="54"/>
-      <c r="H34" s="54"/>
-      <c r="I34" s="55"/>
-    </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A29:I29"/>
-    <mergeCell ref="C33:I33"/>
-    <mergeCell ref="C34:I34"/>
-    <mergeCell ref="C31:I31"/>
-    <mergeCell ref="C32:I32"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr autoPageBreaks="0"/>
-  </sheetPr>
-  <dimension ref="A1:M32"/>
-  <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="12.25" customWidth="1"/>
-    <col min="3" max="3" width="11.125" customWidth="1"/>
-    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="23"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="35"/>
-      <c r="I2" s="36"/>
-    </row>
-    <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A3" s="27"/>
-      <c r="B3" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="28">
-        <v>43744</v>
-      </c>
-      <c r="H3" s="35"/>
-      <c r="I3" s="36"/>
-    </row>
-    <row r="4" spans="1:13" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A4" s="29"/>
-      <c r="B4" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="G4" s="30">
-        <v>1</v>
-      </c>
-      <c r="H4" s="35"/>
-      <c r="I4" s="36"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A5" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="36"/>
-    </row>
-    <row r="6" spans="1:13" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A6" s="27"/>
-      <c r="B6" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="36"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A7" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="23"/>
-    </row>
-    <row r="8" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="38"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A9" s="4"/>
-      <c r="B9" s="44"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A10" s="4"/>
-      <c r="B10" s="47"/>
-      <c r="C10" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-    </row>
-    <row r="11" spans="1:13" ht="24" x14ac:dyDescent="0.15">
-      <c r="A11" s="4"/>
-      <c r="B11" s="47"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="51" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-    </row>
-    <row r="12" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="4"/>
-      <c r="B12" s="47"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="39"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-    </row>
-    <row r="13" spans="1:13" ht="24" x14ac:dyDescent="0.15">
-      <c r="A13" s="4"/>
-      <c r="B13" s="47"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="51" t="s">
-        <v>56</v>
-      </c>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="50"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-    </row>
-    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="4"/>
-      <c r="B14" s="47"/>
-      <c r="C14" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="37"/>
-      <c r="M14" s="37"/>
-    </row>
-    <row r="15" spans="1:13" ht="24" x14ac:dyDescent="0.15">
-      <c r="A15" s="4"/>
-      <c r="B15" s="47"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="51" t="s">
-        <v>58</v>
-      </c>
-      <c r="E15" s="49"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A16" s="4"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-    </row>
-    <row r="17" spans="1:13" ht="24" x14ac:dyDescent="0.15">
-      <c r="A17" s="4"/>
-      <c r="B17" s="47"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="E17" s="49"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A18" s="4"/>
-      <c r="B18" s="47"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A19" s="4"/>
-      <c r="B19" s="47"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="49"/>
-      <c r="H19" s="50"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="5"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A20" s="4"/>
-      <c r="B20" s="47"/>
-      <c r="C20" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="D20" s="59" t="s">
-        <v>60</v>
-      </c>
-      <c r="E20" s="60"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="49"/>
-      <c r="H20" s="50"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="61"/>
-      <c r="E21" s="62"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A22" s="4"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A23" s="4"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A24" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A25" s="53" t="s">
-        <v>61</v>
-      </c>
-      <c r="B25" s="54"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="54"/>
-      <c r="E25" s="54"/>
-      <c r="F25" s="54"/>
-      <c r="G25" s="54"/>
-      <c r="H25" s="54"/>
-      <c r="I25" s="55"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A26" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B26" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A27" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="C27" s="53" t="s">
-        <v>63</v>
-      </c>
-      <c r="D27" s="54"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="54"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="54"/>
-      <c r="I27" s="55"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A28" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C28" s="53" t="s">
-        <v>64</v>
-      </c>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54"/>
-      <c r="G28" s="54"/>
-      <c r="H28" s="54"/>
-      <c r="I28" s="55"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A29" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C29" s="53" t="s">
-        <v>65</v>
-      </c>
-      <c r="D29" s="54"/>
-      <c r="E29" s="54"/>
-      <c r="F29" s="54"/>
-      <c r="G29" s="54"/>
-      <c r="H29" s="54"/>
-      <c r="I29" s="55"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A30" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30" s="53" t="s">
-        <v>66</v>
-      </c>
-      <c r="D30" s="54"/>
-      <c r="E30" s="54"/>
-      <c r="F30" s="54"/>
-      <c r="G30" s="54"/>
-      <c r="H30" s="54"/>
-      <c r="I30" s="55"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="D20:E21"/>
-    <mergeCell ref="A25:I25"/>
-    <mergeCell ref="C28:I28"/>
-    <mergeCell ref="C27:I27"/>
-    <mergeCell ref="C30:I30"/>
-    <mergeCell ref="C29:I29"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M32"/>
-  <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32:I32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="12.25" customWidth="1"/>
-    <col min="3" max="3" width="11.125" customWidth="1"/>
-    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="23"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="35"/>
-      <c r="I2" s="36"/>
-    </row>
-    <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A3" s="27"/>
-      <c r="B3" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="28">
-        <v>43737</v>
-      </c>
-      <c r="H3" s="35"/>
-      <c r="I3" s="36"/>
-    </row>
-    <row r="4" spans="1:13" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A4" s="29"/>
-      <c r="B4" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="G4" s="30">
-        <v>1</v>
-      </c>
-      <c r="H4" s="35"/>
-      <c r="I4" s="36"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A5" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="36"/>
-    </row>
-    <row r="6" spans="1:13" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A6" s="27"/>
-      <c r="B6" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="36"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A7" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="23"/>
-    </row>
-    <row r="8" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="38"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A9" s="4"/>
-      <c r="B9" s="70" t="s">
-        <v>72</v>
-      </c>
-      <c r="C9" s="71"/>
-      <c r="D9" s="70" t="s">
-        <v>73</v>
-      </c>
-      <c r="E9" s="71"/>
-      <c r="F9" s="70" t="s">
-        <v>74</v>
-      </c>
-      <c r="G9" s="74"/>
-      <c r="H9" s="71"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A10" s="43" t="s">
-        <v>54</v>
-      </c>
-      <c r="B10" s="72"/>
-      <c r="C10" s="73"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="72"/>
-      <c r="G10" s="75"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A11" s="4"/>
-      <c r="B11" s="63">
-        <v>43737.5</v>
-      </c>
-      <c r="C11" s="64"/>
-      <c r="D11" s="59" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="60"/>
-      <c r="F11" s="59" t="s">
-        <v>75</v>
-      </c>
-      <c r="G11" s="67"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-    </row>
-    <row r="12" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="4"/>
-      <c r="B12" s="65"/>
-      <c r="C12" s="66"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="68"/>
-      <c r="H12" s="62"/>
-      <c r="I12" s="39"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A13" s="4"/>
-      <c r="B13" s="63">
-        <v>43737.541666666664</v>
-      </c>
-      <c r="C13" s="64"/>
-      <c r="D13" s="59" t="s">
-        <v>76</v>
-      </c>
-      <c r="E13" s="60"/>
-      <c r="F13" s="59" t="s">
-        <v>77</v>
-      </c>
-      <c r="G13" s="67"/>
-      <c r="H13" s="60"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-    </row>
-    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="4"/>
-      <c r="B14" s="65"/>
-      <c r="C14" s="66"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="68"/>
-      <c r="H14" s="62"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="37"/>
-      <c r="M14" s="37"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A15" s="4"/>
-      <c r="B15" s="63">
-        <v>43738.5</v>
-      </c>
-      <c r="C15" s="64"/>
-      <c r="D15" s="59" t="s">
-        <v>78</v>
-      </c>
-      <c r="E15" s="60"/>
-      <c r="F15" s="59" t="s">
-        <v>79</v>
-      </c>
-      <c r="G15" s="67"/>
-      <c r="H15" s="60"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A16" s="4"/>
-      <c r="B16" s="65"/>
-      <c r="C16" s="66"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="68"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A17" s="4"/>
-      <c r="B17" s="63">
-        <v>43738.5</v>
-      </c>
-      <c r="C17" s="64"/>
-      <c r="D17" s="59" t="s">
-        <v>80</v>
-      </c>
-      <c r="E17" s="60"/>
-      <c r="F17" s="69" t="s">
-        <v>81</v>
-      </c>
-      <c r="G17" s="67"/>
-      <c r="H17" s="60"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A18" s="4"/>
-      <c r="B18" s="65"/>
-      <c r="C18" s="66"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="68"/>
-      <c r="H18" s="62"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A19" s="40"/>
-      <c r="B19" s="63">
-        <v>43739.5</v>
-      </c>
-      <c r="C19" s="64"/>
-      <c r="D19" s="59" t="s">
-        <v>82</v>
-      </c>
-      <c r="E19" s="60"/>
-      <c r="F19" s="69" t="s">
-        <v>83</v>
-      </c>
-      <c r="G19" s="67"/>
-      <c r="H19" s="60"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="5"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A20" s="4"/>
-      <c r="B20" s="65"/>
-      <c r="C20" s="66"/>
-      <c r="D20" s="61"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="68"/>
-      <c r="H20" s="62"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A21" s="4"/>
-      <c r="B21" s="63">
-        <v>43739.541666666664</v>
-      </c>
-      <c r="C21" s="64"/>
-      <c r="D21" s="59" t="s">
-        <v>84</v>
-      </c>
-      <c r="E21" s="60"/>
-      <c r="F21" s="59" t="s">
-        <v>85</v>
-      </c>
-      <c r="G21" s="67"/>
-      <c r="H21" s="60"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A22" s="4"/>
-      <c r="B22" s="65"/>
-      <c r="C22" s="66"/>
-      <c r="D22" s="61"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="61"/>
-      <c r="G22" s="68"/>
-      <c r="H22" s="62"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="D24" s="59" t="s">
-        <v>87</v>
-      </c>
-      <c r="E24" s="60"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="61"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A26" s="4"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A27" s="7"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="9"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A28" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="17"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A29" s="53" t="s">
-        <v>88</v>
-      </c>
-      <c r="B29" s="54"/>
-      <c r="C29" s="54"/>
-      <c r="D29" s="54"/>
-      <c r="E29" s="54"/>
-      <c r="F29" s="54"/>
-      <c r="G29" s="54"/>
-      <c r="H29" s="54"/>
-      <c r="I29" s="55"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A30" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A31" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="B31" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="C31" s="53" t="s">
-        <v>91</v>
-      </c>
-      <c r="D31" s="54"/>
-      <c r="E31" s="54"/>
-      <c r="F31" s="54"/>
-      <c r="G31" s="54"/>
-      <c r="H31" s="54"/>
-      <c r="I31" s="55"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A32" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="C32" s="53" t="s">
-        <v>94</v>
-      </c>
-      <c r="D32" s="54"/>
-      <c r="E32" s="54"/>
-      <c r="F32" s="54"/>
-      <c r="G32" s="54"/>
-      <c r="H32" s="54"/>
-      <c r="I32" s="55"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-    </row>
-  </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="B9:C10"/>
-    <mergeCell ref="D9:E10"/>
-    <mergeCell ref="F9:H10"/>
-    <mergeCell ref="B11:C12"/>
-    <mergeCell ref="D11:E12"/>
-    <mergeCell ref="F11:H12"/>
-    <mergeCell ref="B13:C14"/>
-    <mergeCell ref="D13:E14"/>
-    <mergeCell ref="F13:H14"/>
-    <mergeCell ref="B15:C16"/>
-    <mergeCell ref="D15:E16"/>
-    <mergeCell ref="F15:H16"/>
+  <mergeCells count="32">
+    <mergeCell ref="G10:H11"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="G12:H13"/>
+    <mergeCell ref="G22:H23"/>
+    <mergeCell ref="G20:H21"/>
+    <mergeCell ref="G18:H19"/>
+    <mergeCell ref="G16:H17"/>
+    <mergeCell ref="G14:H15"/>
+    <mergeCell ref="E10:F11"/>
+    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="E20:F21"/>
+    <mergeCell ref="E18:F19"/>
+    <mergeCell ref="E16:F17"/>
+    <mergeCell ref="E14:F15"/>
+    <mergeCell ref="E12:F13"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D10:D11"/>
     <mergeCell ref="C32:I32"/>
     <mergeCell ref="A29:I29"/>
-    <mergeCell ref="B17:C18"/>
-    <mergeCell ref="D17:E18"/>
-    <mergeCell ref="F17:H18"/>
-    <mergeCell ref="B19:C20"/>
-    <mergeCell ref="D19:E20"/>
-    <mergeCell ref="F19:H20"/>
-    <mergeCell ref="B21:C22"/>
-    <mergeCell ref="D21:E22"/>
-    <mergeCell ref="F21:H22"/>
-    <mergeCell ref="D24:E25"/>
+    <mergeCell ref="B18:C19"/>
+    <mergeCell ref="B20:C21"/>
+    <mergeCell ref="B22:C23"/>
     <mergeCell ref="C31:I31"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="B14:C15"/>
+    <mergeCell ref="B16:C17"/>
+    <mergeCell ref="B10:C11"/>
+    <mergeCell ref="B12:C13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I27"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:9" s="70" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="107" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="C14" t="s">
+        <v>129</v>
+      </c>
+      <c r="H14" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="27" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D27" t="s">
+        <v>127</v>
+      </c>
+      <c r="H27" t="s">
+        <v>128</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/design.xlsx
+++ b/design.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="127">
   <si>
     <t>色識別アプリ</t>
     <rPh sb="0" eb="1">
@@ -440,31 +440,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>X座標：00</t>
-    <rPh sb="1" eb="3">
-      <t>ザヒョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Y座標：00</t>
-    <rPh sb="1" eb="3">
-      <t>ザヒョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>②</t>
-  </si>
-  <si>
-    <t>色：赤</t>
-    <rPh sb="0" eb="1">
-      <t>イロ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>アカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>戻る</t>
@@ -541,10 +517,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>④</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>履歴画面</t>
     <rPh sb="0" eb="2">
       <t>リレキ</t>
@@ -674,19 +646,6 @@
     </rPh>
     <rPh sb="7" eb="9">
       <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ポインターの位置の色を判定するボタン</t>
-    <rPh sb="6" eb="8">
-      <t>イチ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>イロ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ハンテイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -986,28 +945,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>判定した画像：</t>
-    <rPh sb="0" eb="2">
-      <t>ハンテイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ガゾウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>00</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>赤</t>
-  </si>
-  <si>
-    <t>RGB値：</t>
-    <rPh sb="3" eb="4">
-      <t>チ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>255,0,0</t>
@@ -1116,6 +1058,44 @@
     </rPh>
     <rPh sb="34" eb="36">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポインターの位置の色を判定するボタン。
+押下すると結果表示画面に遷移し、判定結果を返します。</t>
+    <rPh sb="6" eb="8">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>カエ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1127,7 +1107,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm;@"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1189,14 +1169,6 @@
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="20"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -1404,7 +1376,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1537,12 +1509,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1553,6 +1519,63 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
@@ -1573,6 +1596,66 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1585,16 +1668,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1608,126 +1691,6 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3189,274 +3152,6 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>154781</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>782638</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>237332</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="直線矢印コネクタ 7"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1809750" y="2345531"/>
-          <a:ext cx="592138" cy="244476"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>797719</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>154781</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>500063</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>23813</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="フレーム 8"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2416969" y="2345531"/>
-          <a:ext cx="1235869" cy="812007"/>
-        </a:xfrm>
-        <a:prstGeom prst="frame">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 4808"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FF0000"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>178594</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>154781</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>27782</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>153195</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="直線矢印コネクタ 9"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1797844" y="3288506"/>
-          <a:ext cx="696913" cy="169864"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>51594</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>153196</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="直線矢印コネクタ 10"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1809750" y="3752849"/>
-          <a:ext cx="708819" cy="181772"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>571499</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>11905</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>556418</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>201613</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="12" name="直線矢印コネクタ 11"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8727280" y="2893218"/>
-          <a:ext cx="675482" cy="189708"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4709,15 +4404,15 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
-      <c r="B9" s="46" t="s">
-        <v>110</v>
-      </c>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="48"/>
+      <c r="B9" s="44" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="46"/>
       <c r="I9" s="6"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
@@ -4754,15 +4449,15 @@
     </row>
     <row r="12" spans="1:13" ht="30.75" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
-      <c r="B12" s="53" t="s">
+      <c r="B12" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="55"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="71"/>
+      <c r="H12" s="72"/>
       <c r="I12" s="37"/>
       <c r="J12" s="31"/>
       <c r="K12" s="31"/>
@@ -4911,15 +4606,15 @@
     <row r="22" spans="1:13" ht="21" x14ac:dyDescent="0.15">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
-      <c r="C22" s="82" t="s">
-        <v>103</v>
-      </c>
-      <c r="D22" s="83"/>
+      <c r="C22" s="73" t="s">
+        <v>98</v>
+      </c>
+      <c r="D22" s="74"/>
       <c r="E22" s="5"/>
-      <c r="F22" s="84" t="s">
-        <v>105</v>
-      </c>
-      <c r="G22" s="85"/>
+      <c r="F22" s="75" t="s">
+        <v>100</v>
+      </c>
+      <c r="G22" s="76"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
       <c r="J22" s="5"/>
@@ -4983,17 +4678,17 @@
       <c r="M26" s="5"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A27" s="50" t="s">
+      <c r="A27" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="51"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="51"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="51"/>
-      <c r="I27" s="52"/>
+      <c r="B27" s="68"/>
+      <c r="C27" s="68"/>
+      <c r="D27" s="68"/>
+      <c r="E27" s="68"/>
+      <c r="F27" s="68"/>
+      <c r="G27" s="68"/>
+      <c r="H27" s="68"/>
+      <c r="I27" s="69"/>
       <c r="L27" s="5"/>
       <c r="M27" s="5"/>
     </row>
@@ -5023,15 +4718,15 @@
       <c r="B29" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="50" t="s">
+      <c r="C29" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="D29" s="51"/>
-      <c r="E29" s="51"/>
-      <c r="F29" s="51"/>
-      <c r="G29" s="51"/>
-      <c r="H29" s="51"/>
-      <c r="I29" s="52"/>
+      <c r="D29" s="68"/>
+      <c r="E29" s="68"/>
+      <c r="F29" s="68"/>
+      <c r="G29" s="68"/>
+      <c r="H29" s="68"/>
+      <c r="I29" s="69"/>
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
     </row>
@@ -5042,15 +4737,15 @@
       <c r="B30" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="50" t="s">
+      <c r="C30" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="51"/>
-      <c r="E30" s="51"/>
-      <c r="F30" s="51"/>
-      <c r="G30" s="51"/>
-      <c r="H30" s="51"/>
-      <c r="I30" s="52"/>
+      <c r="D30" s="68"/>
+      <c r="E30" s="68"/>
+      <c r="F30" s="68"/>
+      <c r="G30" s="68"/>
+      <c r="H30" s="68"/>
+      <c r="I30" s="69"/>
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
@@ -5063,15 +4758,15 @@
       <c r="B31" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="50" t="s">
+      <c r="C31" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="D31" s="51"/>
-      <c r="E31" s="51"/>
-      <c r="F31" s="51"/>
-      <c r="G31" s="51"/>
-      <c r="H31" s="51"/>
-      <c r="I31" s="52"/>
+      <c r="D31" s="68"/>
+      <c r="E31" s="68"/>
+      <c r="F31" s="68"/>
+      <c r="G31" s="68"/>
+      <c r="H31" s="68"/>
+      <c r="I31" s="69"/>
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
@@ -5102,9 +4797,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
-    </sheetView>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -5246,27 +4939,27 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C9" s="5"/>
       <c r="F9" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A10" s="46" t="s">
-        <v>109</v>
-      </c>
-      <c r="B10" s="47"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="48"/>
-      <c r="F10" s="46" t="s">
-        <v>108</v>
-      </c>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="48"/>
+      <c r="A10" s="44" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="46"/>
+      <c r="F10" s="44" t="s">
+        <v>103</v>
+      </c>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="46"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
@@ -5274,8 +4967,8 @@
       <c r="C11" s="5"/>
       <c r="D11" s="6"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="49" t="s">
-        <v>89</v>
+      <c r="G11" s="47" t="s">
+        <v>84</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="3"/>
@@ -5292,7 +4985,7 @@
     </row>
     <row r="13" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="39" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="31"/>
@@ -5363,25 +5056,25 @@
       <c r="I19" s="6"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A20" s="86" t="s">
-        <v>93</v>
-      </c>
-      <c r="B20" s="87" t="s">
-        <v>94</v>
-      </c>
-      <c r="C20" s="87" t="s">
-        <v>95</v>
+      <c r="A20" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="B20" s="54" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" s="54" t="s">
+        <v>90</v>
       </c>
       <c r="D20" s="9"/>
       <c r="F20" s="39" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H20" s="5"/>
-      <c r="I20" s="71" t="s">
-        <v>91</v>
+      <c r="I20" s="50" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.15">
@@ -5433,17 +5126,17 @@
       <c r="I25" s="16"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A26" s="50" t="s">
+      <c r="A26" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="51"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="51"/>
-      <c r="F26" s="51"/>
-      <c r="G26" s="51"/>
-      <c r="H26" s="51"/>
-      <c r="I26" s="52"/>
+      <c r="B26" s="68"/>
+      <c r="C26" s="68"/>
+      <c r="D26" s="68"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="68"/>
+      <c r="G26" s="68"/>
+      <c r="H26" s="68"/>
+      <c r="I26" s="69"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A27" s="13" t="s">
@@ -5469,15 +5162,15 @@
       <c r="B28" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C28" s="50" t="s">
-        <v>88</v>
-      </c>
-      <c r="D28" s="51"/>
-      <c r="E28" s="51"/>
-      <c r="F28" s="51"/>
-      <c r="G28" s="51"/>
-      <c r="H28" s="51"/>
-      <c r="I28" s="52"/>
+      <c r="C28" s="67" t="s">
+        <v>83</v>
+      </c>
+      <c r="D28" s="68"/>
+      <c r="E28" s="68"/>
+      <c r="F28" s="68"/>
+      <c r="G28" s="68"/>
+      <c r="H28" s="68"/>
+      <c r="I28" s="69"/>
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
     </row>
@@ -5488,34 +5181,34 @@
       <c r="B29" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C29" s="79" t="s">
-        <v>104</v>
-      </c>
-      <c r="D29" s="51"/>
-      <c r="E29" s="51"/>
-      <c r="F29" s="51"/>
-      <c r="G29" s="51"/>
-      <c r="H29" s="51"/>
-      <c r="I29" s="52"/>
+      <c r="C29" s="77" t="s">
+        <v>99</v>
+      </c>
+      <c r="D29" s="68"/>
+      <c r="E29" s="68"/>
+      <c r="F29" s="68"/>
+      <c r="G29" s="68"/>
+      <c r="H29" s="68"/>
+      <c r="I29" s="69"/>
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="12" t="s">
         <v>39</v>
       </c>
       <c r="B30" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C30" s="50" t="s">
-        <v>86</v>
-      </c>
-      <c r="D30" s="51"/>
-      <c r="E30" s="51"/>
-      <c r="F30" s="51"/>
-      <c r="G30" s="51"/>
-      <c r="H30" s="51"/>
-      <c r="I30" s="52"/>
+      <c r="C30" s="77" t="s">
+        <v>126</v>
+      </c>
+      <c r="D30" s="68"/>
+      <c r="E30" s="68"/>
+      <c r="F30" s="68"/>
+      <c r="G30" s="68"/>
+      <c r="H30" s="68"/>
+      <c r="I30" s="69"/>
       <c r="L30" s="5"/>
       <c r="M30" s="5"/>
     </row>
@@ -5526,15 +5219,15 @@
       <c r="B31" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="50" t="s">
-        <v>87</v>
-      </c>
-      <c r="D31" s="51"/>
-      <c r="E31" s="51"/>
-      <c r="F31" s="51"/>
-      <c r="G31" s="51"/>
-      <c r="H31" s="51"/>
-      <c r="I31" s="52"/>
+      <c r="C31" s="67" t="s">
+        <v>82</v>
+      </c>
+      <c r="D31" s="68"/>
+      <c r="E31" s="68"/>
+      <c r="F31" s="68"/>
+      <c r="G31" s="68"/>
+      <c r="H31" s="68"/>
+      <c r="I31" s="69"/>
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
@@ -5572,9 +5265,7 @@
   </sheetPr>
   <dimension ref="A1:S35"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
-    </sheetView>
+    <sheetView topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -5584,7 +5275,7 @@
     <col min="7" max="7" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="20" t="s">
         <v>13</v>
       </c>
@@ -5597,7 +5288,7 @@
       <c r="H1" s="21"/>
       <c r="I1" s="22"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="23" t="s">
         <v>14</v>
       </c>
@@ -5618,7 +5309,7 @@
       <c r="H2" s="33"/>
       <c r="I2" s="34"/>
     </row>
-    <row r="3" spans="1:19" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="26"/>
       <c r="B3" s="25" t="s">
         <v>19</v>
@@ -5637,7 +5328,7 @@
       <c r="H3" s="33"/>
       <c r="I3" s="34"/>
     </row>
-    <row r="4" spans="1:19" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A4" s="28"/>
       <c r="B4" s="24" t="s">
         <v>22</v>
@@ -5648,7 +5339,7 @@
       <c r="D4" s="33"/>
       <c r="E4" s="33"/>
       <c r="F4" s="25" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G4" s="29">
         <v>1</v>
@@ -5656,7 +5347,7 @@
       <c r="H4" s="33"/>
       <c r="I4" s="34"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="30" t="s">
         <v>25</v>
       </c>
@@ -5673,7 +5364,7 @@
       <c r="H5" s="33"/>
       <c r="I5" s="34"/>
     </row>
-    <row r="6" spans="1:19" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A6" s="26"/>
       <c r="B6" s="24" t="s">
         <v>28</v>
@@ -5688,7 +5379,7 @@
       <c r="H6" s="33"/>
       <c r="I6" s="34"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" s="20" t="s">
         <v>30</v>
       </c>
@@ -5701,7 +5392,7 @@
       <c r="H7" s="21"/>
       <c r="I7" s="22"/>
     </row>
-    <row r="8" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="36"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -5712,78 +5403,72 @@
       <c r="H8" s="2"/>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
-      <c r="B9" s="88" t="s">
-        <v>106</v>
-      </c>
-      <c r="C9" s="89"/>
-      <c r="D9" s="89"/>
-      <c r="E9" s="89"/>
-      <c r="F9" s="89"/>
-      <c r="G9" s="89"/>
-      <c r="H9" s="90"/>
+      <c r="B9" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="57"/>
       <c r="I9" s="6"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
-      <c r="B10" s="60" t="s">
-        <v>115</v>
-      </c>
-      <c r="C10" s="61"/>
-      <c r="D10" s="60" t="s">
-        <v>119</v>
-      </c>
-      <c r="E10" s="74" t="s">
-        <v>118</v>
-      </c>
-      <c r="F10" s="74" t="s">
-        <v>116</v>
-      </c>
-      <c r="G10" s="60" t="s">
-        <v>117</v>
-      </c>
-      <c r="H10" s="61"/>
+      <c r="B10" s="82" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" s="83"/>
+      <c r="D10" s="82" t="s">
+        <v>114</v>
+      </c>
+      <c r="E10" s="86" t="s">
+        <v>113</v>
+      </c>
+      <c r="F10" s="86" t="s">
+        <v>111</v>
+      </c>
+      <c r="G10" s="82" t="s">
+        <v>112</v>
+      </c>
+      <c r="H10" s="83"/>
       <c r="I10" s="6"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
-      <c r="B11" s="62"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="75"/>
-      <c r="F11" s="75"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="63"/>
+      <c r="B11" s="84"/>
+      <c r="C11" s="85"/>
+      <c r="D11" s="84"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="87"/>
+      <c r="G11" s="84"/>
+      <c r="H11" s="85"/>
       <c r="I11" s="6"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
     </row>
-    <row r="12" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
-      <c r="B12" s="99"/>
+      <c r="B12" s="59"/>
       <c r="C12" s="2"/>
-      <c r="D12" s="101"/>
-      <c r="E12" s="101"/>
-      <c r="F12" s="101"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="72"/>
+      <c r="H12" s="51"/>
       <c r="I12" s="6"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
-      <c r="O12" s="91"/>
-      <c r="P12" s="92" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q12" s="91"/>
-      <c r="R12" s="91"/>
-      <c r="S12" s="91"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="L12" s="58"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="40"/>
       <c r="C13" s="5"/>
@@ -5795,17 +5480,9 @@
       <c r="I13" s="6"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="O13" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="P13" s="42"/>
-      <c r="Q13" s="42"/>
-      <c r="R13" s="42"/>
-      <c r="S13" s="42"/>
-    </row>
-    <row r="14" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L13" s="42"/>
+    </row>
+    <row r="14" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14" s="40"/>
       <c r="C14" s="5"/>
@@ -5816,19 +5493,9 @@
       <c r="H14" s="43"/>
       <c r="I14" s="37"/>
       <c r="K14" s="31"/>
-      <c r="L14" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="M14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="44" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q14" s="42"/>
-      <c r="R14" s="42"/>
-      <c r="S14" s="42"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="L14" s="42"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="40"/>
       <c r="C15" s="5"/>
@@ -5840,45 +5507,31 @@
       <c r="I15" s="6"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="42"/>
-      <c r="R15" s="42"/>
-      <c r="S15" s="42"/>
-    </row>
-    <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L15" s="42"/>
+    </row>
+    <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
-      <c r="B16" s="96" t="s">
-        <v>99</v>
-      </c>
-      <c r="C16" s="97"/>
-      <c r="D16" s="102" t="s">
-        <v>121</v>
-      </c>
-      <c r="E16" s="102" t="s">
-        <v>121</v>
-      </c>
-      <c r="F16" s="105" t="s">
-        <v>122</v>
-      </c>
-      <c r="G16" s="104" t="s">
-        <v>124</v>
-      </c>
-      <c r="H16" s="98"/>
+      <c r="B16" s="78" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16" s="79"/>
+      <c r="D16" s="62" t="s">
+        <v>115</v>
+      </c>
+      <c r="E16" s="62" t="s">
+        <v>115</v>
+      </c>
+      <c r="F16" s="64" t="s">
+        <v>116</v>
+      </c>
+      <c r="G16" s="80" t="s">
+        <v>117</v>
+      </c>
+      <c r="H16" s="81"/>
       <c r="I16" s="6"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="35"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="44" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q16" s="42"/>
-      <c r="R16" s="42"/>
-      <c r="S16" s="42"/>
+      <c r="L16" s="42"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
@@ -5892,15 +5545,7 @@
       <c r="I17" s="6"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="O17" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="42"/>
-      <c r="R17" s="42"/>
-      <c r="S17" s="42"/>
+      <c r="L17" s="42"/>
     </row>
     <row r="18" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
@@ -5914,36 +5559,21 @@
       <c r="I18" s="6"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="44" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q18" s="42"/>
-      <c r="R18" s="45"/>
-      <c r="S18" s="42"/>
+      <c r="L18" s="42"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
-      <c r="B19" s="100"/>
+      <c r="B19" s="60"/>
       <c r="C19" s="8"/>
-      <c r="D19" s="103"/>
-      <c r="E19" s="103"/>
-      <c r="F19" s="103"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
       <c r="G19" s="7"/>
-      <c r="H19" s="73"/>
+      <c r="H19" s="52"/>
       <c r="I19" s="6"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="O19" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="P19" s="42"/>
-      <c r="Q19" s="42"/>
-      <c r="R19" s="42"/>
-      <c r="S19" s="42"/>
+      <c r="L19" s="42"/>
     </row>
     <row r="20" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="4"/>
@@ -5952,15 +5582,7 @@
       <c r="I20" s="6"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="44" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q20" s="42"/>
-      <c r="R20" s="45"/>
-      <c r="S20" s="42"/>
+      <c r="L20" s="42"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A21" s="4"/>
@@ -5986,12 +5608,12 @@
       <c r="A22" s="4"/>
       <c r="B22" s="40"/>
       <c r="C22" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="D22" s="80" t="s">
-        <v>55</v>
-      </c>
-      <c r="E22" s="81"/>
+        <v>106</v>
+      </c>
+      <c r="D22" s="88" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="89"/>
       <c r="F22" s="42"/>
       <c r="G22" s="42"/>
       <c r="H22" s="43"/>
@@ -6057,17 +5679,17 @@
       <c r="M26" s="5"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A27" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="B27" s="51"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="51"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="51"/>
-      <c r="I27" s="52"/>
+      <c r="A27" s="67" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" s="68"/>
+      <c r="C27" s="68"/>
+      <c r="D27" s="68"/>
+      <c r="E27" s="68"/>
+      <c r="F27" s="68"/>
+      <c r="G27" s="68"/>
+      <c r="H27" s="68"/>
+      <c r="I27" s="69"/>
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
@@ -6099,17 +5721,17 @@
         <v>50</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="C29" s="93" t="s">
-        <v>112</v>
-      </c>
-      <c r="D29" s="94"/>
-      <c r="E29" s="94"/>
-      <c r="F29" s="94"/>
-      <c r="G29" s="94"/>
-      <c r="H29" s="94"/>
-      <c r="I29" s="95"/>
+        <v>54</v>
+      </c>
+      <c r="C29" s="90" t="s">
+        <v>107</v>
+      </c>
+      <c r="D29" s="91"/>
+      <c r="E29" s="91"/>
+      <c r="F29" s="91"/>
+      <c r="G29" s="91"/>
+      <c r="H29" s="91"/>
+      <c r="I29" s="92"/>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
@@ -6117,20 +5739,20 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A30" s="12" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="C30" s="50" t="s">
-        <v>58</v>
-      </c>
-      <c r="D30" s="51"/>
-      <c r="E30" s="51"/>
-      <c r="F30" s="51"/>
-      <c r="G30" s="51"/>
-      <c r="H30" s="51"/>
-      <c r="I30" s="52"/>
+        <v>54</v>
+      </c>
+      <c r="C30" s="67" t="s">
+        <v>55</v>
+      </c>
+      <c r="D30" s="68"/>
+      <c r="E30" s="68"/>
+      <c r="F30" s="68"/>
+      <c r="G30" s="68"/>
+      <c r="H30" s="68"/>
+      <c r="I30" s="69"/>
       <c r="L30" s="5"/>
       <c r="M30" s="5"/>
     </row>
@@ -6141,53 +5763,53 @@
       <c r="B31" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C31" s="50" t="s">
-        <v>59</v>
-      </c>
-      <c r="D31" s="51"/>
-      <c r="E31" s="51"/>
-      <c r="F31" s="51"/>
-      <c r="G31" s="51"/>
-      <c r="H31" s="51"/>
-      <c r="I31" s="52"/>
+      <c r="C31" s="67" t="s">
+        <v>56</v>
+      </c>
+      <c r="D31" s="68"/>
+      <c r="E31" s="68"/>
+      <c r="F31" s="68"/>
+      <c r="G31" s="68"/>
+      <c r="H31" s="68"/>
+      <c r="I31" s="69"/>
       <c r="L31" s="5"/>
       <c r="M31" s="5"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A32" s="12" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B32" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C32" s="50" t="s">
-        <v>60</v>
-      </c>
-      <c r="D32" s="51"/>
-      <c r="E32" s="51"/>
-      <c r="F32" s="51"/>
-      <c r="G32" s="51"/>
-      <c r="H32" s="51"/>
-      <c r="I32" s="52"/>
+      <c r="C32" s="67" t="s">
+        <v>57</v>
+      </c>
+      <c r="D32" s="68"/>
+      <c r="E32" s="68"/>
+      <c r="F32" s="68"/>
+      <c r="G32" s="68"/>
+      <c r="H32" s="68"/>
+      <c r="I32" s="69"/>
       <c r="L32" s="5"/>
       <c r="M32" s="5"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A33" s="12" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B33" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C33" s="50" t="s">
-        <v>61</v>
-      </c>
-      <c r="D33" s="51"/>
-      <c r="E33" s="51"/>
-      <c r="F33" s="51"/>
-      <c r="G33" s="51"/>
-      <c r="H33" s="51"/>
-      <c r="I33" s="52"/>
+      <c r="C33" s="67" t="s">
+        <v>58</v>
+      </c>
+      <c r="D33" s="68"/>
+      <c r="E33" s="68"/>
+      <c r="F33" s="68"/>
+      <c r="G33" s="68"/>
+      <c r="H33" s="68"/>
+      <c r="I33" s="69"/>
       <c r="J33" s="5"/>
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
@@ -6205,6 +5827,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="C29:I29"/>
+    <mergeCell ref="A27:I27"/>
+    <mergeCell ref="C31:I31"/>
+    <mergeCell ref="C30:I30"/>
+    <mergeCell ref="C33:I33"/>
+    <mergeCell ref="C32:I32"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="B10:C11"/>
@@ -6212,13 +5841,6 @@
     <mergeCell ref="G10:H11"/>
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="F10:F11"/>
-    <mergeCell ref="A27:I27"/>
-    <mergeCell ref="C31:I31"/>
-    <mergeCell ref="C30:I30"/>
-    <mergeCell ref="C33:I33"/>
-    <mergeCell ref="C32:I32"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="C29:I29"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6275,7 +5897,7 @@
       <c r="G2" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="106"/>
+      <c r="H2" s="65"/>
       <c r="I2" s="34"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.15">
@@ -6324,7 +5946,7 @@
         <v>26</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D5" s="33"/>
       <c r="E5" s="33"/>
@@ -6339,7 +5961,7 @@
         <v>28</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="D6" s="33"/>
       <c r="E6" s="33"/>
@@ -6373,35 +5995,35 @@
       <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="69"/>
-      <c r="B9" s="46" t="s">
-        <v>107</v>
-      </c>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="48"/>
+      <c r="A9" s="48"/>
+      <c r="B9" s="44" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="46"/>
       <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
-      <c r="B10" s="60" t="s">
-        <v>65</v>
-      </c>
-      <c r="C10" s="61"/>
-      <c r="D10" s="60" t="s">
-        <v>66</v>
-      </c>
-      <c r="E10" s="60" t="s">
-        <v>67</v>
-      </c>
-      <c r="F10" s="61"/>
-      <c r="G10" s="60" t="s">
-        <v>98</v>
-      </c>
-      <c r="H10" s="61"/>
+      <c r="B10" s="82" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="83"/>
+      <c r="D10" s="82" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="82" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" s="83"/>
+      <c r="G10" s="82" t="s">
+        <v>93</v>
+      </c>
+      <c r="H10" s="83"/>
       <c r="I10" s="6"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
@@ -6410,34 +6032,34 @@
       <c r="A11" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="62"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="63"/>
+      <c r="B11" s="84"/>
+      <c r="C11" s="85"/>
+      <c r="D11" s="84"/>
+      <c r="E11" s="84"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="84"/>
+      <c r="H11" s="85"/>
       <c r="I11" s="6"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
-      <c r="B12" s="64">
+      <c r="B12" s="101">
         <v>43737.5</v>
       </c>
-      <c r="C12" s="65"/>
-      <c r="D12" s="56" t="s">
+      <c r="C12" s="102"/>
+      <c r="D12" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="56" t="s">
-        <v>68</v>
-      </c>
-      <c r="F12" s="57"/>
-      <c r="G12" s="56" t="s">
-        <v>100</v>
-      </c>
-      <c r="H12" s="57"/>
+      <c r="E12" s="93" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" s="94"/>
+      <c r="G12" s="93" t="s">
+        <v>95</v>
+      </c>
+      <c r="H12" s="94"/>
       <c r="I12" s="6"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
@@ -6446,13 +6068,13 @@
     </row>
     <row r="13" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
-      <c r="B13" s="66"/>
-      <c r="C13" s="67"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="59"/>
+      <c r="B13" s="103"/>
+      <c r="C13" s="104"/>
+      <c r="D13" s="95"/>
+      <c r="E13" s="95"/>
+      <c r="F13" s="96"/>
+      <c r="G13" s="95"/>
+      <c r="H13" s="96"/>
       <c r="I13" s="37"/>
       <c r="K13" s="31"/>
       <c r="L13" s="5"/>
@@ -6460,21 +6082,21 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
-      <c r="B14" s="64">
+      <c r="B14" s="101">
         <v>43737.541666666664</v>
       </c>
-      <c r="C14" s="65"/>
-      <c r="D14" s="56" t="s">
-        <v>69</v>
-      </c>
-      <c r="E14" s="56" t="s">
-        <v>70</v>
-      </c>
-      <c r="F14" s="57"/>
-      <c r="G14" s="56" t="s">
-        <v>100</v>
-      </c>
-      <c r="H14" s="57"/>
+      <c r="C14" s="102"/>
+      <c r="D14" s="93" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="93" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" s="94"/>
+      <c r="G14" s="93" t="s">
+        <v>95</v>
+      </c>
+      <c r="H14" s="94"/>
       <c r="I14" s="6"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
@@ -6483,13 +6105,13 @@
     </row>
     <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
-      <c r="B15" s="66"/>
-      <c r="C15" s="67"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="58"/>
-      <c r="H15" s="59"/>
+      <c r="B15" s="103"/>
+      <c r="C15" s="104"/>
+      <c r="D15" s="95"/>
+      <c r="E15" s="95"/>
+      <c r="F15" s="96"/>
+      <c r="G15" s="95"/>
+      <c r="H15" s="96"/>
       <c r="I15" s="6"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
@@ -6498,21 +6120,21 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
-      <c r="B16" s="64">
+      <c r="B16" s="101">
         <v>43738.5</v>
       </c>
-      <c r="C16" s="65"/>
-      <c r="D16" s="56" t="s">
-        <v>71</v>
-      </c>
-      <c r="E16" s="56" t="s">
-        <v>72</v>
-      </c>
-      <c r="F16" s="57"/>
-      <c r="G16" s="56" t="s">
-        <v>101</v>
-      </c>
-      <c r="H16" s="57"/>
+      <c r="C16" s="102"/>
+      <c r="D16" s="93" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="93" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" s="94"/>
+      <c r="G16" s="93" t="s">
+        <v>96</v>
+      </c>
+      <c r="H16" s="94"/>
       <c r="I16" s="6"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
@@ -6521,13 +6143,13 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
-      <c r="B17" s="66"/>
-      <c r="C17" s="67"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="59"/>
+      <c r="B17" s="103"/>
+      <c r="C17" s="104"/>
+      <c r="D17" s="95"/>
+      <c r="E17" s="95"/>
+      <c r="F17" s="96"/>
+      <c r="G17" s="95"/>
+      <c r="H17" s="96"/>
       <c r="I17" s="6"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
@@ -6535,21 +6157,21 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
-      <c r="B18" s="64">
+      <c r="B18" s="101">
         <v>43738.5</v>
       </c>
-      <c r="C18" s="65"/>
-      <c r="D18" s="56" t="s">
-        <v>73</v>
-      </c>
-      <c r="E18" s="68" t="s">
-        <v>74</v>
-      </c>
-      <c r="F18" s="76"/>
-      <c r="G18" s="56" t="s">
-        <v>101</v>
-      </c>
-      <c r="H18" s="57"/>
+      <c r="C18" s="102"/>
+      <c r="D18" s="93" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="97" t="s">
+        <v>70</v>
+      </c>
+      <c r="F18" s="98"/>
+      <c r="G18" s="93" t="s">
+        <v>96</v>
+      </c>
+      <c r="H18" s="94"/>
       <c r="I18" s="6"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
@@ -6558,13 +6180,13 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
-      <c r="B19" s="66"/>
-      <c r="C19" s="67"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="77"/>
-      <c r="F19" s="78"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="59"/>
+      <c r="B19" s="103"/>
+      <c r="C19" s="104"/>
+      <c r="D19" s="95"/>
+      <c r="E19" s="99"/>
+      <c r="F19" s="100"/>
+      <c r="G19" s="95"/>
+      <c r="H19" s="96"/>
       <c r="I19" s="6"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
@@ -6573,21 +6195,21 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A20" s="38"/>
-      <c r="B20" s="64">
+      <c r="B20" s="101">
         <v>43739.5</v>
       </c>
-      <c r="C20" s="65"/>
-      <c r="D20" s="56" t="s">
-        <v>75</v>
-      </c>
-      <c r="E20" s="68" t="s">
-        <v>76</v>
-      </c>
-      <c r="F20" s="76"/>
-      <c r="G20" s="56" t="s">
-        <v>101</v>
-      </c>
-      <c r="H20" s="57"/>
+      <c r="C20" s="102"/>
+      <c r="D20" s="93" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20" s="97" t="s">
+        <v>72</v>
+      </c>
+      <c r="F20" s="98"/>
+      <c r="G20" s="93" t="s">
+        <v>96</v>
+      </c>
+      <c r="H20" s="94"/>
       <c r="I20" s="6"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
@@ -6596,13 +6218,13 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A21" s="4"/>
-      <c r="B21" s="66"/>
-      <c r="C21" s="67"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="77"/>
-      <c r="F21" s="78"/>
-      <c r="G21" s="58"/>
-      <c r="H21" s="59"/>
+      <c r="B21" s="103"/>
+      <c r="C21" s="104"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="99"/>
+      <c r="F21" s="100"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="96"/>
       <c r="I21" s="6"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
@@ -6611,21 +6233,21 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A22" s="4"/>
-      <c r="B22" s="64">
+      <c r="B22" s="101">
         <v>43739.541666666664</v>
       </c>
-      <c r="C22" s="65"/>
-      <c r="D22" s="56" t="s">
-        <v>77</v>
-      </c>
-      <c r="E22" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="F22" s="57"/>
-      <c r="G22" s="56" t="s">
-        <v>101</v>
-      </c>
-      <c r="H22" s="57"/>
+      <c r="C22" s="102"/>
+      <c r="D22" s="93" t="s">
+        <v>73</v>
+      </c>
+      <c r="E22" s="93" t="s">
+        <v>74</v>
+      </c>
+      <c r="F22" s="94"/>
+      <c r="G22" s="93" t="s">
+        <v>96</v>
+      </c>
+      <c r="H22" s="94"/>
       <c r="I22" s="6"/>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
@@ -6634,13 +6256,13 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A23" s="4"/>
-      <c r="B23" s="66"/>
-      <c r="C23" s="67"/>
-      <c r="D23" s="58"/>
-      <c r="E23" s="58"/>
-      <c r="F23" s="59"/>
-      <c r="G23" s="58"/>
-      <c r="H23" s="59"/>
+      <c r="B23" s="103"/>
+      <c r="C23" s="104"/>
+      <c r="D23" s="95"/>
+      <c r="E23" s="95"/>
+      <c r="F23" s="96"/>
+      <c r="G23" s="95"/>
+      <c r="H23" s="96"/>
       <c r="I23" s="6"/>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
@@ -6663,12 +6285,12 @@
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="D25" s="80" t="s">
-        <v>80</v>
-      </c>
-      <c r="E25" s="81"/>
+        <v>75</v>
+      </c>
+      <c r="D25" s="88" t="s">
+        <v>76</v>
+      </c>
+      <c r="E25" s="89"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="6"/>
@@ -6722,17 +6344,17 @@
       <c r="M28" s="5"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A29" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="B29" s="51"/>
-      <c r="C29" s="51"/>
-      <c r="D29" s="51"/>
-      <c r="E29" s="51"/>
-      <c r="F29" s="51"/>
-      <c r="G29" s="51"/>
-      <c r="H29" s="51"/>
-      <c r="I29" s="52"/>
+      <c r="A29" s="67" t="s">
+        <v>97</v>
+      </c>
+      <c r="B29" s="68"/>
+      <c r="C29" s="68"/>
+      <c r="D29" s="68"/>
+      <c r="E29" s="68"/>
+      <c r="F29" s="68"/>
+      <c r="G29" s="68"/>
+      <c r="H29" s="68"/>
+      <c r="I29" s="69"/>
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
     </row>
@@ -6759,20 +6381,20 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A31" s="12" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C31" s="50" t="s">
-        <v>132</v>
-      </c>
-      <c r="D31" s="51"/>
-      <c r="E31" s="51"/>
-      <c r="F31" s="51"/>
-      <c r="G31" s="51"/>
-      <c r="H31" s="51"/>
-      <c r="I31" s="52"/>
+        <v>78</v>
+      </c>
+      <c r="C31" s="67" t="s">
+        <v>125</v>
+      </c>
+      <c r="D31" s="68"/>
+      <c r="E31" s="68"/>
+      <c r="F31" s="68"/>
+      <c r="G31" s="68"/>
+      <c r="H31" s="68"/>
+      <c r="I31" s="69"/>
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
@@ -6780,25 +6402,41 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A32" s="12" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C32" s="50" t="s">
-        <v>85</v>
-      </c>
-      <c r="D32" s="51"/>
-      <c r="E32" s="51"/>
-      <c r="F32" s="51"/>
-      <c r="G32" s="51"/>
-      <c r="H32" s="51"/>
-      <c r="I32" s="52"/>
+        <v>80</v>
+      </c>
+      <c r="C32" s="67" t="s">
+        <v>81</v>
+      </c>
+      <c r="D32" s="68"/>
+      <c r="E32" s="68"/>
+      <c r="F32" s="68"/>
+      <c r="G32" s="68"/>
+      <c r="H32" s="68"/>
+      <c r="I32" s="69"/>
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="C32:I32"/>
+    <mergeCell ref="A29:I29"/>
+    <mergeCell ref="B18:C19"/>
+    <mergeCell ref="B20:C21"/>
+    <mergeCell ref="B22:C23"/>
+    <mergeCell ref="C31:I31"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="B14:C15"/>
+    <mergeCell ref="B16:C17"/>
+    <mergeCell ref="B10:C11"/>
+    <mergeCell ref="B12:C13"/>
     <mergeCell ref="G10:H11"/>
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="G12:H13"/>
@@ -6815,22 +6453,6 @@
     <mergeCell ref="E14:F15"/>
     <mergeCell ref="E12:F13"/>
     <mergeCell ref="D18:D19"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="C32:I32"/>
-    <mergeCell ref="A29:I29"/>
-    <mergeCell ref="B18:C19"/>
-    <mergeCell ref="B20:C21"/>
-    <mergeCell ref="B22:C23"/>
-    <mergeCell ref="C31:I31"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="B14:C15"/>
-    <mergeCell ref="B16:C17"/>
-    <mergeCell ref="B10:C11"/>
-    <mergeCell ref="B12:C13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6843,40 +6465,40 @@
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:9" s="70" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="107" t="s">
-        <v>125</v>
+    <row r="1" spans="1:9" s="49" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="66" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="I6" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="I10" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C14" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="H14" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D27" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="H27" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/design.xlsx
+++ b/design.xlsx
@@ -19,6 +19,7 @@
     <sheet name=" screenTransition" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="126">
   <si>
     <t>色識別アプリ</t>
     <rPh sb="0" eb="1">
@@ -717,16 +718,6 @@
     <t>(画像選択済み)</t>
     <rPh sb="5" eb="6">
       <t>ズ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>選択した画像</t>
-    <rPh sb="0" eb="2">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ガゾウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1049,19 +1040,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>DBから判定した日時、色、RGB値、選択した画像情報を取得し、一覧で表示</t>
-    <rPh sb="24" eb="26">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ポインターの位置の色を判定するボタン。
 押下すると結果表示画面に遷移し、判定結果を返します。</t>
     <rPh sb="6" eb="8">
@@ -1096,6 +1074,22 @@
     </rPh>
     <rPh sb="41" eb="42">
       <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DBから判定した日時、色、RGB値、判定した画像情報を取得し、一覧で表示</t>
+    <rPh sb="18" eb="20">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1107,7 +1101,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm;@"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1126,14 +1120,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
@@ -1376,7 +1362,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1407,7 +1393,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
@@ -1416,16 +1402,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
@@ -1446,7 +1432,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
@@ -1455,13 +1441,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1470,7 +1456,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
@@ -1482,13 +1468,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
@@ -1521,10 +1507,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
@@ -1575,9 +1558,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1587,110 +1567,107 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3152,6 +3129,524 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>321468</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>117474</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>742156</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="直線矢印コネクタ 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1012031" y="1998662"/>
+          <a:ext cx="420688" cy="192088"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>59531</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>345281</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="テキスト ボックス 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="750094" y="2143125"/>
+          <a:ext cx="285750" cy="261938"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>①</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>273843</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>83343</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>369093</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>35718</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="直線矢印コネクタ 5"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2738437" y="1964531"/>
+          <a:ext cx="95250" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>93663</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>384969</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="直線矢印コネクタ 7"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4071937" y="1974851"/>
+          <a:ext cx="194470" cy="311149"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>226218</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>103188</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>739775</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>11906</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="直線矢印コネクタ 8"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4798218" y="1984376"/>
+          <a:ext cx="513557" cy="242093"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>321468</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>117476</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>396875</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>35718</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="直線矢印コネクタ 9"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2786062" y="1998664"/>
+          <a:ext cx="765969" cy="251617"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>107156</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>392906</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="テキスト ボックス 20"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2571750" y="2214563"/>
+          <a:ext cx="285750" cy="261938"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>②</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>678655</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>130969</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>273843</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>59532</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="テキスト ボックス 21"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4560093" y="2178844"/>
+          <a:ext cx="285750" cy="261938"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>④</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>-1</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>35718</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>285749</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>130969</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="テキスト ボックス 22"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3881437" y="2250281"/>
+          <a:ext cx="285750" cy="261938"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>③</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4264,7 +4759,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -4405,7 +4900,7 @@
     <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
       <c r="B9" s="44" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C9" s="45"/>
       <c r="D9" s="45"/>
@@ -4449,15 +4944,15 @@
     </row>
     <row r="12" spans="1:13" ht="30.75" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
-      <c r="B12" s="70" t="s">
+      <c r="B12" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="71"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="71"/>
-      <c r="G12" s="71"/>
-      <c r="H12" s="72"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="70"/>
       <c r="I12" s="37"/>
       <c r="J12" s="31"/>
       <c r="K12" s="31"/>
@@ -4603,18 +5098,18 @@
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
     </row>
-    <row r="22" spans="1:13" ht="21" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
-      <c r="C22" s="73" t="s">
-        <v>98</v>
-      </c>
-      <c r="D22" s="74"/>
+      <c r="C22" s="99" t="s">
+        <v>97</v>
+      </c>
+      <c r="D22" s="100"/>
       <c r="E22" s="5"/>
-      <c r="F22" s="75" t="s">
-        <v>100</v>
-      </c>
-      <c r="G22" s="76"/>
+      <c r="F22" s="99" t="s">
+        <v>99</v>
+      </c>
+      <c r="G22" s="100"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
       <c r="J22" s="5"/>
@@ -4678,17 +5173,17 @@
       <c r="M26" s="5"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A27" s="67" t="s">
+      <c r="A27" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="68"/>
-      <c r="C27" s="68"/>
-      <c r="D27" s="68"/>
-      <c r="E27" s="68"/>
-      <c r="F27" s="68"/>
-      <c r="G27" s="68"/>
-      <c r="H27" s="68"/>
-      <c r="I27" s="69"/>
+      <c r="B27" s="66"/>
+      <c r="C27" s="66"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="66"/>
+      <c r="G27" s="66"/>
+      <c r="H27" s="66"/>
+      <c r="I27" s="67"/>
       <c r="L27" s="5"/>
       <c r="M27" s="5"/>
     </row>
@@ -4718,15 +5213,15 @@
       <c r="B29" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="67" t="s">
+      <c r="C29" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="D29" s="68"/>
-      <c r="E29" s="68"/>
-      <c r="F29" s="68"/>
-      <c r="G29" s="68"/>
-      <c r="H29" s="68"/>
-      <c r="I29" s="69"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="66"/>
+      <c r="F29" s="66"/>
+      <c r="G29" s="66"/>
+      <c r="H29" s="66"/>
+      <c r="I29" s="67"/>
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
     </row>
@@ -4737,15 +5232,15 @@
       <c r="B30" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="67" t="s">
+      <c r="C30" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="68"/>
-      <c r="E30" s="68"/>
-      <c r="F30" s="68"/>
-      <c r="G30" s="68"/>
-      <c r="H30" s="68"/>
-      <c r="I30" s="69"/>
+      <c r="D30" s="66"/>
+      <c r="E30" s="66"/>
+      <c r="F30" s="66"/>
+      <c r="G30" s="66"/>
+      <c r="H30" s="66"/>
+      <c r="I30" s="67"/>
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
@@ -4758,15 +5253,15 @@
       <c r="B31" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="67" t="s">
+      <c r="C31" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="D31" s="68"/>
-      <c r="E31" s="68"/>
-      <c r="F31" s="68"/>
-      <c r="G31" s="68"/>
-      <c r="H31" s="68"/>
-      <c r="I31" s="69"/>
+      <c r="D31" s="66"/>
+      <c r="E31" s="66"/>
+      <c r="F31" s="66"/>
+      <c r="G31" s="66"/>
+      <c r="H31" s="66"/>
+      <c r="I31" s="67"/>
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
@@ -4797,7 +5292,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -4949,13 +5446,13 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="44" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B10" s="45"/>
       <c r="C10" s="45"/>
       <c r="D10" s="46"/>
       <c r="F10" s="44" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G10" s="45"/>
       <c r="H10" s="45"/>
@@ -5056,13 +5553,13 @@
       <c r="I19" s="6"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A20" s="53" t="s">
+      <c r="A20" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="B20" s="54" t="s">
+      <c r="B20" s="53" t="s">
         <v>89</v>
       </c>
-      <c r="C20" s="54" t="s">
+      <c r="C20" s="53" t="s">
         <v>90</v>
       </c>
       <c r="D20" s="9"/>
@@ -5073,7 +5570,7 @@
         <v>85</v>
       </c>
       <c r="H20" s="5"/>
-      <c r="I20" s="50" t="s">
+      <c r="I20" s="49" t="s">
         <v>86</v>
       </c>
     </row>
@@ -5126,17 +5623,17 @@
       <c r="I25" s="16"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A26" s="67" t="s">
+      <c r="A26" s="65" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="68"/>
-      <c r="C26" s="68"/>
-      <c r="D26" s="68"/>
-      <c r="E26" s="68"/>
-      <c r="F26" s="68"/>
-      <c r="G26" s="68"/>
-      <c r="H26" s="68"/>
-      <c r="I26" s="69"/>
+      <c r="B26" s="66"/>
+      <c r="C26" s="66"/>
+      <c r="D26" s="66"/>
+      <c r="E26" s="66"/>
+      <c r="F26" s="66"/>
+      <c r="G26" s="66"/>
+      <c r="H26" s="66"/>
+      <c r="I26" s="67"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A27" s="13" t="s">
@@ -5162,15 +5659,15 @@
       <c r="B28" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C28" s="67" t="s">
+      <c r="C28" s="65" t="s">
         <v>83</v>
       </c>
-      <c r="D28" s="68"/>
-      <c r="E28" s="68"/>
-      <c r="F28" s="68"/>
-      <c r="G28" s="68"/>
-      <c r="H28" s="68"/>
-      <c r="I28" s="69"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="66"/>
+      <c r="F28" s="66"/>
+      <c r="G28" s="66"/>
+      <c r="H28" s="66"/>
+      <c r="I28" s="67"/>
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
     </row>
@@ -5181,15 +5678,15 @@
       <c r="B29" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C29" s="77" t="s">
-        <v>99</v>
-      </c>
-      <c r="D29" s="68"/>
-      <c r="E29" s="68"/>
-      <c r="F29" s="68"/>
-      <c r="G29" s="68"/>
-      <c r="H29" s="68"/>
-      <c r="I29" s="69"/>
+      <c r="C29" s="71" t="s">
+        <v>98</v>
+      </c>
+      <c r="D29" s="66"/>
+      <c r="E29" s="66"/>
+      <c r="F29" s="66"/>
+      <c r="G29" s="66"/>
+      <c r="H29" s="66"/>
+      <c r="I29" s="67"/>
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
     </row>
@@ -5200,15 +5697,15 @@
       <c r="B30" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C30" s="77" t="s">
-        <v>126</v>
-      </c>
-      <c r="D30" s="68"/>
-      <c r="E30" s="68"/>
-      <c r="F30" s="68"/>
-      <c r="G30" s="68"/>
-      <c r="H30" s="68"/>
-      <c r="I30" s="69"/>
+      <c r="C30" s="71" t="s">
+        <v>124</v>
+      </c>
+      <c r="D30" s="66"/>
+      <c r="E30" s="66"/>
+      <c r="F30" s="66"/>
+      <c r="G30" s="66"/>
+      <c r="H30" s="66"/>
+      <c r="I30" s="67"/>
       <c r="L30" s="5"/>
       <c r="M30" s="5"/>
     </row>
@@ -5219,15 +5716,15 @@
       <c r="B31" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="67" t="s">
+      <c r="C31" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="D31" s="68"/>
-      <c r="E31" s="68"/>
-      <c r="F31" s="68"/>
-      <c r="G31" s="68"/>
-      <c r="H31" s="68"/>
-      <c r="I31" s="69"/>
+      <c r="D31" s="66"/>
+      <c r="E31" s="66"/>
+      <c r="F31" s="66"/>
+      <c r="G31" s="66"/>
+      <c r="H31" s="66"/>
+      <c r="I31" s="67"/>
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
@@ -5265,7 +5762,9 @@
   </sheetPr>
   <dimension ref="A1:S35"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -5405,68 +5904,68 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
-      <c r="B9" s="55" t="s">
-        <v>101</v>
-      </c>
-      <c r="C9" s="56"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="57"/>
+      <c r="B9" s="54" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="56"/>
       <c r="I9" s="6"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
-      <c r="B10" s="82" t="s">
+      <c r="B10" s="76" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" s="77"/>
+      <c r="D10" s="76" t="s">
+        <v>113</v>
+      </c>
+      <c r="E10" s="80" t="s">
+        <v>112</v>
+      </c>
+      <c r="F10" s="80" t="s">
         <v>110</v>
       </c>
-      <c r="C10" s="83"/>
-      <c r="D10" s="82" t="s">
-        <v>114</v>
-      </c>
-      <c r="E10" s="86" t="s">
-        <v>113</v>
-      </c>
-      <c r="F10" s="86" t="s">
+      <c r="G10" s="76" t="s">
         <v>111</v>
       </c>
-      <c r="G10" s="82" t="s">
-        <v>112</v>
-      </c>
-      <c r="H10" s="83"/>
+      <c r="H10" s="77"/>
       <c r="I10" s="6"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
-      <c r="B11" s="84"/>
-      <c r="C11" s="85"/>
-      <c r="D11" s="84"/>
-      <c r="E11" s="87"/>
-      <c r="F11" s="87"/>
-      <c r="G11" s="84"/>
-      <c r="H11" s="85"/>
+      <c r="B11" s="78"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="78"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="81"/>
+      <c r="G11" s="78"/>
+      <c r="H11" s="79"/>
       <c r="I11" s="6"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
     </row>
     <row r="12" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
-      <c r="B12" s="59"/>
+      <c r="B12" s="58"/>
       <c r="C12" s="2"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="51"/>
+      <c r="H12" s="50"/>
       <c r="I12" s="6"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
-      <c r="L12" s="58"/>
+      <c r="L12" s="57"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
@@ -5511,23 +6010,23 @@
     </row>
     <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
-      <c r="B16" s="78" t="s">
-        <v>94</v>
-      </c>
-      <c r="C16" s="79"/>
-      <c r="D16" s="62" t="s">
+      <c r="B16" s="72" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" s="73"/>
+      <c r="D16" s="61" t="s">
+        <v>114</v>
+      </c>
+      <c r="E16" s="61" t="s">
+        <v>114</v>
+      </c>
+      <c r="F16" s="63" t="s">
         <v>115</v>
       </c>
-      <c r="E16" s="62" t="s">
-        <v>115</v>
-      </c>
-      <c r="F16" s="64" t="s">
+      <c r="G16" s="74" t="s">
         <v>116</v>
       </c>
-      <c r="G16" s="80" t="s">
-        <v>117</v>
-      </c>
-      <c r="H16" s="81"/>
+      <c r="H16" s="75"/>
       <c r="I16" s="6"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
@@ -5563,13 +6062,13 @@
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
-      <c r="B19" s="60"/>
+      <c r="B19" s="59"/>
       <c r="C19" s="8"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="62"/>
       <c r="G19" s="7"/>
-      <c r="H19" s="52"/>
+      <c r="H19" s="51"/>
       <c r="I19" s="6"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
@@ -5608,12 +6107,12 @@
       <c r="A22" s="4"/>
       <c r="B22" s="40"/>
       <c r="C22" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="D22" s="88" t="s">
+        <v>105</v>
+      </c>
+      <c r="D22" s="82" t="s">
         <v>52</v>
       </c>
-      <c r="E22" s="89"/>
+      <c r="E22" s="83"/>
       <c r="F22" s="42"/>
       <c r="G22" s="42"/>
       <c r="H22" s="43"/>
@@ -5679,17 +6178,17 @@
       <c r="M26" s="5"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A27" s="67" t="s">
+      <c r="A27" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="B27" s="68"/>
-      <c r="C27" s="68"/>
-      <c r="D27" s="68"/>
-      <c r="E27" s="68"/>
-      <c r="F27" s="68"/>
-      <c r="G27" s="68"/>
-      <c r="H27" s="68"/>
-      <c r="I27" s="69"/>
+      <c r="B27" s="66"/>
+      <c r="C27" s="66"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="66"/>
+      <c r="G27" s="66"/>
+      <c r="H27" s="66"/>
+      <c r="I27" s="67"/>
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
@@ -5723,15 +6222,15 @@
       <c r="B29" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="90" t="s">
-        <v>107</v>
-      </c>
-      <c r="D29" s="91"/>
-      <c r="E29" s="91"/>
-      <c r="F29" s="91"/>
-      <c r="G29" s="91"/>
-      <c r="H29" s="91"/>
-      <c r="I29" s="92"/>
+      <c r="C29" s="84" t="s">
+        <v>106</v>
+      </c>
+      <c r="D29" s="85"/>
+      <c r="E29" s="85"/>
+      <c r="F29" s="85"/>
+      <c r="G29" s="85"/>
+      <c r="H29" s="85"/>
+      <c r="I29" s="86"/>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
@@ -5739,20 +6238,20 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A30" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B30" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C30" s="67" t="s">
+      <c r="C30" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D30" s="68"/>
-      <c r="E30" s="68"/>
-      <c r="F30" s="68"/>
-      <c r="G30" s="68"/>
-      <c r="H30" s="68"/>
-      <c r="I30" s="69"/>
+      <c r="D30" s="66"/>
+      <c r="E30" s="66"/>
+      <c r="F30" s="66"/>
+      <c r="G30" s="66"/>
+      <c r="H30" s="66"/>
+      <c r="I30" s="67"/>
       <c r="L30" s="5"/>
       <c r="M30" s="5"/>
     </row>
@@ -5763,53 +6262,53 @@
       <c r="B31" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C31" s="67" t="s">
+      <c r="C31" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D31" s="68"/>
-      <c r="E31" s="68"/>
-      <c r="F31" s="68"/>
-      <c r="G31" s="68"/>
-      <c r="H31" s="68"/>
-      <c r="I31" s="69"/>
+      <c r="D31" s="66"/>
+      <c r="E31" s="66"/>
+      <c r="F31" s="66"/>
+      <c r="G31" s="66"/>
+      <c r="H31" s="66"/>
+      <c r="I31" s="67"/>
       <c r="L31" s="5"/>
       <c r="M31" s="5"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A32" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B32" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C32" s="67" t="s">
+      <c r="C32" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D32" s="68"/>
-      <c r="E32" s="68"/>
-      <c r="F32" s="68"/>
-      <c r="G32" s="68"/>
-      <c r="H32" s="68"/>
-      <c r="I32" s="69"/>
+      <c r="D32" s="66"/>
+      <c r="E32" s="66"/>
+      <c r="F32" s="66"/>
+      <c r="G32" s="66"/>
+      <c r="H32" s="66"/>
+      <c r="I32" s="67"/>
       <c r="L32" s="5"/>
       <c r="M32" s="5"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A33" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B33" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C33" s="67" t="s">
+      <c r="C33" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="D33" s="68"/>
-      <c r="E33" s="68"/>
-      <c r="F33" s="68"/>
-      <c r="G33" s="68"/>
-      <c r="H33" s="68"/>
-      <c r="I33" s="69"/>
+      <c r="D33" s="66"/>
+      <c r="E33" s="66"/>
+      <c r="F33" s="66"/>
+      <c r="G33" s="66"/>
+      <c r="H33" s="66"/>
+      <c r="I33" s="67"/>
       <c r="J33" s="5"/>
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
@@ -5827,11 +6326,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="C29:I29"/>
-    <mergeCell ref="A27:I27"/>
-    <mergeCell ref="C31:I31"/>
-    <mergeCell ref="C30:I30"/>
     <mergeCell ref="C33:I33"/>
     <mergeCell ref="C32:I32"/>
     <mergeCell ref="B16:C16"/>
@@ -5841,6 +6335,11 @@
     <mergeCell ref="G10:H11"/>
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="F10:F11"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="C29:I29"/>
+    <mergeCell ref="A27:I27"/>
+    <mergeCell ref="C31:I31"/>
+    <mergeCell ref="C30:I30"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5856,7 +6355,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -5897,7 +6396,7 @@
       <c r="G2" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="65"/>
+      <c r="H2" s="64"/>
       <c r="I2" s="34"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.15">
@@ -5961,7 +6460,7 @@
         <v>28</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D6" s="33"/>
       <c r="E6" s="33"/>
@@ -5997,7 +6496,7 @@
     <row r="9" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="48"/>
       <c r="B9" s="44" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C9" s="45"/>
       <c r="D9" s="45"/>
@@ -6009,21 +6508,21 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
-      <c r="B10" s="82" t="s">
+      <c r="B10" s="76" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="83"/>
-      <c r="D10" s="82" t="s">
+      <c r="C10" s="77"/>
+      <c r="D10" s="76" t="s">
         <v>62</v>
       </c>
-      <c r="E10" s="82" t="s">
+      <c r="E10" s="76" t="s">
         <v>63</v>
       </c>
-      <c r="F10" s="83"/>
-      <c r="G10" s="82" t="s">
-        <v>93</v>
-      </c>
-      <c r="H10" s="83"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="76" t="s">
+        <v>109</v>
+      </c>
+      <c r="H10" s="77"/>
       <c r="I10" s="6"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
@@ -6032,34 +6531,34 @@
       <c r="A11" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="84"/>
-      <c r="C11" s="85"/>
-      <c r="D11" s="84"/>
-      <c r="E11" s="84"/>
-      <c r="F11" s="85"/>
-      <c r="G11" s="84"/>
-      <c r="H11" s="85"/>
+      <c r="B11" s="78"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="78"/>
+      <c r="E11" s="78"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="78"/>
+      <c r="H11" s="79"/>
       <c r="I11" s="6"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
-      <c r="B12" s="101">
+      <c r="B12" s="95">
         <v>43737.5</v>
       </c>
-      <c r="C12" s="102"/>
-      <c r="D12" s="93" t="s">
+      <c r="C12" s="96"/>
+      <c r="D12" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="93" t="s">
+      <c r="E12" s="87" t="s">
         <v>64</v>
       </c>
-      <c r="F12" s="94"/>
-      <c r="G12" s="93" t="s">
-        <v>95</v>
-      </c>
-      <c r="H12" s="94"/>
+      <c r="F12" s="88"/>
+      <c r="G12" s="87" t="s">
+        <v>94</v>
+      </c>
+      <c r="H12" s="88"/>
       <c r="I12" s="6"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
@@ -6068,13 +6567,13 @@
     </row>
     <row r="13" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
-      <c r="B13" s="103"/>
-      <c r="C13" s="104"/>
-      <c r="D13" s="95"/>
-      <c r="E13" s="95"/>
-      <c r="F13" s="96"/>
-      <c r="G13" s="95"/>
-      <c r="H13" s="96"/>
+      <c r="B13" s="97"/>
+      <c r="C13" s="98"/>
+      <c r="D13" s="89"/>
+      <c r="E13" s="89"/>
+      <c r="F13" s="90"/>
+      <c r="G13" s="89"/>
+      <c r="H13" s="90"/>
       <c r="I13" s="37"/>
       <c r="K13" s="31"/>
       <c r="L13" s="5"/>
@@ -6082,21 +6581,21 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
-      <c r="B14" s="101">
+      <c r="B14" s="95">
         <v>43737.541666666664</v>
       </c>
-      <c r="C14" s="102"/>
-      <c r="D14" s="93" t="s">
+      <c r="C14" s="96"/>
+      <c r="D14" s="87" t="s">
         <v>65</v>
       </c>
-      <c r="E14" s="93" t="s">
+      <c r="E14" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="F14" s="94"/>
-      <c r="G14" s="93" t="s">
-        <v>95</v>
-      </c>
-      <c r="H14" s="94"/>
+      <c r="F14" s="88"/>
+      <c r="G14" s="87" t="s">
+        <v>94</v>
+      </c>
+      <c r="H14" s="88"/>
       <c r="I14" s="6"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
@@ -6105,13 +6604,13 @@
     </row>
     <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
-      <c r="B15" s="103"/>
-      <c r="C15" s="104"/>
-      <c r="D15" s="95"/>
-      <c r="E15" s="95"/>
-      <c r="F15" s="96"/>
-      <c r="G15" s="95"/>
-      <c r="H15" s="96"/>
+      <c r="B15" s="97"/>
+      <c r="C15" s="98"/>
+      <c r="D15" s="89"/>
+      <c r="E15" s="89"/>
+      <c r="F15" s="90"/>
+      <c r="G15" s="89"/>
+      <c r="H15" s="90"/>
       <c r="I15" s="6"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
@@ -6120,21 +6619,21 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
-      <c r="B16" s="101">
+      <c r="B16" s="95">
         <v>43738.5</v>
       </c>
-      <c r="C16" s="102"/>
-      <c r="D16" s="93" t="s">
+      <c r="C16" s="96"/>
+      <c r="D16" s="87" t="s">
         <v>67</v>
       </c>
-      <c r="E16" s="93" t="s">
+      <c r="E16" s="87" t="s">
         <v>68</v>
       </c>
-      <c r="F16" s="94"/>
-      <c r="G16" s="93" t="s">
-        <v>96</v>
-      </c>
-      <c r="H16" s="94"/>
+      <c r="F16" s="88"/>
+      <c r="G16" s="87" t="s">
+        <v>95</v>
+      </c>
+      <c r="H16" s="88"/>
       <c r="I16" s="6"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
@@ -6143,13 +6642,13 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
-      <c r="B17" s="103"/>
-      <c r="C17" s="104"/>
-      <c r="D17" s="95"/>
-      <c r="E17" s="95"/>
-      <c r="F17" s="96"/>
-      <c r="G17" s="95"/>
-      <c r="H17" s="96"/>
+      <c r="B17" s="97"/>
+      <c r="C17" s="98"/>
+      <c r="D17" s="89"/>
+      <c r="E17" s="89"/>
+      <c r="F17" s="90"/>
+      <c r="G17" s="89"/>
+      <c r="H17" s="90"/>
       <c r="I17" s="6"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
@@ -6157,21 +6656,21 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
-      <c r="B18" s="101">
+      <c r="B18" s="95">
         <v>43738.5</v>
       </c>
-      <c r="C18" s="102"/>
-      <c r="D18" s="93" t="s">
+      <c r="C18" s="96"/>
+      <c r="D18" s="87" t="s">
         <v>69</v>
       </c>
-      <c r="E18" s="97" t="s">
+      <c r="E18" s="91" t="s">
         <v>70</v>
       </c>
-      <c r="F18" s="98"/>
-      <c r="G18" s="93" t="s">
-        <v>96</v>
-      </c>
-      <c r="H18" s="94"/>
+      <c r="F18" s="92"/>
+      <c r="G18" s="87" t="s">
+        <v>95</v>
+      </c>
+      <c r="H18" s="88"/>
       <c r="I18" s="6"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
@@ -6180,13 +6679,13 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
-      <c r="B19" s="103"/>
-      <c r="C19" s="104"/>
-      <c r="D19" s="95"/>
-      <c r="E19" s="99"/>
-      <c r="F19" s="100"/>
-      <c r="G19" s="95"/>
-      <c r="H19" s="96"/>
+      <c r="B19" s="97"/>
+      <c r="C19" s="98"/>
+      <c r="D19" s="89"/>
+      <c r="E19" s="93"/>
+      <c r="F19" s="94"/>
+      <c r="G19" s="89"/>
+      <c r="H19" s="90"/>
       <c r="I19" s="6"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
@@ -6195,21 +6694,21 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A20" s="38"/>
-      <c r="B20" s="101">
+      <c r="B20" s="95">
         <v>43739.5</v>
       </c>
-      <c r="C20" s="102"/>
-      <c r="D20" s="93" t="s">
+      <c r="C20" s="96"/>
+      <c r="D20" s="87" t="s">
         <v>71</v>
       </c>
-      <c r="E20" s="97" t="s">
+      <c r="E20" s="91" t="s">
         <v>72</v>
       </c>
-      <c r="F20" s="98"/>
-      <c r="G20" s="93" t="s">
-        <v>96</v>
-      </c>
-      <c r="H20" s="94"/>
+      <c r="F20" s="92"/>
+      <c r="G20" s="87" t="s">
+        <v>95</v>
+      </c>
+      <c r="H20" s="88"/>
       <c r="I20" s="6"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
@@ -6218,13 +6717,13 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A21" s="4"/>
-      <c r="B21" s="103"/>
-      <c r="C21" s="104"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="99"/>
-      <c r="F21" s="100"/>
-      <c r="G21" s="95"/>
-      <c r="H21" s="96"/>
+      <c r="B21" s="97"/>
+      <c r="C21" s="98"/>
+      <c r="D21" s="89"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="94"/>
+      <c r="G21" s="89"/>
+      <c r="H21" s="90"/>
       <c r="I21" s="6"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
@@ -6233,21 +6732,21 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A22" s="4"/>
-      <c r="B22" s="101">
+      <c r="B22" s="95">
         <v>43739.541666666664</v>
       </c>
-      <c r="C22" s="102"/>
-      <c r="D22" s="93" t="s">
+      <c r="C22" s="96"/>
+      <c r="D22" s="87" t="s">
         <v>73</v>
       </c>
-      <c r="E22" s="93" t="s">
+      <c r="E22" s="87" t="s">
         <v>74</v>
       </c>
-      <c r="F22" s="94"/>
-      <c r="G22" s="93" t="s">
-        <v>96</v>
-      </c>
-      <c r="H22" s="94"/>
+      <c r="F22" s="88"/>
+      <c r="G22" s="87" t="s">
+        <v>95</v>
+      </c>
+      <c r="H22" s="88"/>
       <c r="I22" s="6"/>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
@@ -6256,13 +6755,13 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A23" s="4"/>
-      <c r="B23" s="103"/>
-      <c r="C23" s="104"/>
-      <c r="D23" s="95"/>
-      <c r="E23" s="95"/>
-      <c r="F23" s="96"/>
-      <c r="G23" s="95"/>
-      <c r="H23" s="96"/>
+      <c r="B23" s="97"/>
+      <c r="C23" s="98"/>
+      <c r="D23" s="89"/>
+      <c r="E23" s="89"/>
+      <c r="F23" s="90"/>
+      <c r="G23" s="89"/>
+      <c r="H23" s="90"/>
       <c r="I23" s="6"/>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
@@ -6287,10 +6786,10 @@
       <c r="C25" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="D25" s="88" t="s">
+      <c r="D25" s="82" t="s">
         <v>76</v>
       </c>
-      <c r="E25" s="89"/>
+      <c r="E25" s="83"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="6"/>
@@ -6344,17 +6843,17 @@
       <c r="M28" s="5"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A29" s="67" t="s">
-        <v>97</v>
-      </c>
-      <c r="B29" s="68"/>
-      <c r="C29" s="68"/>
-      <c r="D29" s="68"/>
-      <c r="E29" s="68"/>
-      <c r="F29" s="68"/>
-      <c r="G29" s="68"/>
-      <c r="H29" s="68"/>
-      <c r="I29" s="69"/>
+      <c r="A29" s="65" t="s">
+        <v>96</v>
+      </c>
+      <c r="B29" s="66"/>
+      <c r="C29" s="66"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="66"/>
+      <c r="F29" s="66"/>
+      <c r="G29" s="66"/>
+      <c r="H29" s="66"/>
+      <c r="I29" s="67"/>
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
     </row>
@@ -6386,15 +6885,15 @@
       <c r="B31" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="C31" s="67" t="s">
+      <c r="C31" s="65" t="s">
         <v>125</v>
       </c>
-      <c r="D31" s="68"/>
-      <c r="E31" s="68"/>
-      <c r="F31" s="68"/>
-      <c r="G31" s="68"/>
-      <c r="H31" s="68"/>
-      <c r="I31" s="69"/>
+      <c r="D31" s="66"/>
+      <c r="E31" s="66"/>
+      <c r="F31" s="66"/>
+      <c r="G31" s="66"/>
+      <c r="H31" s="66"/>
+      <c r="I31" s="67"/>
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
@@ -6407,15 +6906,15 @@
       <c r="B32" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="C32" s="67" t="s">
+      <c r="C32" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="D32" s="68"/>
-      <c r="E32" s="68"/>
-      <c r="F32" s="68"/>
-      <c r="G32" s="68"/>
-      <c r="H32" s="68"/>
-      <c r="I32" s="69"/>
+      <c r="D32" s="66"/>
+      <c r="E32" s="66"/>
+      <c r="F32" s="66"/>
+      <c r="G32" s="66"/>
+      <c r="H32" s="66"/>
+      <c r="I32" s="67"/>
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
     </row>
@@ -6462,44 +6961,655 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:9" s="49" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="66" t="s">
+    <row r="1" spans="1:16" s="101" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="22"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A2" s="4"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="6"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="6"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="6"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="6"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="6"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A7" s="4"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="6"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A8" s="4"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="6"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="6"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A10" s="4"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="I6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="I10" t="s">
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="6"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A11" s="4"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="6"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A12" s="4"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="6"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="6"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A14" s="4"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="6"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A15" s="4"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="6"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A16" s="4"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="6"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="6"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A18" s="4"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="6"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A19" s="4"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="6"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A20" s="4"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="6"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A21" s="4"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="6"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A22" s="4"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="6"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A23" s="4"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="6"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A24" s="4"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="6"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A25" s="4"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="6"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A26" s="4"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="6"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A27" s="4"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="C14" t="s">
-        <v>122</v>
-      </c>
-      <c r="H14" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="27" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D27" t="s">
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="H27" t="s">
-        <v>121</v>
-      </c>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="6"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A28" s="4"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="6"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A29" s="4"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="6"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A30" s="4"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="6"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A31" s="4"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="6"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A32" s="4"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="6"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A33" s="4"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="6"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A34" s="4"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="6"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A35" s="7"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="8"/>
+      <c r="O35" s="8"/>
+      <c r="P35" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/design.xlsx
+++ b/design.xlsx
@@ -19,7 +19,6 @@
     <sheet name=" screenTransition" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -127,19 +126,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>履歴画面へ遷移するボタン</t>
-    <rPh sb="0" eb="2">
-      <t>リレキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>画面レイアウト定義</t>
     <rPh sb="0" eb="2">
       <t>ガメン</t>
@@ -1040,44 +1026,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ポインターの位置の色を判定するボタン。
-押下すると結果表示画面に遷移し、判定結果を返します。</t>
-    <rPh sb="6" eb="8">
-      <t>イチ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>イロ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ハンテイ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>オウカ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>センイ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>ハンテイ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>カエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>DBから判定した日時、色、RGB値、判定した画像情報を取得し、一覧で表示</t>
     <rPh sb="18" eb="20">
       <t>ハンテイ</t>
@@ -1090,6 +1038,77 @@
     </rPh>
     <rPh sb="34" eb="36">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>履歴画面へ遷移するボタン
+色判定の履歴をDBから取得します</t>
+    <rPh sb="0" eb="2">
+      <t>リレキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>リレキ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポインターの位置の色を判定するボタン。
+押下すると結果表示画面に遷移します。
+ポインターの位置の色を取得して結果を返します。</t>
+    <rPh sb="6" eb="8">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>カエ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1558,6 +1577,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1576,6 +1598,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1627,12 +1655,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1647,27 +1687,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4759,7 +4778,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -4771,7 +4792,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
@@ -4784,21 +4805,21 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="C2" s="17" t="s">
         <v>15</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>16</v>
       </c>
       <c r="D2" s="18"/>
       <c r="E2" s="18"/>
       <c r="F2" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="18" t="s">
         <v>17</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>18</v>
       </c>
       <c r="H2" s="18"/>
       <c r="I2" s="19"/>
@@ -4806,15 +4827,15 @@
     <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="26"/>
       <c r="B3" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="17" t="s">
         <v>19</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>20</v>
       </c>
       <c r="D3" s="18"/>
       <c r="E3" s="18"/>
       <c r="F3" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G3" s="27">
         <v>43715</v>
@@ -4825,15 +4846,15 @@
     <row r="4" spans="1:13" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A4" s="28"/>
       <c r="B4" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="17" t="s">
         <v>22</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>23</v>
       </c>
       <c r="D4" s="18"/>
       <c r="E4" s="18"/>
       <c r="F4" s="25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G4" s="29">
         <v>1</v>
@@ -4843,13 +4864,13 @@
     </row>
     <row r="5" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="C5" s="17" t="s">
         <v>26</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>27</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
@@ -4861,10 +4882,10 @@
     <row r="6" spans="1:13" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A6" s="26"/>
       <c r="B6" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="17" t="s">
         <v>28</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>29</v>
       </c>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
@@ -4875,7 +4896,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
@@ -4900,7 +4921,7 @@
     <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
       <c r="B9" s="44" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C9" s="45"/>
       <c r="D9" s="45"/>
@@ -4944,15 +4965,15 @@
     </row>
     <row r="12" spans="1:13" ht="30.75" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
-      <c r="B12" s="68" t="s">
+      <c r="B12" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="69"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="69"/>
-      <c r="G12" s="69"/>
-      <c r="H12" s="70"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="71"/>
       <c r="I12" s="37"/>
       <c r="J12" s="31"/>
       <c r="K12" s="31"/>
@@ -5101,15 +5122,15 @@
     <row r="22" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
-      <c r="C22" s="99" t="s">
-        <v>97</v>
-      </c>
-      <c r="D22" s="100"/>
+      <c r="C22" s="72" t="s">
+        <v>96</v>
+      </c>
+      <c r="D22" s="73"/>
       <c r="E22" s="5"/>
-      <c r="F22" s="99" t="s">
-        <v>99</v>
-      </c>
-      <c r="G22" s="100"/>
+      <c r="F22" s="72" t="s">
+        <v>98</v>
+      </c>
+      <c r="G22" s="73"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
       <c r="J22" s="5"/>
@@ -5173,17 +5194,17 @@
       <c r="M26" s="5"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A27" s="65" t="s">
+      <c r="A27" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="66"/>
-      <c r="C27" s="66"/>
-      <c r="D27" s="66"/>
-      <c r="E27" s="66"/>
-      <c r="F27" s="66"/>
-      <c r="G27" s="66"/>
-      <c r="H27" s="66"/>
-      <c r="I27" s="67"/>
+      <c r="B27" s="67"/>
+      <c r="C27" s="67"/>
+      <c r="D27" s="67"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="67"/>
+      <c r="G27" s="67"/>
+      <c r="H27" s="67"/>
+      <c r="I27" s="68"/>
       <c r="L27" s="5"/>
       <c r="M27" s="5"/>
     </row>
@@ -5208,60 +5229,60 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A29" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C29" s="65" t="s">
+      <c r="C29" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="D29" s="66"/>
-      <c r="E29" s="66"/>
-      <c r="F29" s="66"/>
-      <c r="G29" s="66"/>
-      <c r="H29" s="66"/>
-      <c r="I29" s="67"/>
+      <c r="D29" s="67"/>
+      <c r="E29" s="67"/>
+      <c r="F29" s="67"/>
+      <c r="G29" s="67"/>
+      <c r="H29" s="67"/>
+      <c r="I29" s="68"/>
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A30" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B30" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="65" t="s">
+      <c r="C30" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="66"/>
-      <c r="E30" s="66"/>
-      <c r="F30" s="66"/>
-      <c r="G30" s="66"/>
-      <c r="H30" s="66"/>
-      <c r="I30" s="67"/>
+      <c r="D30" s="67"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="67"/>
+      <c r="G30" s="67"/>
+      <c r="H30" s="67"/>
+      <c r="I30" s="68"/>
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
       <c r="M30" s="5"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="12" t="s">
         <v>3</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C31" s="65" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" s="66"/>
-      <c r="E31" s="66"/>
-      <c r="F31" s="66"/>
-      <c r="G31" s="66"/>
-      <c r="H31" s="66"/>
-      <c r="I31" s="67"/>
+        <v>33</v>
+      </c>
+      <c r="C31" s="74" t="s">
+        <v>124</v>
+      </c>
+      <c r="D31" s="67"/>
+      <c r="E31" s="67"/>
+      <c r="F31" s="67"/>
+      <c r="G31" s="67"/>
+      <c r="H31" s="67"/>
+      <c r="I31" s="68"/>
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
@@ -5292,9 +5313,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
-    </sheetView>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -5308,7 +5327,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
@@ -5321,10 +5340,10 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="24" t="s">
         <v>14</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>15</v>
       </c>
       <c r="C2" s="32" t="s">
         <v>0</v>
@@ -5332,10 +5351,10 @@
       <c r="D2" s="33"/>
       <c r="E2" s="33"/>
       <c r="F2" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="33" t="s">
         <v>17</v>
-      </c>
-      <c r="G2" s="33" t="s">
-        <v>18</v>
       </c>
       <c r="H2" s="33"/>
       <c r="I2" s="34"/>
@@ -5343,15 +5362,15 @@
     <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="26"/>
       <c r="B3" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="32" t="s">
         <v>19</v>
-      </c>
-      <c r="C3" s="32" t="s">
-        <v>20</v>
       </c>
       <c r="D3" s="33"/>
       <c r="E3" s="33"/>
       <c r="F3" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G3" s="27">
         <v>43731</v>
@@ -5362,15 +5381,15 @@
     <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A4" s="28"/>
       <c r="B4" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="32" t="s">
         <v>22</v>
-      </c>
-      <c r="C4" s="32" t="s">
-        <v>23</v>
       </c>
       <c r="D4" s="33"/>
       <c r="E4" s="33"/>
       <c r="F4" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G4" s="29">
         <v>1</v>
@@ -5380,13 +5399,13 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="25" t="s">
-        <v>26</v>
-      </c>
       <c r="C5" s="32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D5" s="33"/>
       <c r="E5" s="33"/>
@@ -5398,10 +5417,10 @@
     <row r="6" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A6" s="26"/>
       <c r="B6" s="24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D6" s="33"/>
       <c r="E6" s="33"/>
@@ -5412,7 +5431,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
@@ -5436,23 +5455,23 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C9" s="5"/>
       <c r="F9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="44" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B10" s="45"/>
       <c r="C10" s="45"/>
       <c r="D10" s="46"/>
       <c r="F10" s="44" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G10" s="45"/>
       <c r="H10" s="45"/>
@@ -5465,7 +5484,7 @@
       <c r="D11" s="6"/>
       <c r="F11" s="1"/>
       <c r="G11" s="47" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="3"/>
@@ -5482,7 +5501,7 @@
     </row>
     <row r="13" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="39" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="31"/>
@@ -5554,24 +5573,24 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A20" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="B20" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="B20" s="53" t="s">
+      <c r="C20" s="53" t="s">
         <v>89</v>
-      </c>
-      <c r="C20" s="53" t="s">
-        <v>90</v>
       </c>
       <c r="D20" s="9"/>
       <c r="F20" s="39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H20" s="5"/>
       <c r="I20" s="49" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.15">
@@ -5623,17 +5642,17 @@
       <c r="I25" s="16"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A26" s="65" t="s">
-        <v>40</v>
-      </c>
-      <c r="B26" s="66"/>
-      <c r="C26" s="66"/>
-      <c r="D26" s="66"/>
-      <c r="E26" s="66"/>
-      <c r="F26" s="66"/>
-      <c r="G26" s="66"/>
-      <c r="H26" s="66"/>
-      <c r="I26" s="67"/>
+      <c r="A26" s="66" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="67"/>
+      <c r="C26" s="67"/>
+      <c r="D26" s="67"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="67"/>
+      <c r="G26" s="67"/>
+      <c r="H26" s="67"/>
+      <c r="I26" s="68"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A27" s="13" t="s">
@@ -5654,77 +5673,77 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A28" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C28" s="65" t="s">
-        <v>83</v>
-      </c>
-      <c r="D28" s="66"/>
-      <c r="E28" s="66"/>
-      <c r="F28" s="66"/>
-      <c r="G28" s="66"/>
-      <c r="H28" s="66"/>
-      <c r="I28" s="67"/>
+      <c r="C28" s="66" t="s">
+        <v>82</v>
+      </c>
+      <c r="D28" s="67"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="67"/>
+      <c r="H28" s="67"/>
+      <c r="I28" s="68"/>
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
     </row>
     <row r="29" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C29" s="71" t="s">
-        <v>98</v>
-      </c>
-      <c r="D29" s="66"/>
-      <c r="E29" s="66"/>
-      <c r="F29" s="66"/>
-      <c r="G29" s="66"/>
-      <c r="H29" s="66"/>
-      <c r="I29" s="67"/>
+      <c r="C29" s="74" t="s">
+        <v>97</v>
+      </c>
+      <c r="D29" s="67"/>
+      <c r="E29" s="67"/>
+      <c r="F29" s="67"/>
+      <c r="G29" s="67"/>
+      <c r="H29" s="67"/>
+      <c r="I29" s="68"/>
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
     </row>
-    <row r="30" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:13" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C30" s="71" t="s">
-        <v>124</v>
-      </c>
-      <c r="D30" s="66"/>
-      <c r="E30" s="66"/>
-      <c r="F30" s="66"/>
-      <c r="G30" s="66"/>
-      <c r="H30" s="66"/>
-      <c r="I30" s="67"/>
+        <v>43</v>
+      </c>
+      <c r="C30" s="74" t="s">
+        <v>125</v>
+      </c>
+      <c r="D30" s="67"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="67"/>
+      <c r="G30" s="67"/>
+      <c r="H30" s="67"/>
+      <c r="I30" s="68"/>
       <c r="L30" s="5"/>
       <c r="M30" s="5"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A31" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C31" s="65" t="s">
-        <v>82</v>
-      </c>
-      <c r="D31" s="66"/>
-      <c r="E31" s="66"/>
-      <c r="F31" s="66"/>
-      <c r="G31" s="66"/>
-      <c r="H31" s="66"/>
-      <c r="I31" s="67"/>
+        <v>33</v>
+      </c>
+      <c r="C31" s="66" t="s">
+        <v>81</v>
+      </c>
+      <c r="D31" s="67"/>
+      <c r="E31" s="67"/>
+      <c r="F31" s="67"/>
+      <c r="G31" s="67"/>
+      <c r="H31" s="67"/>
+      <c r="I31" s="68"/>
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
@@ -5762,7 +5781,7 @@
   </sheetPr>
   <dimension ref="A1:S35"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
@@ -5776,7 +5795,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
@@ -5789,10 +5808,10 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="24" t="s">
         <v>14</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>15</v>
       </c>
       <c r="C2" s="32" t="s">
         <v>0</v>
@@ -5800,10 +5819,10 @@
       <c r="D2" s="33"/>
       <c r="E2" s="33"/>
       <c r="F2" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="33" t="s">
         <v>17</v>
-      </c>
-      <c r="G2" s="33" t="s">
-        <v>18</v>
       </c>
       <c r="H2" s="33"/>
       <c r="I2" s="34"/>
@@ -5811,15 +5830,15 @@
     <row r="3" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="26"/>
       <c r="B3" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="32" t="s">
         <v>19</v>
-      </c>
-      <c r="C3" s="32" t="s">
-        <v>20</v>
       </c>
       <c r="D3" s="33"/>
       <c r="E3" s="33"/>
       <c r="F3" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G3" s="27">
         <v>43744</v>
@@ -5830,15 +5849,15 @@
     <row r="4" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A4" s="28"/>
       <c r="B4" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="32" t="s">
         <v>22</v>
-      </c>
-      <c r="C4" s="32" t="s">
-        <v>23</v>
       </c>
       <c r="D4" s="33"/>
       <c r="E4" s="33"/>
       <c r="F4" s="25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G4" s="29">
         <v>1</v>
@@ -5848,13 +5867,13 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="25" t="s">
-        <v>26</v>
-      </c>
       <c r="C5" s="32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D5" s="33"/>
       <c r="E5" s="33"/>
@@ -5866,10 +5885,10 @@
     <row r="6" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A6" s="26"/>
       <c r="B6" s="24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D6" s="33"/>
       <c r="E6" s="33"/>
@@ -5880,7 +5899,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
@@ -5905,7 +5924,7 @@
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
       <c r="B9" s="54" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C9" s="55"/>
       <c r="D9" s="55"/>
@@ -5919,36 +5938,36 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
-      <c r="B10" s="76" t="s">
+      <c r="B10" s="79" t="s">
+        <v>108</v>
+      </c>
+      <c r="C10" s="80"/>
+      <c r="D10" s="79" t="s">
+        <v>112</v>
+      </c>
+      <c r="E10" s="83" t="s">
+        <v>111</v>
+      </c>
+      <c r="F10" s="83" t="s">
         <v>109</v>
       </c>
-      <c r="C10" s="77"/>
-      <c r="D10" s="76" t="s">
-        <v>113</v>
-      </c>
-      <c r="E10" s="80" t="s">
-        <v>112</v>
-      </c>
-      <c r="F10" s="80" t="s">
+      <c r="G10" s="79" t="s">
         <v>110</v>
       </c>
-      <c r="G10" s="76" t="s">
-        <v>111</v>
-      </c>
-      <c r="H10" s="77"/>
+      <c r="H10" s="80"/>
       <c r="I10" s="6"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
-      <c r="B11" s="78"/>
-      <c r="C11" s="79"/>
-      <c r="D11" s="78"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="81"/>
-      <c r="G11" s="78"/>
-      <c r="H11" s="79"/>
+      <c r="B11" s="81"/>
+      <c r="C11" s="82"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="84"/>
+      <c r="F11" s="84"/>
+      <c r="G11" s="81"/>
+      <c r="H11" s="82"/>
       <c r="I11" s="6"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
@@ -6010,23 +6029,23 @@
     </row>
     <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
-      <c r="B16" s="72" t="s">
-        <v>93</v>
-      </c>
-      <c r="C16" s="73"/>
+      <c r="B16" s="75" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="76"/>
       <c r="D16" s="61" t="s">
+        <v>113</v>
+      </c>
+      <c r="E16" s="61" t="s">
+        <v>113</v>
+      </c>
+      <c r="F16" s="63" t="s">
         <v>114</v>
       </c>
-      <c r="E16" s="61" t="s">
-        <v>114</v>
-      </c>
-      <c r="F16" s="63" t="s">
+      <c r="G16" s="77" t="s">
         <v>115</v>
       </c>
-      <c r="G16" s="74" t="s">
-        <v>116</v>
-      </c>
-      <c r="H16" s="75"/>
+      <c r="H16" s="78"/>
       <c r="I16" s="6"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
@@ -6107,12 +6126,12 @@
       <c r="A22" s="4"/>
       <c r="B22" s="40"/>
       <c r="C22" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="D22" s="82" t="s">
-        <v>52</v>
-      </c>
-      <c r="E22" s="83"/>
+        <v>104</v>
+      </c>
+      <c r="D22" s="85" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" s="86"/>
       <c r="F22" s="42"/>
       <c r="G22" s="42"/>
       <c r="H22" s="43"/>
@@ -6178,17 +6197,17 @@
       <c r="M26" s="5"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A27" s="65" t="s">
-        <v>53</v>
-      </c>
-      <c r="B27" s="66"/>
-      <c r="C27" s="66"/>
-      <c r="D27" s="66"/>
-      <c r="E27" s="66"/>
-      <c r="F27" s="66"/>
-      <c r="G27" s="66"/>
-      <c r="H27" s="66"/>
-      <c r="I27" s="67"/>
+      <c r="A27" s="66" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="67"/>
+      <c r="C27" s="67"/>
+      <c r="D27" s="67"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="67"/>
+      <c r="G27" s="67"/>
+      <c r="H27" s="67"/>
+      <c r="I27" s="68"/>
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
@@ -6217,20 +6236,20 @@
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A29" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C29" s="84" t="s">
-        <v>106</v>
-      </c>
-      <c r="D29" s="85"/>
-      <c r="E29" s="85"/>
-      <c r="F29" s="85"/>
-      <c r="G29" s="85"/>
-      <c r="H29" s="85"/>
-      <c r="I29" s="86"/>
+        <v>53</v>
+      </c>
+      <c r="C29" s="87" t="s">
+        <v>105</v>
+      </c>
+      <c r="D29" s="88"/>
+      <c r="E29" s="88"/>
+      <c r="F29" s="88"/>
+      <c r="G29" s="88"/>
+      <c r="H29" s="88"/>
+      <c r="I29" s="89"/>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
@@ -6238,20 +6257,20 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A30" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B30" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="66" t="s">
         <v>54</v>
       </c>
-      <c r="C30" s="65" t="s">
-        <v>55</v>
-      </c>
-      <c r="D30" s="66"/>
-      <c r="E30" s="66"/>
-      <c r="F30" s="66"/>
-      <c r="G30" s="66"/>
-      <c r="H30" s="66"/>
-      <c r="I30" s="67"/>
+      <c r="D30" s="67"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="67"/>
+      <c r="G30" s="67"/>
+      <c r="H30" s="67"/>
+      <c r="I30" s="68"/>
       <c r="L30" s="5"/>
       <c r="M30" s="5"/>
     </row>
@@ -6260,55 +6279,55 @@
         <v>3</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C31" s="65" t="s">
-        <v>56</v>
-      </c>
-      <c r="D31" s="66"/>
-      <c r="E31" s="66"/>
-      <c r="F31" s="66"/>
-      <c r="G31" s="66"/>
-      <c r="H31" s="66"/>
-      <c r="I31" s="67"/>
+        <v>45</v>
+      </c>
+      <c r="C31" s="66" t="s">
+        <v>55</v>
+      </c>
+      <c r="D31" s="67"/>
+      <c r="E31" s="67"/>
+      <c r="F31" s="67"/>
+      <c r="G31" s="67"/>
+      <c r="H31" s="67"/>
+      <c r="I31" s="68"/>
       <c r="L31" s="5"/>
       <c r="M31" s="5"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A32" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C32" s="65" t="s">
-        <v>57</v>
-      </c>
-      <c r="D32" s="66"/>
-      <c r="E32" s="66"/>
-      <c r="F32" s="66"/>
-      <c r="G32" s="66"/>
-      <c r="H32" s="66"/>
-      <c r="I32" s="67"/>
+        <v>45</v>
+      </c>
+      <c r="C32" s="66" t="s">
+        <v>56</v>
+      </c>
+      <c r="D32" s="67"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="67"/>
+      <c r="G32" s="67"/>
+      <c r="H32" s="67"/>
+      <c r="I32" s="68"/>
       <c r="L32" s="5"/>
       <c r="M32" s="5"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A33" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B33" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C33" s="65" t="s">
-        <v>58</v>
-      </c>
-      <c r="D33" s="66"/>
-      <c r="E33" s="66"/>
-      <c r="F33" s="66"/>
-      <c r="G33" s="66"/>
-      <c r="H33" s="66"/>
-      <c r="I33" s="67"/>
+      <c r="C33" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="D33" s="67"/>
+      <c r="E33" s="67"/>
+      <c r="F33" s="67"/>
+      <c r="G33" s="67"/>
+      <c r="H33" s="67"/>
+      <c r="I33" s="68"/>
       <c r="J33" s="5"/>
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
@@ -6367,7 +6386,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
@@ -6380,10 +6399,10 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="24" t="s">
         <v>14</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>15</v>
       </c>
       <c r="C2" s="32" t="s">
         <v>0</v>
@@ -6391,10 +6410,10 @@
       <c r="D2" s="33"/>
       <c r="E2" s="33"/>
       <c r="F2" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="33" t="s">
         <v>17</v>
-      </c>
-      <c r="G2" s="33" t="s">
-        <v>18</v>
       </c>
       <c r="H2" s="64"/>
       <c r="I2" s="34"/>
@@ -6402,15 +6421,15 @@
     <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="26"/>
       <c r="B3" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="32" t="s">
         <v>19</v>
-      </c>
-      <c r="C3" s="32" t="s">
-        <v>20</v>
       </c>
       <c r="D3" s="33"/>
       <c r="E3" s="33"/>
       <c r="F3" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G3" s="27">
         <v>43737</v>
@@ -6421,15 +6440,15 @@
     <row r="4" spans="1:13" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A4" s="28"/>
       <c r="B4" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="32" t="s">
         <v>22</v>
-      </c>
-      <c r="C4" s="32" t="s">
-        <v>23</v>
       </c>
       <c r="D4" s="33"/>
       <c r="E4" s="33"/>
       <c r="F4" s="25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G4" s="29">
         <v>1</v>
@@ -6439,13 +6458,13 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="25" t="s">
-        <v>26</v>
-      </c>
       <c r="C5" s="32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D5" s="33"/>
       <c r="E5" s="33"/>
@@ -6457,10 +6476,10 @@
     <row r="6" spans="1:13" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A6" s="26"/>
       <c r="B6" s="24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D6" s="33"/>
       <c r="E6" s="33"/>
@@ -6471,7 +6490,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
@@ -6496,7 +6515,7 @@
     <row r="9" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="48"/>
       <c r="B9" s="44" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C9" s="45"/>
       <c r="D9" s="45"/>
@@ -6508,57 +6527,57 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
-      <c r="B10" s="76" t="s">
+      <c r="B10" s="79" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="80"/>
+      <c r="D10" s="79" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="77"/>
-      <c r="D10" s="76" t="s">
+      <c r="E10" s="79" t="s">
         <v>62</v>
       </c>
-      <c r="E10" s="76" t="s">
-        <v>63</v>
-      </c>
-      <c r="F10" s="77"/>
-      <c r="G10" s="76" t="s">
-        <v>109</v>
-      </c>
-      <c r="H10" s="77"/>
+      <c r="F10" s="80"/>
+      <c r="G10" s="79" t="s">
+        <v>108</v>
+      </c>
+      <c r="H10" s="80"/>
       <c r="I10" s="6"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A11" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" s="78"/>
-      <c r="C11" s="79"/>
-      <c r="D11" s="78"/>
-      <c r="E11" s="78"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="78"/>
-      <c r="H11" s="79"/>
+        <v>49</v>
+      </c>
+      <c r="B11" s="81"/>
+      <c r="C11" s="82"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="82"/>
+      <c r="G11" s="81"/>
+      <c r="H11" s="82"/>
       <c r="I11" s="6"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
-      <c r="B12" s="95">
+      <c r="B12" s="92">
         <v>43737.5</v>
       </c>
-      <c r="C12" s="96"/>
-      <c r="D12" s="87" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="87" t="s">
-        <v>64</v>
-      </c>
-      <c r="F12" s="88"/>
-      <c r="G12" s="87" t="s">
-        <v>94</v>
-      </c>
-      <c r="H12" s="88"/>
+      <c r="C12" s="93"/>
+      <c r="D12" s="90" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="90" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="96"/>
+      <c r="G12" s="90" t="s">
+        <v>93</v>
+      </c>
+      <c r="H12" s="96"/>
       <c r="I12" s="6"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
@@ -6567,13 +6586,13 @@
     </row>
     <row r="13" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
-      <c r="B13" s="97"/>
-      <c r="C13" s="98"/>
-      <c r="D13" s="89"/>
-      <c r="E13" s="89"/>
-      <c r="F13" s="90"/>
-      <c r="G13" s="89"/>
-      <c r="H13" s="90"/>
+      <c r="B13" s="94"/>
+      <c r="C13" s="95"/>
+      <c r="D13" s="91"/>
+      <c r="E13" s="91"/>
+      <c r="F13" s="97"/>
+      <c r="G13" s="91"/>
+      <c r="H13" s="97"/>
       <c r="I13" s="37"/>
       <c r="K13" s="31"/>
       <c r="L13" s="5"/>
@@ -6581,21 +6600,21 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
-      <c r="B14" s="95">
+      <c r="B14" s="92">
         <v>43737.541666666664</v>
       </c>
-      <c r="C14" s="96"/>
-      <c r="D14" s="87" t="s">
+      <c r="C14" s="93"/>
+      <c r="D14" s="90" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="90" t="s">
         <v>65</v>
       </c>
-      <c r="E14" s="87" t="s">
-        <v>66</v>
-      </c>
-      <c r="F14" s="88"/>
-      <c r="G14" s="87" t="s">
-        <v>94</v>
-      </c>
-      <c r="H14" s="88"/>
+      <c r="F14" s="96"/>
+      <c r="G14" s="90" t="s">
+        <v>93</v>
+      </c>
+      <c r="H14" s="96"/>
       <c r="I14" s="6"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
@@ -6604,13 +6623,13 @@
     </row>
     <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
-      <c r="B15" s="97"/>
-      <c r="C15" s="98"/>
-      <c r="D15" s="89"/>
-      <c r="E15" s="89"/>
-      <c r="F15" s="90"/>
-      <c r="G15" s="89"/>
-      <c r="H15" s="90"/>
+      <c r="B15" s="94"/>
+      <c r="C15" s="95"/>
+      <c r="D15" s="91"/>
+      <c r="E15" s="91"/>
+      <c r="F15" s="97"/>
+      <c r="G15" s="91"/>
+      <c r="H15" s="97"/>
       <c r="I15" s="6"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
@@ -6619,21 +6638,21 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
-      <c r="B16" s="95">
+      <c r="B16" s="92">
         <v>43738.5</v>
       </c>
-      <c r="C16" s="96"/>
-      <c r="D16" s="87" t="s">
+      <c r="C16" s="93"/>
+      <c r="D16" s="90" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" s="90" t="s">
         <v>67</v>
       </c>
-      <c r="E16" s="87" t="s">
-        <v>68</v>
-      </c>
-      <c r="F16" s="88"/>
-      <c r="G16" s="87" t="s">
-        <v>95</v>
-      </c>
-      <c r="H16" s="88"/>
+      <c r="F16" s="96"/>
+      <c r="G16" s="90" t="s">
+        <v>94</v>
+      </c>
+      <c r="H16" s="96"/>
       <c r="I16" s="6"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
@@ -6642,13 +6661,13 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
-      <c r="B17" s="97"/>
-      <c r="C17" s="98"/>
-      <c r="D17" s="89"/>
-      <c r="E17" s="89"/>
-      <c r="F17" s="90"/>
-      <c r="G17" s="89"/>
-      <c r="H17" s="90"/>
+      <c r="B17" s="94"/>
+      <c r="C17" s="95"/>
+      <c r="D17" s="91"/>
+      <c r="E17" s="91"/>
+      <c r="F17" s="97"/>
+      <c r="G17" s="91"/>
+      <c r="H17" s="97"/>
       <c r="I17" s="6"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
@@ -6656,21 +6675,21 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
-      <c r="B18" s="95">
+      <c r="B18" s="92">
         <v>43738.5</v>
       </c>
-      <c r="C18" s="96"/>
-      <c r="D18" s="87" t="s">
+      <c r="C18" s="93"/>
+      <c r="D18" s="90" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18" s="98" t="s">
         <v>69</v>
       </c>
-      <c r="E18" s="91" t="s">
-        <v>70</v>
-      </c>
-      <c r="F18" s="92"/>
-      <c r="G18" s="87" t="s">
-        <v>95</v>
-      </c>
-      <c r="H18" s="88"/>
+      <c r="F18" s="99"/>
+      <c r="G18" s="90" t="s">
+        <v>94</v>
+      </c>
+      <c r="H18" s="96"/>
       <c r="I18" s="6"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
@@ -6679,13 +6698,13 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
-      <c r="B19" s="97"/>
-      <c r="C19" s="98"/>
-      <c r="D19" s="89"/>
-      <c r="E19" s="93"/>
-      <c r="F19" s="94"/>
-      <c r="G19" s="89"/>
-      <c r="H19" s="90"/>
+      <c r="B19" s="94"/>
+      <c r="C19" s="95"/>
+      <c r="D19" s="91"/>
+      <c r="E19" s="100"/>
+      <c r="F19" s="101"/>
+      <c r="G19" s="91"/>
+      <c r="H19" s="97"/>
       <c r="I19" s="6"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
@@ -6694,21 +6713,21 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A20" s="38"/>
-      <c r="B20" s="95">
+      <c r="B20" s="92">
         <v>43739.5</v>
       </c>
-      <c r="C20" s="96"/>
-      <c r="D20" s="87" t="s">
+      <c r="C20" s="93"/>
+      <c r="D20" s="90" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20" s="98" t="s">
         <v>71</v>
       </c>
-      <c r="E20" s="91" t="s">
-        <v>72</v>
-      </c>
-      <c r="F20" s="92"/>
-      <c r="G20" s="87" t="s">
-        <v>95</v>
-      </c>
-      <c r="H20" s="88"/>
+      <c r="F20" s="99"/>
+      <c r="G20" s="90" t="s">
+        <v>94</v>
+      </c>
+      <c r="H20" s="96"/>
       <c r="I20" s="6"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
@@ -6717,13 +6736,13 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A21" s="4"/>
-      <c r="B21" s="97"/>
-      <c r="C21" s="98"/>
-      <c r="D21" s="89"/>
-      <c r="E21" s="93"/>
-      <c r="F21" s="94"/>
-      <c r="G21" s="89"/>
-      <c r="H21" s="90"/>
+      <c r="B21" s="94"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="91"/>
+      <c r="E21" s="100"/>
+      <c r="F21" s="101"/>
+      <c r="G21" s="91"/>
+      <c r="H21" s="97"/>
       <c r="I21" s="6"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
@@ -6732,21 +6751,21 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A22" s="4"/>
-      <c r="B22" s="95">
+      <c r="B22" s="92">
         <v>43739.541666666664</v>
       </c>
-      <c r="C22" s="96"/>
-      <c r="D22" s="87" t="s">
+      <c r="C22" s="93"/>
+      <c r="D22" s="90" t="s">
+        <v>72</v>
+      </c>
+      <c r="E22" s="90" t="s">
         <v>73</v>
       </c>
-      <c r="E22" s="87" t="s">
-        <v>74</v>
-      </c>
-      <c r="F22" s="88"/>
-      <c r="G22" s="87" t="s">
-        <v>95</v>
-      </c>
-      <c r="H22" s="88"/>
+      <c r="F22" s="96"/>
+      <c r="G22" s="90" t="s">
+        <v>94</v>
+      </c>
+      <c r="H22" s="96"/>
       <c r="I22" s="6"/>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
@@ -6755,13 +6774,13 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A23" s="4"/>
-      <c r="B23" s="97"/>
-      <c r="C23" s="98"/>
-      <c r="D23" s="89"/>
-      <c r="E23" s="89"/>
-      <c r="F23" s="90"/>
-      <c r="G23" s="89"/>
-      <c r="H23" s="90"/>
+      <c r="B23" s="94"/>
+      <c r="C23" s="95"/>
+      <c r="D23" s="91"/>
+      <c r="E23" s="91"/>
+      <c r="F23" s="97"/>
+      <c r="G23" s="91"/>
+      <c r="H23" s="97"/>
       <c r="I23" s="6"/>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
@@ -6784,12 +6803,12 @@
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" s="85" t="s">
         <v>75</v>
       </c>
-      <c r="D25" s="82" t="s">
-        <v>76</v>
-      </c>
-      <c r="E25" s="83"/>
+      <c r="E25" s="86"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="6"/>
@@ -6843,17 +6862,17 @@
       <c r="M28" s="5"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A29" s="65" t="s">
-        <v>96</v>
-      </c>
-      <c r="B29" s="66"/>
-      <c r="C29" s="66"/>
-      <c r="D29" s="66"/>
-      <c r="E29" s="66"/>
-      <c r="F29" s="66"/>
-      <c r="G29" s="66"/>
-      <c r="H29" s="66"/>
-      <c r="I29" s="67"/>
+      <c r="A29" s="66" t="s">
+        <v>95</v>
+      </c>
+      <c r="B29" s="67"/>
+      <c r="C29" s="67"/>
+      <c r="D29" s="67"/>
+      <c r="E29" s="67"/>
+      <c r="F29" s="67"/>
+      <c r="G29" s="67"/>
+      <c r="H29" s="67"/>
+      <c r="I29" s="68"/>
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
     </row>
@@ -6880,20 +6899,20 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A31" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B31" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B31" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="C31" s="65" t="s">
-        <v>125</v>
-      </c>
-      <c r="D31" s="66"/>
-      <c r="E31" s="66"/>
-      <c r="F31" s="66"/>
-      <c r="G31" s="66"/>
-      <c r="H31" s="66"/>
-      <c r="I31" s="67"/>
+      <c r="C31" s="66" t="s">
+        <v>123</v>
+      </c>
+      <c r="D31" s="67"/>
+      <c r="E31" s="67"/>
+      <c r="F31" s="67"/>
+      <c r="G31" s="67"/>
+      <c r="H31" s="67"/>
+      <c r="I31" s="68"/>
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
@@ -6901,25 +6920,41 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A32" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B32" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="C32" s="66" t="s">
         <v>80</v>
       </c>
-      <c r="C32" s="65" t="s">
-        <v>81</v>
-      </c>
-      <c r="D32" s="66"/>
-      <c r="E32" s="66"/>
-      <c r="F32" s="66"/>
-      <c r="G32" s="66"/>
-      <c r="H32" s="66"/>
-      <c r="I32" s="67"/>
+      <c r="D32" s="67"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="67"/>
+      <c r="G32" s="67"/>
+      <c r="H32" s="67"/>
+      <c r="I32" s="68"/>
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="G10:H11"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="G12:H13"/>
+    <mergeCell ref="G22:H23"/>
+    <mergeCell ref="G20:H21"/>
+    <mergeCell ref="G18:H19"/>
+    <mergeCell ref="G16:H17"/>
+    <mergeCell ref="G14:H15"/>
+    <mergeCell ref="E10:F11"/>
+    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="E20:F21"/>
+    <mergeCell ref="E18:F19"/>
+    <mergeCell ref="E16:F17"/>
+    <mergeCell ref="E14:F15"/>
+    <mergeCell ref="E12:F13"/>
+    <mergeCell ref="D18:D19"/>
     <mergeCell ref="D16:D17"/>
     <mergeCell ref="D14:D15"/>
     <mergeCell ref="D12:D13"/>
@@ -6936,22 +6971,6 @@
     <mergeCell ref="B16:C17"/>
     <mergeCell ref="B10:C11"/>
     <mergeCell ref="B12:C13"/>
-    <mergeCell ref="G10:H11"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="G12:H13"/>
-    <mergeCell ref="G22:H23"/>
-    <mergeCell ref="G20:H21"/>
-    <mergeCell ref="G18:H19"/>
-    <mergeCell ref="G16:H17"/>
-    <mergeCell ref="G14:H15"/>
-    <mergeCell ref="E10:F11"/>
-    <mergeCell ref="E22:F23"/>
-    <mergeCell ref="E20:F21"/>
-    <mergeCell ref="E18:F19"/>
-    <mergeCell ref="E16:F17"/>
-    <mergeCell ref="E14:F15"/>
-    <mergeCell ref="E12:F13"/>
-    <mergeCell ref="D18:D19"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6967,9 +6986,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:16" s="101" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" s="65" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
@@ -7069,7 +7088,7 @@
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
@@ -7143,7 +7162,7 @@
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
@@ -7211,14 +7230,14 @@
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
@@ -7450,13 +7469,13 @@
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>

--- a/design.xlsx
+++ b/design.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="menu" sheetId="1" r:id="rId1"/>
@@ -17,8 +17,10 @@
     <sheet name="result" sheetId="3" r:id="rId3"/>
     <sheet name="history" sheetId="4" r:id="rId4"/>
     <sheet name=" screenTransition" sheetId="5" r:id="rId5"/>
+    <sheet name="DB" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="150">
   <si>
     <t>色識別アプリ</t>
     <rPh sb="0" eb="1">
@@ -1022,22 +1024,6 @@
     </rPh>
     <rPh sb="20" eb="22">
       <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DBから判定した日時、色、RGB値、判定した画像情報を取得し、一覧で表示</t>
-    <rPh sb="18" eb="20">
-      <t>ハンテイ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1110,6 +1096,173 @@
     <rPh sb="57" eb="58">
       <t>カエ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データベース</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データベース名</t>
+    <rPh sb="6" eb="7">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>識別情報</t>
+    <rPh sb="0" eb="2">
+      <t>シキベツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>論理名</t>
+    <rPh sb="0" eb="2">
+      <t>ロンリ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>物理名</t>
+    <rPh sb="0" eb="2">
+      <t>ブツリ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ型</t>
+    <rPh sb="3" eb="4">
+      <t>ガタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>判定した位置</t>
+    <rPh sb="0" eb="2">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>X:0,Y:0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>X:10,Y:0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>X:0,Y:10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>X:20,Y:0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>X:30,Y:30</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>X:20,Y:0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DBから判定した日時、色、RGB値、判定した位置、判定した画像情報を取得し、
+日時の降順で表示</t>
+    <rPh sb="18" eb="20">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>コウジュン</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>判定位置</t>
+    <rPh sb="0" eb="2">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>判定画像</t>
+    <rPh sb="0" eb="2">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RGB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>COLOR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DATE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>POSITION</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IMAGE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VARCHAR(5)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VARCHAR(3)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VARCHAR(255)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1381,7 +1534,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1589,6 +1742,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1604,9 +1769,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1679,14 +1841,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4778,8 +4955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="R31" sqref="P1:R31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4965,15 +5142,15 @@
     </row>
     <row r="12" spans="1:13" ht="30.75" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
-      <c r="B12" s="69" t="s">
+      <c r="B12" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="70"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="71"/>
+      <c r="C12" s="74"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="75"/>
       <c r="I12" s="37"/>
       <c r="J12" s="31"/>
       <c r="K12" s="31"/>
@@ -5122,15 +5299,15 @@
     <row r="22" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
-      <c r="C22" s="72" t="s">
+      <c r="C22" s="76" t="s">
         <v>96</v>
       </c>
-      <c r="D22" s="73"/>
+      <c r="D22" s="77"/>
       <c r="E22" s="5"/>
-      <c r="F22" s="72" t="s">
+      <c r="F22" s="76" t="s">
         <v>98</v>
       </c>
-      <c r="G22" s="73"/>
+      <c r="G22" s="77"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
       <c r="J22" s="5"/>
@@ -5194,17 +5371,17 @@
       <c r="M26" s="5"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A27" s="66" t="s">
+      <c r="A27" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="67"/>
-      <c r="C27" s="67"/>
-      <c r="D27" s="67"/>
-      <c r="E27" s="67"/>
-      <c r="F27" s="67"/>
-      <c r="G27" s="67"/>
-      <c r="H27" s="67"/>
-      <c r="I27" s="68"/>
+      <c r="B27" s="70"/>
+      <c r="C27" s="70"/>
+      <c r="D27" s="70"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="70"/>
+      <c r="I27" s="71"/>
       <c r="L27" s="5"/>
       <c r="M27" s="5"/>
     </row>
@@ -5234,15 +5411,15 @@
       <c r="B29" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="66" t="s">
+      <c r="C29" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="D29" s="67"/>
-      <c r="E29" s="67"/>
-      <c r="F29" s="67"/>
-      <c r="G29" s="67"/>
-      <c r="H29" s="67"/>
-      <c r="I29" s="68"/>
+      <c r="D29" s="70"/>
+      <c r="E29" s="70"/>
+      <c r="F29" s="70"/>
+      <c r="G29" s="70"/>
+      <c r="H29" s="70"/>
+      <c r="I29" s="71"/>
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
     </row>
@@ -5253,15 +5430,15 @@
       <c r="B30" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="66" t="s">
+      <c r="C30" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="67"/>
-      <c r="E30" s="67"/>
-      <c r="F30" s="67"/>
-      <c r="G30" s="67"/>
-      <c r="H30" s="67"/>
-      <c r="I30" s="68"/>
+      <c r="D30" s="70"/>
+      <c r="E30" s="70"/>
+      <c r="F30" s="70"/>
+      <c r="G30" s="70"/>
+      <c r="H30" s="70"/>
+      <c r="I30" s="71"/>
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
@@ -5274,15 +5451,15 @@
       <c r="B31" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="74" t="s">
-        <v>124</v>
-      </c>
-      <c r="D31" s="67"/>
-      <c r="E31" s="67"/>
-      <c r="F31" s="67"/>
-      <c r="G31" s="67"/>
-      <c r="H31" s="67"/>
-      <c r="I31" s="68"/>
+      <c r="C31" s="72" t="s">
+        <v>123</v>
+      </c>
+      <c r="D31" s="70"/>
+      <c r="E31" s="70"/>
+      <c r="F31" s="70"/>
+      <c r="G31" s="70"/>
+      <c r="H31" s="70"/>
+      <c r="I31" s="71"/>
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
@@ -5313,7 +5490,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -5642,17 +5821,17 @@
       <c r="I25" s="16"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A26" s="66" t="s">
+      <c r="A26" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="67"/>
-      <c r="C26" s="67"/>
-      <c r="D26" s="67"/>
-      <c r="E26" s="67"/>
-      <c r="F26" s="67"/>
-      <c r="G26" s="67"/>
-      <c r="H26" s="67"/>
-      <c r="I26" s="68"/>
+      <c r="B26" s="70"/>
+      <c r="C26" s="70"/>
+      <c r="D26" s="70"/>
+      <c r="E26" s="70"/>
+      <c r="F26" s="70"/>
+      <c r="G26" s="70"/>
+      <c r="H26" s="70"/>
+      <c r="I26" s="71"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A27" s="13" t="s">
@@ -5678,15 +5857,15 @@
       <c r="B28" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="66" t="s">
+      <c r="C28" s="69" t="s">
         <v>82</v>
       </c>
-      <c r="D28" s="67"/>
-      <c r="E28" s="67"/>
-      <c r="F28" s="67"/>
-      <c r="G28" s="67"/>
-      <c r="H28" s="67"/>
-      <c r="I28" s="68"/>
+      <c r="D28" s="70"/>
+      <c r="E28" s="70"/>
+      <c r="F28" s="70"/>
+      <c r="G28" s="70"/>
+      <c r="H28" s="70"/>
+      <c r="I28" s="71"/>
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
     </row>
@@ -5697,15 +5876,15 @@
       <c r="B29" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C29" s="74" t="s">
+      <c r="C29" s="72" t="s">
         <v>97</v>
       </c>
-      <c r="D29" s="67"/>
-      <c r="E29" s="67"/>
-      <c r="F29" s="67"/>
-      <c r="G29" s="67"/>
-      <c r="H29" s="67"/>
-      <c r="I29" s="68"/>
+      <c r="D29" s="70"/>
+      <c r="E29" s="70"/>
+      <c r="F29" s="70"/>
+      <c r="G29" s="70"/>
+      <c r="H29" s="70"/>
+      <c r="I29" s="71"/>
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
     </row>
@@ -5716,15 +5895,15 @@
       <c r="B30" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C30" s="74" t="s">
-        <v>125</v>
-      </c>
-      <c r="D30" s="67"/>
-      <c r="E30" s="67"/>
-      <c r="F30" s="67"/>
-      <c r="G30" s="67"/>
-      <c r="H30" s="67"/>
-      <c r="I30" s="68"/>
+      <c r="C30" s="72" t="s">
+        <v>124</v>
+      </c>
+      <c r="D30" s="70"/>
+      <c r="E30" s="70"/>
+      <c r="F30" s="70"/>
+      <c r="G30" s="70"/>
+      <c r="H30" s="70"/>
+      <c r="I30" s="71"/>
       <c r="L30" s="5"/>
       <c r="M30" s="5"/>
     </row>
@@ -5735,15 +5914,15 @@
       <c r="B31" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="66" t="s">
+      <c r="C31" s="69" t="s">
         <v>81</v>
       </c>
-      <c r="D31" s="67"/>
-      <c r="E31" s="67"/>
-      <c r="F31" s="67"/>
-      <c r="G31" s="67"/>
-      <c r="H31" s="67"/>
-      <c r="I31" s="68"/>
+      <c r="D31" s="70"/>
+      <c r="E31" s="70"/>
+      <c r="F31" s="70"/>
+      <c r="G31" s="70"/>
+      <c r="H31" s="70"/>
+      <c r="I31" s="71"/>
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
@@ -5781,7 +5960,7 @@
   </sheetPr>
   <dimension ref="A1:S35"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
@@ -5938,36 +6117,36 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
-      <c r="B10" s="79" t="s">
+      <c r="B10" s="82" t="s">
         <v>108</v>
       </c>
-      <c r="C10" s="80"/>
-      <c r="D10" s="79" t="s">
+      <c r="C10" s="83"/>
+      <c r="D10" s="82" t="s">
         <v>112</v>
       </c>
-      <c r="E10" s="83" t="s">
+      <c r="E10" s="86" t="s">
         <v>111</v>
       </c>
-      <c r="F10" s="83" t="s">
+      <c r="F10" s="86" t="s">
         <v>109</v>
       </c>
-      <c r="G10" s="79" t="s">
+      <c r="G10" s="82" t="s">
         <v>110</v>
       </c>
-      <c r="H10" s="80"/>
+      <c r="H10" s="83"/>
       <c r="I10" s="6"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
-      <c r="B11" s="81"/>
-      <c r="C11" s="82"/>
-      <c r="D11" s="81"/>
-      <c r="E11" s="84"/>
-      <c r="F11" s="84"/>
-      <c r="G11" s="81"/>
-      <c r="H11" s="82"/>
+      <c r="B11" s="84"/>
+      <c r="C11" s="85"/>
+      <c r="D11" s="84"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="87"/>
+      <c r="G11" s="84"/>
+      <c r="H11" s="85"/>
       <c r="I11" s="6"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
@@ -6029,10 +6208,10 @@
     </row>
     <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
-      <c r="B16" s="75" t="s">
+      <c r="B16" s="78" t="s">
         <v>92</v>
       </c>
-      <c r="C16" s="76"/>
+      <c r="C16" s="79"/>
       <c r="D16" s="61" t="s">
         <v>113</v>
       </c>
@@ -6042,10 +6221,10 @@
       <c r="F16" s="63" t="s">
         <v>114</v>
       </c>
-      <c r="G16" s="77" t="s">
+      <c r="G16" s="80" t="s">
         <v>115</v>
       </c>
-      <c r="H16" s="78"/>
+      <c r="H16" s="81"/>
       <c r="I16" s="6"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
@@ -6128,10 +6307,10 @@
       <c r="C22" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="D22" s="85" t="s">
+      <c r="D22" s="88" t="s">
         <v>51</v>
       </c>
-      <c r="E22" s="86"/>
+      <c r="E22" s="89"/>
       <c r="F22" s="42"/>
       <c r="G22" s="42"/>
       <c r="H22" s="43"/>
@@ -6197,17 +6376,17 @@
       <c r="M26" s="5"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A27" s="66" t="s">
+      <c r="A27" s="69" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="67"/>
-      <c r="C27" s="67"/>
-      <c r="D27" s="67"/>
-      <c r="E27" s="67"/>
-      <c r="F27" s="67"/>
-      <c r="G27" s="67"/>
-      <c r="H27" s="67"/>
-      <c r="I27" s="68"/>
+      <c r="B27" s="70"/>
+      <c r="C27" s="70"/>
+      <c r="D27" s="70"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="70"/>
+      <c r="I27" s="71"/>
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
@@ -6241,15 +6420,15 @@
       <c r="B29" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C29" s="87" t="s">
+      <c r="C29" s="90" t="s">
         <v>105</v>
       </c>
-      <c r="D29" s="88"/>
-      <c r="E29" s="88"/>
-      <c r="F29" s="88"/>
-      <c r="G29" s="88"/>
-      <c r="H29" s="88"/>
-      <c r="I29" s="89"/>
+      <c r="D29" s="91"/>
+      <c r="E29" s="91"/>
+      <c r="F29" s="91"/>
+      <c r="G29" s="91"/>
+      <c r="H29" s="91"/>
+      <c r="I29" s="92"/>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
@@ -6262,15 +6441,15 @@
       <c r="B30" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C30" s="66" t="s">
+      <c r="C30" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D30" s="67"/>
-      <c r="E30" s="67"/>
-      <c r="F30" s="67"/>
-      <c r="G30" s="67"/>
-      <c r="H30" s="67"/>
-      <c r="I30" s="68"/>
+      <c r="D30" s="70"/>
+      <c r="E30" s="70"/>
+      <c r="F30" s="70"/>
+      <c r="G30" s="70"/>
+      <c r="H30" s="70"/>
+      <c r="I30" s="71"/>
       <c r="L30" s="5"/>
       <c r="M30" s="5"/>
     </row>
@@ -6281,15 +6460,15 @@
       <c r="B31" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C31" s="66" t="s">
+      <c r="C31" s="69" t="s">
         <v>55</v>
       </c>
-      <c r="D31" s="67"/>
-      <c r="E31" s="67"/>
-      <c r="F31" s="67"/>
-      <c r="G31" s="67"/>
-      <c r="H31" s="67"/>
-      <c r="I31" s="68"/>
+      <c r="D31" s="70"/>
+      <c r="E31" s="70"/>
+      <c r="F31" s="70"/>
+      <c r="G31" s="70"/>
+      <c r="H31" s="70"/>
+      <c r="I31" s="71"/>
       <c r="L31" s="5"/>
       <c r="M31" s="5"/>
     </row>
@@ -6300,15 +6479,15 @@
       <c r="B32" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C32" s="66" t="s">
+      <c r="C32" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="D32" s="67"/>
-      <c r="E32" s="67"/>
-      <c r="F32" s="67"/>
-      <c r="G32" s="67"/>
-      <c r="H32" s="67"/>
-      <c r="I32" s="68"/>
+      <c r="D32" s="70"/>
+      <c r="E32" s="70"/>
+      <c r="F32" s="70"/>
+      <c r="G32" s="70"/>
+      <c r="H32" s="70"/>
+      <c r="I32" s="71"/>
       <c r="L32" s="5"/>
       <c r="M32" s="5"/>
     </row>
@@ -6319,15 +6498,15 @@
       <c r="B33" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C33" s="66" t="s">
+      <c r="C33" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="D33" s="67"/>
-      <c r="E33" s="67"/>
-      <c r="F33" s="67"/>
-      <c r="G33" s="67"/>
-      <c r="H33" s="67"/>
-      <c r="I33" s="68"/>
+      <c r="D33" s="70"/>
+      <c r="E33" s="70"/>
+      <c r="F33" s="70"/>
+      <c r="G33" s="70"/>
+      <c r="H33" s="70"/>
+      <c r="I33" s="71"/>
       <c r="J33" s="5"/>
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
@@ -6374,14 +6553,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32:I32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="12.25" customWidth="1"/>
     <col min="3" max="3" width="11.125" customWidth="1"/>
     <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.75" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.75" customWidth="1"/>
+    <col min="8" max="8" width="9" customWidth="1"/>
+    <col min="9" max="9" width="9.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
@@ -6527,21 +6711,23 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
-      <c r="B10" s="79" t="s">
+      <c r="B10" s="82" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="80"/>
-      <c r="D10" s="79" t="s">
+      <c r="C10" s="83"/>
+      <c r="D10" s="82" t="s">
         <v>61</v>
       </c>
-      <c r="E10" s="79" t="s">
+      <c r="E10" s="82" t="s">
         <v>62</v>
       </c>
-      <c r="F10" s="80"/>
-      <c r="G10" s="79" t="s">
+      <c r="F10" s="86" t="s">
+        <v>132</v>
+      </c>
+      <c r="G10" s="82" t="s">
         <v>108</v>
       </c>
-      <c r="H10" s="80"/>
+      <c r="H10" s="83"/>
       <c r="I10" s="6"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
@@ -6550,34 +6736,36 @@
       <c r="A11" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="81"/>
-      <c r="C11" s="82"/>
-      <c r="D11" s="81"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="82"/>
-      <c r="G11" s="81"/>
-      <c r="H11" s="82"/>
+      <c r="B11" s="84"/>
+      <c r="C11" s="85"/>
+      <c r="D11" s="84"/>
+      <c r="E11" s="84"/>
+      <c r="F11" s="87"/>
+      <c r="G11" s="84"/>
+      <c r="H11" s="85"/>
       <c r="I11" s="6"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
-      <c r="B12" s="92">
+      <c r="B12" s="95">
         <v>43737.5</v>
       </c>
-      <c r="C12" s="93"/>
-      <c r="D12" s="90" t="s">
+      <c r="C12" s="96"/>
+      <c r="D12" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="90" t="s">
+      <c r="E12" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="F12" s="96"/>
-      <c r="G12" s="90" t="s">
+      <c r="F12" s="104" t="s">
+        <v>133</v>
+      </c>
+      <c r="G12" s="93" t="s">
         <v>93</v>
       </c>
-      <c r="H12" s="96"/>
+      <c r="H12" s="99"/>
       <c r="I12" s="6"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
@@ -6586,13 +6774,13 @@
     </row>
     <row r="13" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
-      <c r="B13" s="94"/>
-      <c r="C13" s="95"/>
-      <c r="D13" s="91"/>
-      <c r="E13" s="91"/>
-      <c r="F13" s="97"/>
-      <c r="G13" s="91"/>
-      <c r="H13" s="97"/>
+      <c r="B13" s="97"/>
+      <c r="C13" s="98"/>
+      <c r="D13" s="94"/>
+      <c r="E13" s="94"/>
+      <c r="F13" s="105"/>
+      <c r="G13" s="94"/>
+      <c r="H13" s="100"/>
       <c r="I13" s="37"/>
       <c r="K13" s="31"/>
       <c r="L13" s="5"/>
@@ -6600,21 +6788,23 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
-      <c r="B14" s="92">
+      <c r="B14" s="95">
         <v>43737.541666666664</v>
       </c>
-      <c r="C14" s="93"/>
-      <c r="D14" s="90" t="s">
+      <c r="C14" s="96"/>
+      <c r="D14" s="93" t="s">
         <v>64</v>
       </c>
-      <c r="E14" s="90" t="s">
+      <c r="E14" s="93" t="s">
         <v>65</v>
       </c>
-      <c r="F14" s="96"/>
-      <c r="G14" s="90" t="s">
+      <c r="F14" s="104" t="s">
+        <v>134</v>
+      </c>
+      <c r="G14" s="93" t="s">
         <v>93</v>
       </c>
-      <c r="H14" s="96"/>
+      <c r="H14" s="99"/>
       <c r="I14" s="6"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
@@ -6623,13 +6813,13 @@
     </row>
     <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
-      <c r="B15" s="94"/>
-      <c r="C15" s="95"/>
-      <c r="D15" s="91"/>
-      <c r="E15" s="91"/>
-      <c r="F15" s="97"/>
-      <c r="G15" s="91"/>
-      <c r="H15" s="97"/>
+      <c r="B15" s="97"/>
+      <c r="C15" s="98"/>
+      <c r="D15" s="94"/>
+      <c r="E15" s="94"/>
+      <c r="F15" s="105"/>
+      <c r="G15" s="94"/>
+      <c r="H15" s="100"/>
       <c r="I15" s="6"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
@@ -6638,21 +6828,23 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
-      <c r="B16" s="92">
+      <c r="B16" s="95">
         <v>43738.5</v>
       </c>
-      <c r="C16" s="93"/>
-      <c r="D16" s="90" t="s">
+      <c r="C16" s="96"/>
+      <c r="D16" s="93" t="s">
         <v>66</v>
       </c>
-      <c r="E16" s="90" t="s">
+      <c r="E16" s="93" t="s">
         <v>67</v>
       </c>
-      <c r="F16" s="96"/>
-      <c r="G16" s="90" t="s">
+      <c r="F16" s="104" t="s">
+        <v>135</v>
+      </c>
+      <c r="G16" s="93" t="s">
         <v>94</v>
       </c>
-      <c r="H16" s="96"/>
+      <c r="H16" s="99"/>
       <c r="I16" s="6"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
@@ -6661,13 +6853,13 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
-      <c r="B17" s="94"/>
-      <c r="C17" s="95"/>
-      <c r="D17" s="91"/>
-      <c r="E17" s="91"/>
-      <c r="F17" s="97"/>
-      <c r="G17" s="91"/>
-      <c r="H17" s="97"/>
+      <c r="B17" s="97"/>
+      <c r="C17" s="98"/>
+      <c r="D17" s="94"/>
+      <c r="E17" s="94"/>
+      <c r="F17" s="105"/>
+      <c r="G17" s="94"/>
+      <c r="H17" s="100"/>
       <c r="I17" s="6"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
@@ -6675,21 +6867,23 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
-      <c r="B18" s="92">
+      <c r="B18" s="95">
         <v>43738.5</v>
       </c>
-      <c r="C18" s="93"/>
-      <c r="D18" s="90" t="s">
+      <c r="C18" s="96"/>
+      <c r="D18" s="93" t="s">
         <v>68</v>
       </c>
-      <c r="E18" s="98" t="s">
+      <c r="E18" s="101" t="s">
         <v>69</v>
       </c>
-      <c r="F18" s="99"/>
-      <c r="G18" s="90" t="s">
+      <c r="F18" s="104" t="s">
+        <v>136</v>
+      </c>
+      <c r="G18" s="93" t="s">
         <v>94</v>
       </c>
-      <c r="H18" s="96"/>
+      <c r="H18" s="99"/>
       <c r="I18" s="6"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
@@ -6698,13 +6892,13 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
-      <c r="B19" s="94"/>
-      <c r="C19" s="95"/>
-      <c r="D19" s="91"/>
-      <c r="E19" s="100"/>
-      <c r="F19" s="101"/>
-      <c r="G19" s="91"/>
-      <c r="H19" s="97"/>
+      <c r="B19" s="97"/>
+      <c r="C19" s="98"/>
+      <c r="D19" s="94"/>
+      <c r="E19" s="102"/>
+      <c r="F19" s="105"/>
+      <c r="G19" s="94"/>
+      <c r="H19" s="100"/>
       <c r="I19" s="6"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
@@ -6713,21 +6907,23 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A20" s="38"/>
-      <c r="B20" s="92">
+      <c r="B20" s="95">
         <v>43739.5</v>
       </c>
-      <c r="C20" s="93"/>
-      <c r="D20" s="90" t="s">
+      <c r="C20" s="96"/>
+      <c r="D20" s="93" t="s">
         <v>70</v>
       </c>
-      <c r="E20" s="98" t="s">
+      <c r="E20" s="101" t="s">
         <v>71</v>
       </c>
-      <c r="F20" s="99"/>
-      <c r="G20" s="90" t="s">
+      <c r="F20" s="104" t="s">
+        <v>137</v>
+      </c>
+      <c r="G20" s="93" t="s">
         <v>94</v>
       </c>
-      <c r="H20" s="96"/>
+      <c r="H20" s="99"/>
       <c r="I20" s="6"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
@@ -6736,13 +6932,13 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A21" s="4"/>
-      <c r="B21" s="94"/>
-      <c r="C21" s="95"/>
-      <c r="D21" s="91"/>
-      <c r="E21" s="100"/>
-      <c r="F21" s="101"/>
-      <c r="G21" s="91"/>
-      <c r="H21" s="97"/>
+      <c r="B21" s="97"/>
+      <c r="C21" s="98"/>
+      <c r="D21" s="94"/>
+      <c r="E21" s="102"/>
+      <c r="F21" s="105"/>
+      <c r="G21" s="94"/>
+      <c r="H21" s="100"/>
       <c r="I21" s="6"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
@@ -6751,21 +6947,23 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A22" s="4"/>
-      <c r="B22" s="92">
+      <c r="B22" s="95">
         <v>43739.541666666664</v>
       </c>
-      <c r="C22" s="93"/>
-      <c r="D22" s="90" t="s">
+      <c r="C22" s="96"/>
+      <c r="D22" s="93" t="s">
         <v>72</v>
       </c>
-      <c r="E22" s="90" t="s">
+      <c r="E22" s="93" t="s">
         <v>73</v>
       </c>
-      <c r="F22" s="96"/>
-      <c r="G22" s="90" t="s">
+      <c r="F22" s="104" t="s">
+        <v>138</v>
+      </c>
+      <c r="G22" s="93" t="s">
         <v>94</v>
       </c>
-      <c r="H22" s="96"/>
+      <c r="H22" s="99"/>
       <c r="I22" s="6"/>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
@@ -6774,13 +6972,13 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A23" s="4"/>
-      <c r="B23" s="94"/>
-      <c r="C23" s="95"/>
-      <c r="D23" s="91"/>
-      <c r="E23" s="91"/>
-      <c r="F23" s="97"/>
-      <c r="G23" s="91"/>
-      <c r="H23" s="97"/>
+      <c r="B23" s="97"/>
+      <c r="C23" s="98"/>
+      <c r="D23" s="94"/>
+      <c r="E23" s="94"/>
+      <c r="F23" s="105"/>
+      <c r="G23" s="94"/>
+      <c r="H23" s="100"/>
       <c r="I23" s="6"/>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
@@ -6805,10 +7003,10 @@
       <c r="C25" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="D25" s="85" t="s">
+      <c r="D25" s="88" t="s">
         <v>75</v>
       </c>
-      <c r="E25" s="86"/>
+      <c r="E25" s="89"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="6"/>
@@ -6862,17 +7060,17 @@
       <c r="M28" s="5"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A29" s="66" t="s">
+      <c r="A29" s="69" t="s">
         <v>95</v>
       </c>
-      <c r="B29" s="67"/>
-      <c r="C29" s="67"/>
-      <c r="D29" s="67"/>
-      <c r="E29" s="67"/>
-      <c r="F29" s="67"/>
-      <c r="G29" s="67"/>
-      <c r="H29" s="67"/>
-      <c r="I29" s="68"/>
+      <c r="B29" s="70"/>
+      <c r="C29" s="70"/>
+      <c r="D29" s="70"/>
+      <c r="E29" s="70"/>
+      <c r="F29" s="70"/>
+      <c r="G29" s="70"/>
+      <c r="H29" s="70"/>
+      <c r="I29" s="71"/>
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
     </row>
@@ -6897,22 +7095,22 @@
       <c r="L30" s="5"/>
       <c r="M30" s="5"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="12" t="s">
         <v>76</v>
       </c>
       <c r="B31" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="C31" s="66" t="s">
-        <v>123</v>
-      </c>
-      <c r="D31" s="67"/>
-      <c r="E31" s="67"/>
-      <c r="F31" s="67"/>
-      <c r="G31" s="67"/>
-      <c r="H31" s="67"/>
-      <c r="I31" s="68"/>
+      <c r="C31" s="72" t="s">
+        <v>139</v>
+      </c>
+      <c r="D31" s="70"/>
+      <c r="E31" s="70"/>
+      <c r="F31" s="70"/>
+      <c r="G31" s="70"/>
+      <c r="H31" s="70"/>
+      <c r="I31" s="71"/>
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
@@ -6925,20 +7123,34 @@
       <c r="B32" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C32" s="66" t="s">
+      <c r="C32" s="69" t="s">
         <v>80</v>
       </c>
-      <c r="D32" s="67"/>
-      <c r="E32" s="67"/>
-      <c r="F32" s="67"/>
-      <c r="G32" s="67"/>
-      <c r="H32" s="67"/>
-      <c r="I32" s="68"/>
+      <c r="D32" s="70"/>
+      <c r="E32" s="70"/>
+      <c r="F32" s="70"/>
+      <c r="G32" s="70"/>
+      <c r="H32" s="70"/>
+      <c r="I32" s="71"/>
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="39">
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E14:E15"/>
     <mergeCell ref="G10:H11"/>
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="G12:H13"/>
@@ -6947,13 +7159,6 @@
     <mergeCell ref="G18:H19"/>
     <mergeCell ref="G16:H17"/>
     <mergeCell ref="G14:H15"/>
-    <mergeCell ref="E10:F11"/>
-    <mergeCell ref="E22:F23"/>
-    <mergeCell ref="E20:F21"/>
-    <mergeCell ref="E18:F19"/>
-    <mergeCell ref="E16:F17"/>
-    <mergeCell ref="E14:F15"/>
-    <mergeCell ref="E12:F13"/>
     <mergeCell ref="D18:D19"/>
     <mergeCell ref="D16:D17"/>
     <mergeCell ref="D14:D15"/>
@@ -6982,7 +7187,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection sqref="A1:P1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -7635,4 +7842,220 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="4" max="4" width="13.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A1" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="22"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A2" s="103" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" s="25"/>
+      <c r="C2" s="66" t="s">
+        <v>127</v>
+      </c>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="67"/>
+      <c r="N2" s="67"/>
+      <c r="O2" s="67"/>
+      <c r="P2" s="68"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A3" s="103" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" s="103" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" s="108" t="s">
+        <v>130</v>
+      </c>
+      <c r="D3" s="109" t="s">
+        <v>131</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A4" s="12">
+        <v>1</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A5" s="12">
+        <v>2</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A6" s="12">
+        <v>3</v>
+      </c>
+      <c r="B6" s="106" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="107" t="s">
+        <v>142</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A7" s="12">
+        <v>4</v>
+      </c>
+      <c r="B7" s="106" t="s">
+        <v>140</v>
+      </c>
+      <c r="C7" s="107" t="s">
+        <v>145</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A8" s="12">
+        <v>5</v>
+      </c>
+      <c r="B8" s="106" t="s">
+        <v>141</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/design.xlsx
+++ b/design.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k017c1204\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k017c1204\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2370" windowHeight="0"/>
   </bookViews>
   <sheets>
     <sheet name="menu" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,6 @@
     <sheet name="DB" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="128">
   <si>
     <t>色識別アプリ</t>
     <rPh sb="0" eb="1">
@@ -324,50 +323,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>白</t>
-    <rPh sb="0" eb="1">
-      <t>シロ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>③</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>画像入力画面です。色を判定ボタンを押下すると、選択した位置の色を判定して表示します。</t>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>イロ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ハンテイ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>オウカ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>イチ</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>イロ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ハンテイ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>①</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ポインター</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -484,17 +444,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>判定した色を表示</t>
-    <rPh sb="4" eb="5">
-      <t>イロ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>判定したRGB値を表示</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>画像入力画面へ遷移するボタン</t>
     <rPh sb="7" eb="9">
       <t>センイ</t>
@@ -523,13 +472,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>色</t>
-    <rPh sb="0" eb="1">
-      <t>イロ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>RGB値</t>
     <rPh sb="3" eb="4">
       <t>チ</t>
@@ -537,69 +479,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>255:255:255</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>黄色</t>
-    <rPh sb="0" eb="2">
-      <t>キイロ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>255:255:0</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>水色</t>
-    <rPh sb="0" eb="2">
-      <t>ミズイロ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0:255:255</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>赤</t>
-    <rPh sb="0" eb="1">
-      <t>アカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>255:0:0</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>緑</t>
-    <rPh sb="0" eb="1">
-      <t>ミドリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0:128:0</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>紫</t>
-    <rPh sb="0" eb="1">
-      <t>ムラサキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>128:0:128</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>②</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>メニュー画面へ</t>
     <rPh sb="4" eb="6">
       <t>ガメン</t>
@@ -643,50 +522,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>色判定する位置を示すポインター。クリックした位置にポインターが移動する</t>
-    <rPh sb="0" eb="1">
-      <t>イロ</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>ハンテイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>イチ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>シメ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>イチ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>イドウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>①</t>
-  </si>
-  <si>
-    <t>③</t>
-  </si>
-  <si>
     <t>④</t>
   </si>
   <si>
-    <t>①</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>②</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>③</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>④</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -706,51 +545,6 @@
     <t>(画像選択済み)</t>
     <rPh sb="5" eb="6">
       <t>ズ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>〇〇.PNG</t>
-  </si>
-  <si>
-    <t>〇〇.PNG</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>〇〇.JPEG</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>履歴画面です。判定した日時、色、RGB値、選択した画像を一覧表示します。</t>
-    <rPh sb="0" eb="2">
-      <t>リレキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ハンテイ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ニチジ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>イロ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>チ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -819,66 +613,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>結果画面</t>
-    <rPh sb="0" eb="2">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>履歴画面</t>
-    <rPh sb="0" eb="2">
-      <t>リレキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>画像入力画面</t>
-  </si>
-  <si>
-    <t>画像入力画面</t>
-    <rPh sb="0" eb="2">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メニュー画面</t>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>⑤</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>判定した画像名を表示</t>
-    <rPh sb="0" eb="2">
-      <t>ハンテイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ヒョウジ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -900,16 +635,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>色</t>
-  </si>
-  <si>
-    <t>RGB値</t>
-    <rPh sb="3" eb="4">
-      <t>チ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Y座標</t>
     <rPh sb="1" eb="3">
       <t>ザヒョウ</t>
@@ -922,16 +647,6 @@
       <t>ザヒョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>00</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>赤</t>
-  </si>
-  <si>
-    <t>255,0,0</t>
   </si>
   <si>
     <t>画面遷移図</t>
@@ -1054,51 +769,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ポインターの位置の色を判定するボタン。
-押下すると結果表示画面に遷移します。
-ポインターの位置の色を取得して結果を返します。</t>
-    <rPh sb="6" eb="8">
-      <t>イチ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>イロ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ハンテイ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>オウカ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>センイ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>イチ</t>
-    </rPh>
-    <rPh sb="48" eb="49">
-      <t>イロ</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="54" eb="56">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="57" eb="58">
-      <t>カエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>データベース</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1151,6 +821,146 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>DATE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイルを選択：ファイルを選択 選択されていません</t>
+    <rPh sb="5" eb="7">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        ③</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      ④</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボタン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボタン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>色を判定するボタン。
+押下すると結果表示画面に遷移します。
+画像内のランダムな位置の色を取得して結果を返します。</t>
+    <rPh sb="0" eb="1">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択した画像を表示するボタン。
+押下すると選択した画像を画面に表示します。</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>③</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>①</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">C:\upload\files\ダウンロード (1).png_20200216213206130.png
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>判定した位置</t>
     <rPh sb="0" eb="2">
       <t>ハンテイ</t>
@@ -1161,108 +971,186 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>X:0,Y:0</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>X:10,Y:0</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>X:0,Y:10</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>X:20,Y:0</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>X:30,Y:30</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>X:20,Y:0</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DBから判定した日時、色、RGB値、判定した位置、判定した画像情報を取得し、
-日時の降順で表示</t>
-    <rPh sb="18" eb="20">
-      <t>ハンテイ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>イチ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ハンテイ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>ニチジ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>コウジュン</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>判定位置</t>
+    <t>X : 41 Y : 35</t>
+  </si>
+  <si>
+    <t>RGB値</t>
+  </si>
+  <si>
+    <t>R:2G:63B:152</t>
+  </si>
+  <si>
+    <t>青</t>
+    <rPh sb="0" eb="1">
+      <t>アオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>判定した画像のパスを表示</t>
     <rPh sb="0" eb="2">
       <t>ハンテイ</t>
     </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最も強い三原色の成分</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>判定したRGB値を表示</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>判定した色の中で最も強い三原色の成分を表示</t>
+    <rPh sb="4" eb="5">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R:2G:63B:152</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">C:\upload\ ～
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DBから判定した日時、RGB値、判定した画像、判定した位置を取得し、表示</t>
+    <rPh sb="16" eb="18">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>履歴画面です。判定した日時、RGB値、選択した画像、判定した位置を一覧表示します。</t>
+    <rPh sb="0" eb="2">
+      <t>リレキ</t>
+    </rPh>
     <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
       <t>イチ</t>
     </rPh>
+    <rPh sb="33" eb="35">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画像入力画面です。色を判定ボタンを押下すると、ランダムな位置の色を判定して表示します。</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rgb</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VARCHAR(20)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>判定画像</t>
-    <rPh sb="0" eb="2">
-      <t>ハンテイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ガゾウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>RGB</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>COLOR</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DATE</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>POSITION</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>IMAGE</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>VARCHAR(5)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>VARCHAR(3)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>image</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>VARCHAR(255)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>y</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1273,7 +1161,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm;@"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1330,8 +1218,16 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1341,12 +1237,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1534,7 +1424,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1667,65 +1557,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1740,6 +1579,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
@@ -1769,42 +1623,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1814,55 +1632,31 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1888,13 +1682,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>873125</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>22225</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1938,13 +1732,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>650875</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1988,13 +1782,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>120650</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>174625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>473075</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>34925</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2042,11 +1836,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>333373</xdr:colOff>
+      <xdr:colOff>226217</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>127214</xdr:rowOff>
+      <xdr:rowOff>67683</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2512219" cy="1515847"/>
+    <xdr:ext cx="1801859" cy="1087223"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="41" name="図 40"/>
@@ -2068,8 +1862,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4214811" y="1841714"/>
-          <a:ext cx="2512219" cy="1515847"/>
+          <a:off x="4107655" y="1948871"/>
+          <a:ext cx="1801859" cy="1087223"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2081,15 +1875,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>500063</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>130969</xdr:rowOff>
+      <xdr:colOff>738188</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>107156</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>488156</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>166685</xdr:rowOff>
+      <xdr:colOff>726281</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>142873</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2098,7 +1892,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6060282" y="3512344"/>
+          <a:off x="6298407" y="2988469"/>
           <a:ext cx="797718" cy="202404"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2142,10 +1936,10 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>130969</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>11905</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="745076" cy="242374"/>
+    <xdr:ext cx="626069" cy="242374"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="4" name="テキスト ボックス 3"/>
@@ -2153,8 +1947,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="3512344"/>
-          <a:ext cx="745076" cy="242374"/>
+          <a:off x="0" y="1893093"/>
+          <a:ext cx="626069" cy="242374"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2183,60 +1977,7 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
-            <a:t>画像を選択</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>130970</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="745076" cy="242374"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="テキスト ボックス 27"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3929063" y="3512345"/>
-          <a:ext cx="745076" cy="242374"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
-            <a:t>画像を選択</a:t>
+            <a:t>送信する</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
         </a:p>
@@ -2247,9 +1988,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>119063</xdr:rowOff>
+      <xdr:colOff>583406</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="629660" cy="242374"/>
     <xdr:sp macro="" textlink="">
@@ -2259,7 +2000,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1119188" y="3500438"/>
+          <a:off x="1273969" y="1881188"/>
           <a:ext cx="629660" cy="242374"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2299,10 +2040,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>130969</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>23812</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>83343</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="629660" cy="242374"/>
     <xdr:sp macro="" textlink="">
@@ -2312,7 +2053,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5095875" y="3512344"/>
+          <a:off x="5584031" y="2964656"/>
           <a:ext cx="629660" cy="242374"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2353,9 +2094,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>452438</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>130969</xdr:rowOff>
+      <xdr:colOff>404813</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>154782</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="923651" cy="242374"/>
     <xdr:sp macro="" textlink="">
@@ -2365,7 +2106,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2071688" y="3512344"/>
+          <a:off x="2024063" y="1869282"/>
           <a:ext cx="923651" cy="242374"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2406,9 +2147,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>452438</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>119063</xdr:rowOff>
+      <xdr:colOff>714376</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>83344</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="923651" cy="242374"/>
     <xdr:sp macro="" textlink="">
@@ -2418,7 +2159,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6012657" y="3500438"/>
+          <a:off x="6274595" y="2964657"/>
           <a:ext cx="923651" cy="242374"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2460,14 +2201,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>23813</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>130969</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>23814</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>23812</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>23811</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>59533</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2476,8 +2217,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="23813" y="3512344"/>
-          <a:ext cx="690562" cy="226217"/>
+          <a:off x="23813" y="1905002"/>
+          <a:ext cx="595312" cy="202406"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2519,15 +2260,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>380999</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>130969</xdr:rowOff>
+      <xdr:colOff>559593</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>11906</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>119062</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>23811</xdr:rowOff>
+      <xdr:colOff>297656</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>71436</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2536,7 +2277,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1071562" y="3512344"/>
+          <a:off x="1250156" y="1893094"/>
           <a:ext cx="666750" cy="226217"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2579,15 +2320,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>511968</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>476249</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>11905</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>23811</xdr:rowOff>
+      <xdr:colOff>440531</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>59529</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2596,7 +2337,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2131218" y="3524250"/>
+          <a:off x="2095499" y="1893093"/>
           <a:ext cx="809626" cy="214311"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2638,26 +2379,498 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>47624</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>142876</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>976313</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>107156</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>726282</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="37" name="正方形/長方形 36"/>
+        <xdr:cNvPr id="38" name="正方形/長方形 37"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3929062" y="3524251"/>
-          <a:ext cx="738188" cy="214311"/>
+          <a:off x="5548313" y="2988469"/>
+          <a:ext cx="738188" cy="202406"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>130968</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>159030</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>338642</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>35718</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="直線矢印コネクタ 41"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="31" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5691187" y="3207030"/>
+          <a:ext cx="207674" cy="210063"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>130967</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>321469</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>11906</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="直線矢印コネクタ 45"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="43" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4012405" y="3238500"/>
+          <a:ext cx="190502" cy="154781"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>11907</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>11906</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>83343</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="49" name="直線矢印コネクタ 48"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="5572126" y="1893094"/>
+          <a:ext cx="511968" cy="71437"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>159031</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>366577</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="50" name="直線矢印コネクタ 49"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="33" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6512718" y="3207031"/>
+          <a:ext cx="223703" cy="198156"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>166687</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>87592</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>313035</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>59531</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="54" name="直線矢印コネクタ 53"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="4" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="166687" y="2135467"/>
+          <a:ext cx="146348" cy="138627"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>75687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>898236</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>23811</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="57" name="直線矢印コネクタ 56"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="29" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1214438" y="2123562"/>
+          <a:ext cx="374361" cy="114812"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>63781</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>21295</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>11905</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="59" name="直線矢印コネクタ 58"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="32" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2047875" y="2111656"/>
+          <a:ext cx="438014" cy="114812"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>119062</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>428624</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>35719</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="61" name="直線矢印コネクタ 60"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="809625" y="1881187"/>
+          <a:ext cx="309562" cy="202407"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>11906</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="正方形/長方形 26"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="976313" y="1714501"/>
+          <a:ext cx="928687" cy="178593"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2699,25 +2912,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>464344</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>285751</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>214313</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>11906</xdr:rowOff>
+      <xdr:colOff>226219</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>11905</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="正方形/長方形 37"/>
+        <xdr:cNvPr id="30" name="正方形/長方形 29"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5036344" y="3524250"/>
-          <a:ext cx="738188" cy="202406"/>
+          <a:off x="4857751" y="1714500"/>
+          <a:ext cx="928687" cy="178593"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2758,31 +2971,36 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>23813</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>154781</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="39" name="フローチャート: 論理和 38"/>
+        <xdr:cNvPr id="43" name="正方形/長方形 42"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="690563" y="2381250"/>
-          <a:ext cx="342900" cy="276225"/>
+          <a:off x="3905251" y="3036094"/>
+          <a:ext cx="595312" cy="202406"/>
         </a:xfrm>
-        <a:prstGeom prst="flowChartOr">
+        <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -2805,7 +3023,232 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="626069" cy="242374"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="テキスト ボックス 43"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3881438" y="3024188"/>
+          <a:ext cx="626069" cy="242374"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t>送信する</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>11906</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>107156</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>559594</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>130969</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="直線矢印コネクタ 6"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1631156" y="3726656"/>
+          <a:ext cx="547688" cy="23813"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>250031</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>321469</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>83343</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="直線矢印コネクタ 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="940594" y="2833687"/>
+          <a:ext cx="1000125" cy="35719"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>547688</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>107157</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>833438</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>35720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="テキスト ボックス 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2166938" y="3559970"/>
+          <a:ext cx="285750" cy="261938"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>⑤</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2813,81 +3256,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>119063</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>797717</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>61913</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="フローチャート: 論理和 39"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5655469" y="1833563"/>
-          <a:ext cx="342900" cy="276225"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartOr">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>226219</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>107156</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>173831</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>140494</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>428624</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>71436</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="42" name="直線矢印コネクタ 41"/>
+        <xdr:cNvPr id="6" name="直線矢印コネクタ 5"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4798219" y="1821656"/>
-          <a:ext cx="935831" cy="33338"/>
+        <a:xfrm flipH="1">
+          <a:off x="1488280" y="3238500"/>
+          <a:ext cx="559594" cy="119061"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2919,179 +3307,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>142874</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:colOff>513557</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>420163</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>130970</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>416719</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>115095</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="46" name="直線矢印コネクタ 45"/>
-        <xdr:cNvCxnSpPr>
-          <a:endCxn id="28" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4024312" y="3333750"/>
-          <a:ext cx="277289" cy="178595"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>202406</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>611188</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>123032</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="49" name="直線矢印コネクタ 48"/>
+        <xdr:cNvPr id="9" name="直線矢印コネクタ 8"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4774406" y="3333750"/>
-          <a:ext cx="408782" cy="170657"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>119062</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>345281</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="50" name="直線矢印コネクタ 49"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6488906" y="3357562"/>
-          <a:ext cx="226219" cy="142875"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>166687</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>372538</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>130969</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="54" name="直線矢印コネクタ 53"/>
-        <xdr:cNvCxnSpPr>
-          <a:endCxn id="4" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="166687" y="3333750"/>
-          <a:ext cx="205851" cy="178594"/>
+        <a:xfrm flipH="1">
+          <a:off x="4394995" y="1785937"/>
+          <a:ext cx="593724" cy="43658"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3123,25 +3357,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>226218</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>130968</xdr:rowOff>
+      <xdr:colOff>873124</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>682101</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>142876</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>153196</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="57" name="直線矢印コネクタ 56"/>
+        <xdr:cNvPr id="10" name="直線矢印コネクタ 9"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="916781" y="3345656"/>
-          <a:ext cx="455883" cy="178595"/>
+        <a:xfrm flipH="1">
+          <a:off x="1563687" y="2286000"/>
+          <a:ext cx="579438" cy="81759"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3173,230 +3407,226 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>261937</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>130968</xdr:rowOff>
+      <xdr:colOff>380998</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>634477</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>130970</xdr:rowOff>
+      <xdr:colOff>666748</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="59" name="直線矢印コネクタ 58"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="テキスト ボックス 21"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1881187" y="3345656"/>
-          <a:ext cx="372540" cy="166689"/>
+          <a:off x="2000248" y="3047999"/>
+          <a:ext cx="285750" cy="261938"/>
         </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
+        <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent2"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:schemeClr val="accent2"/>
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent2"/>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
-    </xdr:cxnSp>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>④</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>130969</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>285749</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>95248</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>98695</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>11907</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>571499</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="61" name="直線矢印コネクタ 60"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="テキスト ボックス 22"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="238125" y="2178844"/>
-          <a:ext cx="551133" cy="214313"/>
+          <a:off x="1904999" y="2690811"/>
+          <a:ext cx="285750" cy="261939"/>
         </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
+        <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent2"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:schemeClr val="accent2"/>
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent2"/>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>202406</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>15876</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>141287</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="直線矢印コネクタ 6"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1821656" y="4143375"/>
-          <a:ext cx="658814" cy="22225"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>③</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>321468</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>117474</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>464344</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>742156</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>750094</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="直線矢印コネクタ 2"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="テキスト ボックス 15"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="1012031" y="1998662"/>
-          <a:ext cx="420688" cy="192088"/>
+        <a:xfrm>
+          <a:off x="2083594" y="2119312"/>
+          <a:ext cx="285750" cy="261939"/>
         </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
+        <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent2"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:schemeClr val="accent2"/>
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent2"/>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
-    </xdr:cxnSp>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>②</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>59531</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>369093</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>107156</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>345281</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>23813</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>654843</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>35720</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="テキスト ボックス 3"/>
+        <xdr:cNvPr id="17" name="テキスト ボックス 16"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="750094" y="2143125"/>
-          <a:ext cx="285750" cy="261938"/>
+          <a:off x="4941093" y="1654969"/>
+          <a:ext cx="285750" cy="261939"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3442,28 +3672,33 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>273843</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>83343</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>420688</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>57944</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>369093</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>35718</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="直線矢印コネクタ 5"/>
+        <xdr:cNvPr id="2" name="直線矢印コネクタ 1"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2738437" y="1964531"/>
-          <a:ext cx="95250" cy="285750"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3730626" y="2284413"/>
+          <a:ext cx="496092" cy="465931"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3494,26 +3729,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>190499</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>93663</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1000124</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>59531</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>384969</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>297656</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>154780</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="直線矢印コネクタ 7"/>
+        <xdr:cNvPr id="3" name="直線矢印コネクタ 2"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4071937" y="1974851"/>
-          <a:ext cx="194470" cy="311149"/>
+          <a:off x="1690687" y="2809875"/>
+          <a:ext cx="381000" cy="261936"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3544,125 +3779,370 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>226218</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>103188</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>976311</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>739775</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>214311</xdr:colOff>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>11906</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="直線矢印コネクタ 8"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="4798218" y="1984376"/>
-          <a:ext cx="513557" cy="242093"/>
+        <a:xfrm>
+          <a:off x="1666874" y="2559843"/>
+          <a:ext cx="1166812" cy="202407"/>
         </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
+        <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="FF0000"/>
+            <a:sysClr val="windowText" lastClr="000000"/>
           </a:solidFill>
-          <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent2"/>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>130969</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="415498" cy="242374"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="テキスト ボックス 5"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="821532" y="1619250"/>
+          <a:ext cx="415498" cy="242374"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:schemeClr val="accent2"/>
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent2"/>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
         </a:fontRef>
       </xdr:style>
-    </xdr:cxnSp>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t>日付</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>321468</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>117476</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1047750</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>59531</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>396875</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>35718</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="直線矢印コネクタ 9"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
+    <xdr:ext cx="498342" cy="242374"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="テキスト ボックス 6"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2786062" y="1998664"/>
-          <a:ext cx="765969" cy="251617"/>
+        <a:xfrm>
+          <a:off x="1738313" y="1607344"/>
+          <a:ext cx="498342" cy="242374"/>
         </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
+        <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
+        <a:noFill/>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent2"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:schemeClr val="accent2"/>
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent2"/>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
         </a:fontRef>
       </xdr:style>
-    </xdr:cxnSp>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+            <a:t>RGB</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t>値</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>107156</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>11906</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>392906</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="841064" cy="242374"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="テキスト ボックス 20"/>
+        <xdr:cNvPr id="8" name="テキスト ボックス 7"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2571750" y="2214563"/>
+          <a:off x="2631281" y="1595437"/>
+          <a:ext cx="841064" cy="242374"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t>判定した画像</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>690563</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>59530</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="900952" cy="242374"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="テキスト ボックス 8"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4000501" y="1607343"/>
+          <a:ext cx="900952" cy="242374"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t>判定した</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+            <a:t>X</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t>座標</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="900952" cy="242374"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="テキスト ボックス 9"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4988719" y="1595438"/>
+          <a:ext cx="900952" cy="242374"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t>判定した</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+            <a:t>Y</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t>座標</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>785812</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1071562</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>23814</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="テキスト ボックス 11"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1476375" y="3012282"/>
           <a:ext cx="285750" cy="261938"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3712,24 +4192,24 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>678655</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>130969</xdr:rowOff>
+      <xdr:colOff>107156</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>273843</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>59532</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>392906</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="テキスト ボックス 21"/>
+        <xdr:cNvPr id="15" name="テキスト ボックス 14"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4560093" y="2178844"/>
+          <a:off x="4143375" y="2702719"/>
           <a:ext cx="285750" cy="261938"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3764,7 +4244,7 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>④</a:t>
+            <a:t>①</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
             <a:solidFill>
@@ -3774,178 +4254,6 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>-1</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>35718</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>285749</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>130969</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="テキスト ボックス 22"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3881437" y="2250281"/>
-          <a:ext cx="285750" cy="261938"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>③</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>178594</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>83343</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>27782</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>129381</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="2" name="直線矢印コネクタ 1"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1797844" y="4167187"/>
-          <a:ext cx="694532" cy="46038"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>273844</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>130968</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>175419</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>46831</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="直線矢印コネクタ 2"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="273844" y="1978818"/>
-          <a:ext cx="587375" cy="258763"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4953,11 +5261,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M32"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="R31" sqref="P1:R31"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -5015,7 +5321,7 @@
         <v>20</v>
       </c>
       <c r="G3" s="27">
-        <v>43715</v>
+        <v>43877</v>
       </c>
       <c r="H3" s="18"/>
       <c r="I3" s="19"/>
@@ -5097,15 +5403,15 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
-      <c r="B9" s="44" t="s">
-        <v>103</v>
-      </c>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="46"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="3"/>
       <c r="I9" s="6"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
@@ -5114,9 +5420,7 @@
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
-      <c r="D10" s="11" t="s">
-        <v>1</v>
-      </c>
+      <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
@@ -5124,40 +5428,42 @@
       <c r="I10" s="6"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+    </row>
+    <row r="11" spans="1:13" ht="30.75" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
+      <c r="B11" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="62"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
     </row>
-    <row r="12" spans="1:13" ht="30.75" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
-      <c r="B12" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="74"/>
-      <c r="D12" s="74"/>
-      <c r="E12" s="74"/>
-      <c r="F12" s="74"/>
-      <c r="G12" s="74"/>
-      <c r="H12" s="75"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
@@ -5169,10 +5475,10 @@
       <c r="I13" s="6"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-    </row>
-    <row r="14" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
@@ -5184,8 +5490,8 @@
       <c r="I14" s="6"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
@@ -5233,12 +5539,16 @@
       <c r="M17" s="5"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
+      <c r="A18" s="38"/>
+      <c r="B18" s="11" t="s">
+        <v>2</v>
+      </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
+      <c r="F18" s="11" t="s">
+        <v>3</v>
+      </c>
       <c r="G18" s="5"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
@@ -5248,16 +5558,12 @@
       <c r="M18" s="5"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A19" s="38"/>
-      <c r="B19" s="11" t="s">
-        <v>2</v>
-      </c>
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
-      <c r="F19" s="11" t="s">
-        <v>3</v>
-      </c>
+      <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
@@ -5281,14 +5587,18 @@
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
+      <c r="C21" s="64" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" s="65"/>
       <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
+      <c r="F21" s="64" t="s">
+        <v>70</v>
+      </c>
+      <c r="G21" s="65"/>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
       <c r="J21" s="5"/>
@@ -5296,19 +5606,1557 @@
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
     </row>
-    <row r="22" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
-      <c r="C22" s="76" t="s">
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A23" s="4"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A24" s="4"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A25" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A26" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="58"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="59"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A27" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="16"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A28" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="58"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="58"/>
+      <c r="G28" s="58"/>
+      <c r="H28" s="58"/>
+      <c r="I28" s="59"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A29" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="58"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="58"/>
+      <c r="G29" s="58"/>
+      <c r="H29" s="58"/>
+      <c r="I29" s="59"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+    </row>
+    <row r="30" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="60" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" s="58"/>
+      <c r="E30" s="58"/>
+      <c r="F30" s="58"/>
+      <c r="G30" s="58"/>
+      <c r="H30" s="58"/>
+      <c r="I30" s="59"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="C29:I29"/>
+    <mergeCell ref="C30:I30"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="C28:I28"/>
+    <mergeCell ref="A26:I26"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="F21:G21"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M32"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="12.25" customWidth="1"/>
+    <col min="3" max="3" width="11.125" customWidth="1"/>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="8" max="8" width="10.625" customWidth="1"/>
+    <col min="9" max="9" width="9.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="22"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="33"/>
+      <c r="I2" s="34"/>
+    </row>
+    <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A3" s="26"/>
+      <c r="B3" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="27">
+        <v>43877</v>
+      </c>
+      <c r="H3" s="33"/>
+      <c r="I3" s="34"/>
+    </row>
+    <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A4" s="28"/>
+      <c r="B4" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="29">
+        <v>1</v>
+      </c>
+      <c r="H4" s="33"/>
+      <c r="I4" s="34"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A5" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="34"/>
+    </row>
+    <row r="6" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A6" s="26"/>
+      <c r="B6" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="34"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A7" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="22"/>
+    </row>
+    <row r="8" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="36"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A9" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="F9" t="s">
+        <v>67</v>
+      </c>
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="3"/>
+      <c r="F10" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G10" s="44"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A11" s="4"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="6"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="I11" s="6"/>
+    </row>
+    <row r="12" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="39"/>
+      <c r="B12" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="31"/>
+      <c r="D12" s="6"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="6"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A13" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="D22" s="77"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="76" t="s">
+      <c r="D13" s="6"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="6"/>
+    </row>
+    <row r="14" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="4"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="6"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="6"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A15" s="4"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="6"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="6"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A16" s="4"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="6"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="6"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="6"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="6"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A18" s="4"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="6"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="6"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="D19" s="6"/>
+      <c r="E19" s="38"/>
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="G20" s="5"/>
+      <c r="H20" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="I20" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="J20" s="4"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A21" s="4"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="6"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="6"/>
+    </row>
+    <row r="22" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="9"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="9"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A23" s="4"/>
+      <c r="C23" s="5"/>
+      <c r="I23" s="6"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A24" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="16"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A25" s="57" t="s">
+        <v>117</v>
+      </c>
+      <c r="B25" s="58"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="58"/>
+      <c r="I25" s="59"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A26" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="16"/>
+    </row>
+    <row r="27" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="G22" s="77"/>
+      <c r="C27" s="60" t="s">
+        <v>69</v>
+      </c>
+      <c r="D27" s="58"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="58"/>
+      <c r="H27" s="58"/>
+      <c r="I27" s="59"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+    </row>
+    <row r="28" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C28" s="60" t="s">
+        <v>100</v>
+      </c>
+      <c r="D28" s="58"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="58"/>
+      <c r="G28" s="58"/>
+      <c r="H28" s="58"/>
+      <c r="I28" s="59"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+    </row>
+    <row r="29" spans="1:13" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="60" t="s">
+        <v>99</v>
+      </c>
+      <c r="D29" s="58"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="58"/>
+      <c r="G29" s="58"/>
+      <c r="H29" s="58"/>
+      <c r="I29" s="59"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A30" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="57" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" s="58"/>
+      <c r="E30" s="58"/>
+      <c r="F30" s="58"/>
+      <c r="G30" s="58"/>
+      <c r="H30" s="58"/>
+      <c r="I30" s="59"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A25:I25"/>
+    <mergeCell ref="C29:I29"/>
+    <mergeCell ref="C30:I30"/>
+    <mergeCell ref="C27:I27"/>
+    <mergeCell ref="C28:I28"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr autoPageBreaks="0"/>
+  </sheetPr>
+  <dimension ref="A1:S34"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="12.25" customWidth="1"/>
+    <col min="3" max="3" width="11.125" customWidth="1"/>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A1" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="22"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A2" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="33"/>
+      <c r="I2" s="34"/>
+    </row>
+    <row r="3" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A3" s="26"/>
+      <c r="B3" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="27">
+        <v>43877</v>
+      </c>
+      <c r="H3" s="33"/>
+      <c r="I3" s="34"/>
+    </row>
+    <row r="4" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A4" s="28"/>
+      <c r="B4" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" s="29">
+        <v>1</v>
+      </c>
+      <c r="H4" s="33"/>
+      <c r="I4" s="34"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A5" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="34"/>
+    </row>
+    <row r="6" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A6" s="26"/>
+      <c r="B6" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="34"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A7" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="22"/>
+    </row>
+    <row r="8" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="36"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9" s="4"/>
+      <c r="B9" s="69" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10" s="4"/>
+      <c r="B10" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="74"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+    </row>
+    <row r="11" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="4"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="46"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12" s="4"/>
+      <c r="B12" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="42"/>
+    </row>
+    <row r="13" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="4"/>
+      <c r="B13" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="37"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="42"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A14" s="4"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="42"/>
+    </row>
+    <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="4"/>
+      <c r="B15" s="40" t="s">
+        <v>110</v>
+      </c>
+      <c r="C15" s="41"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="71"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="42"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A16" s="4"/>
+      <c r="B16" s="75" t="s">
+        <v>108</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="42"/>
+    </row>
+    <row r="17" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="4"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="42"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A18" s="4"/>
+      <c r="B18" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="42"/>
+    </row>
+    <row r="19" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="42"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A20" s="4"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="5"/>
+      <c r="O20" s="41"/>
+      <c r="P20" s="42"/>
+      <c r="Q20" s="42"/>
+      <c r="R20" s="42"/>
+      <c r="S20" s="42"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A21" s="4"/>
+      <c r="B21" s="76" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
       <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A23" s="4"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A24" s="4"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A25" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A26" s="57" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="58"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="59"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A27" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A28" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="66" t="s">
+        <v>109</v>
+      </c>
+      <c r="D28" s="67"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="67"/>
+      <c r="H28" s="67"/>
+      <c r="I28" s="68"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A29" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="57" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29" s="58"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="58"/>
+      <c r="G29" s="58"/>
+      <c r="H29" s="58"/>
+      <c r="I29" s="59"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A30" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="D30" s="58"/>
+      <c r="E30" s="58"/>
+      <c r="F30" s="58"/>
+      <c r="G30" s="58"/>
+      <c r="H30" s="58"/>
+      <c r="I30" s="59"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A31" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" s="57" t="s">
+        <v>111</v>
+      </c>
+      <c r="D31" s="58"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="58"/>
+      <c r="H31" s="58"/>
+      <c r="I31" s="59"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A32" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="D32" s="58"/>
+      <c r="E32" s="58"/>
+      <c r="F32" s="58"/>
+      <c r="G32" s="58"/>
+      <c r="H32" s="58"/>
+      <c r="I32" s="59"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+    </row>
+    <row r="33" spans="10:13" x14ac:dyDescent="0.15">
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+    </row>
+    <row r="34" spans="10:13" x14ac:dyDescent="0.15">
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="C32:I32"/>
+    <mergeCell ref="C31:I31"/>
+    <mergeCell ref="C28:I28"/>
+    <mergeCell ref="A26:I26"/>
+    <mergeCell ref="C30:I30"/>
+    <mergeCell ref="C29:I29"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M31"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="14.25" customWidth="1"/>
+    <col min="3" max="3" width="11.125" customWidth="1"/>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.75" customWidth="1"/>
+    <col min="8" max="8" width="9" customWidth="1"/>
+    <col min="9" max="9" width="9.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A1" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="22"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A2" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="47"/>
+      <c r="I2" s="34"/>
+    </row>
+    <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A3" s="26"/>
+      <c r="B3" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="27">
+        <v>43877</v>
+      </c>
+      <c r="H3" s="33"/>
+      <c r="I3" s="34"/>
+    </row>
+    <row r="4" spans="1:13" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A4" s="28"/>
+      <c r="B4" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="29">
+        <v>1</v>
+      </c>
+      <c r="H4" s="33"/>
+      <c r="I4" s="34"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A5" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="34"/>
+    </row>
+    <row r="6" spans="1:13" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A6" s="26"/>
+      <c r="B6" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="34"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A7" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="22"/>
+    </row>
+    <row r="8" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="36"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A9" s="4"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A10" s="39"/>
+      <c r="B10" s="73"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="74"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A11" s="4"/>
+      <c r="B11" s="40">
+        <v>43870</v>
+      </c>
+      <c r="C11" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="D11" s="46" t="s">
+        <v>114</v>
+      </c>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42">
+        <v>38</v>
+      </c>
+      <c r="G11" s="42">
+        <v>120</v>
+      </c>
+      <c r="H11" s="43"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+    </row>
+    <row r="12" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="4"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="37"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A13" s="4"/>
+      <c r="B13" s="40">
+        <v>43870</v>
+      </c>
+      <c r="C13" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="D13" s="46" t="s">
+        <v>114</v>
+      </c>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42">
+        <v>25</v>
+      </c>
+      <c r="G13" s="42">
+        <v>24</v>
+      </c>
+      <c r="H13" s="43"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+    </row>
+    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="4"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="35"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A15" s="4"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A16" s="4"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A17" s="4"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="41"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A18" s="4"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="77"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A19" s="4"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="77"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="5"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A20" s="4"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A21" s="4"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A22" s="4"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="43"/>
       <c r="I22" s="6"/>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
@@ -5332,1663 +7180,9 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A24" s="4"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A25" s="4"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A26" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A27" s="69" t="s">
-        <v>5</v>
-      </c>
-      <c r="B27" s="70"/>
-      <c r="C27" s="70"/>
-      <c r="D27" s="70"/>
-      <c r="E27" s="70"/>
-      <c r="F27" s="70"/>
-      <c r="G27" s="70"/>
-      <c r="H27" s="70"/>
-      <c r="I27" s="71"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A28" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="16"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A29" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C29" s="69" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29" s="70"/>
-      <c r="E29" s="70"/>
-      <c r="F29" s="70"/>
-      <c r="G29" s="70"/>
-      <c r="H29" s="70"/>
-      <c r="I29" s="71"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A30" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" s="69" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" s="70"/>
-      <c r="E30" s="70"/>
-      <c r="F30" s="70"/>
-      <c r="G30" s="70"/>
-      <c r="H30" s="70"/>
-      <c r="I30" s="71"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-    </row>
-    <row r="31" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C31" s="72" t="s">
-        <v>123</v>
-      </c>
-      <c r="D31" s="70"/>
-      <c r="E31" s="70"/>
-      <c r="F31" s="70"/>
-      <c r="G31" s="70"/>
-      <c r="H31" s="70"/>
-      <c r="I31" s="71"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-    </row>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="C30:I30"/>
-    <mergeCell ref="C31:I31"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="C29:I29"/>
-    <mergeCell ref="A27:I27"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="F22:G22"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M33"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="12.25" customWidth="1"/>
-    <col min="3" max="3" width="11.125" customWidth="1"/>
-    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="10.625" customWidth="1"/>
-    <col min="9" max="9" width="9.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="22"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="33"/>
-      <c r="I2" s="34"/>
-    </row>
-    <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A3" s="26"/>
-      <c r="B3" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="27">
-        <v>43731</v>
-      </c>
-      <c r="H3" s="33"/>
-      <c r="I3" s="34"/>
-    </row>
-    <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A4" s="28"/>
-      <c r="B4" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="29">
-        <v>1</v>
-      </c>
-      <c r="H4" s="33"/>
-      <c r="I4" s="34"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="34"/>
-    </row>
-    <row r="6" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A6" s="26"/>
-      <c r="B6" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="34"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="22"/>
-    </row>
-    <row r="8" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="36"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="3"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A9" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="F9" t="s">
-        <v>91</v>
-      </c>
-      <c r="I9" s="6"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A10" s="44" t="s">
-        <v>102</v>
-      </c>
-      <c r="B10" s="45"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="46"/>
-      <c r="F10" s="44" t="s">
-        <v>101</v>
-      </c>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="46"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A11" s="4"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="H11" s="2"/>
-      <c r="I11" s="3"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A12" s="4"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="6"/>
-    </row>
-    <row r="13" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="39" t="s">
-        <v>86</v>
-      </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="6"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="6"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A14" s="39"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="6"/>
-    </row>
-    <row r="15" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="4"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="6"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A16" s="4"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="6"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="6"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A18" s="4"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="6"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A19" s="4"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="6"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A20" s="52" t="s">
-        <v>87</v>
-      </c>
-      <c r="B20" s="53" t="s">
-        <v>88</v>
-      </c>
-      <c r="C20" s="53" t="s">
-        <v>89</v>
-      </c>
-      <c r="D20" s="9"/>
-      <c r="F20" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="H20" s="5"/>
-      <c r="I20" s="49" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A21" s="1"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="3"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="3"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A22" s="4"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="6"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="6"/>
-    </row>
-    <row r="23" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="7"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="9"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="9"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A24" s="4"/>
-      <c r="C24" s="5"/>
-      <c r="I24" s="6"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A25" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="16"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A26" s="69" t="s">
-        <v>39</v>
-      </c>
-      <c r="B26" s="70"/>
-      <c r="C26" s="70"/>
-      <c r="D26" s="70"/>
-      <c r="E26" s="70"/>
-      <c r="F26" s="70"/>
-      <c r="G26" s="70"/>
-      <c r="H26" s="70"/>
-      <c r="I26" s="71"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A27" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="16"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A28" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C28" s="69" t="s">
-        <v>82</v>
-      </c>
-      <c r="D28" s="70"/>
-      <c r="E28" s="70"/>
-      <c r="F28" s="70"/>
-      <c r="G28" s="70"/>
-      <c r="H28" s="70"/>
-      <c r="I28" s="71"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-    </row>
-    <row r="29" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C29" s="72" t="s">
-        <v>97</v>
-      </c>
-      <c r="D29" s="70"/>
-      <c r="E29" s="70"/>
-      <c r="F29" s="70"/>
-      <c r="G29" s="70"/>
-      <c r="H29" s="70"/>
-      <c r="I29" s="71"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-    </row>
-    <row r="30" spans="1:13" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C30" s="72" t="s">
-        <v>124</v>
-      </c>
-      <c r="D30" s="70"/>
-      <c r="E30" s="70"/>
-      <c r="F30" s="70"/>
-      <c r="G30" s="70"/>
-      <c r="H30" s="70"/>
-      <c r="I30" s="71"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A31" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C31" s="69" t="s">
-        <v>81</v>
-      </c>
-      <c r="D31" s="70"/>
-      <c r="E31" s="70"/>
-      <c r="F31" s="70"/>
-      <c r="G31" s="70"/>
-      <c r="H31" s="70"/>
-      <c r="I31" s="71"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="5"/>
-    </row>
-    <row r="33" spans="10:11" x14ac:dyDescent="0.15">
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A26:I26"/>
-    <mergeCell ref="C30:I30"/>
-    <mergeCell ref="C31:I31"/>
-    <mergeCell ref="C28:I28"/>
-    <mergeCell ref="C29:I29"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr autoPageBreaks="0"/>
-  </sheetPr>
-  <dimension ref="A1:S35"/>
-  <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="12.25" customWidth="1"/>
-    <col min="3" max="3" width="11.125" customWidth="1"/>
-    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A1" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="22"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A2" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="33"/>
-      <c r="I2" s="34"/>
-    </row>
-    <row r="3" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A3" s="26"/>
-      <c r="B3" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="27">
-        <v>43744</v>
-      </c>
-      <c r="H3" s="33"/>
-      <c r="I3" s="34"/>
-    </row>
-    <row r="4" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A4" s="28"/>
-      <c r="B4" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="G4" s="29">
-        <v>1</v>
-      </c>
-      <c r="H4" s="33"/>
-      <c r="I4" s="34"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="34"/>
-    </row>
-    <row r="6" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A6" s="26"/>
-      <c r="B6" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="34"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A7" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="22"/>
-    </row>
-    <row r="8" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="36"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A9" s="4"/>
-      <c r="B9" s="54" t="s">
-        <v>99</v>
-      </c>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A10" s="4"/>
-      <c r="B10" s="82" t="s">
-        <v>108</v>
-      </c>
-      <c r="C10" s="83"/>
-      <c r="D10" s="82" t="s">
-        <v>112</v>
-      </c>
-      <c r="E10" s="86" t="s">
-        <v>111</v>
-      </c>
-      <c r="F10" s="86" t="s">
-        <v>109</v>
-      </c>
-      <c r="G10" s="82" t="s">
-        <v>110</v>
-      </c>
-      <c r="H10" s="83"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A11" s="4"/>
-      <c r="B11" s="84"/>
-      <c r="C11" s="85"/>
-      <c r="D11" s="84"/>
-      <c r="E11" s="87"/>
-      <c r="F11" s="87"/>
-      <c r="G11" s="84"/>
-      <c r="H11" s="85"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-    </row>
-    <row r="12" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="4"/>
-      <c r="B12" s="58"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="57"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A13" s="4"/>
-      <c r="B13" s="40"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="42"/>
-    </row>
-    <row r="14" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="4"/>
-      <c r="B14" s="40"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="37"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="42"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A15" s="4"/>
-      <c r="B15" s="40"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="42"/>
-    </row>
-    <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="4"/>
-      <c r="B16" s="78" t="s">
-        <v>92</v>
-      </c>
-      <c r="C16" s="79"/>
-      <c r="D16" s="61" t="s">
-        <v>113</v>
-      </c>
-      <c r="E16" s="61" t="s">
-        <v>113</v>
-      </c>
-      <c r="F16" s="63" t="s">
-        <v>114</v>
-      </c>
-      <c r="G16" s="80" t="s">
-        <v>115</v>
-      </c>
-      <c r="H16" s="81"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="42"/>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A17" s="4"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="42"/>
-    </row>
-    <row r="18" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="4"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="42"/>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A19" s="4"/>
-      <c r="B19" s="59"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="62"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="42"/>
-    </row>
-    <row r="20" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="4"/>
-      <c r="B20" s="40"/>
-      <c r="H20" s="43"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="42"/>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A21" s="4"/>
-      <c r="B21" s="40"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="5"/>
-      <c r="O21" s="41"/>
-      <c r="P21" s="42"/>
-      <c r="Q21" s="42"/>
-      <c r="R21" s="42"/>
-      <c r="S21" s="42"/>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A22" s="4"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="D22" s="88" t="s">
-        <v>51</v>
-      </c>
-      <c r="E22" s="89"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A24" s="4"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A25" s="4"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A26" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A27" s="69" t="s">
-        <v>52</v>
-      </c>
-      <c r="B27" s="70"/>
-      <c r="C27" s="70"/>
-      <c r="D27" s="70"/>
-      <c r="E27" s="70"/>
-      <c r="F27" s="70"/>
-      <c r="G27" s="70"/>
-      <c r="H27" s="70"/>
-      <c r="I27" s="71"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A28" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A29" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C29" s="90" t="s">
-        <v>105</v>
-      </c>
-      <c r="D29" s="91"/>
-      <c r="E29" s="91"/>
-      <c r="F29" s="91"/>
-      <c r="G29" s="91"/>
-      <c r="H29" s="91"/>
-      <c r="I29" s="92"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A30" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C30" s="69" t="s">
-        <v>54</v>
-      </c>
-      <c r="D30" s="70"/>
-      <c r="E30" s="70"/>
-      <c r="F30" s="70"/>
-      <c r="G30" s="70"/>
-      <c r="H30" s="70"/>
-      <c r="I30" s="71"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A31" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C31" s="69" t="s">
-        <v>55</v>
-      </c>
-      <c r="D31" s="70"/>
-      <c r="E31" s="70"/>
-      <c r="F31" s="70"/>
-      <c r="G31" s="70"/>
-      <c r="H31" s="70"/>
-      <c r="I31" s="71"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A32" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C32" s="69" t="s">
-        <v>56</v>
-      </c>
-      <c r="D32" s="70"/>
-      <c r="E32" s="70"/>
-      <c r="F32" s="70"/>
-      <c r="G32" s="70"/>
-      <c r="H32" s="70"/>
-      <c r="I32" s="71"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="5"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A33" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="B33" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C33" s="69" t="s">
-        <v>57</v>
-      </c>
-      <c r="D33" s="70"/>
-      <c r="E33" s="70"/>
-      <c r="F33" s="70"/>
-      <c r="G33" s="70"/>
-      <c r="H33" s="70"/>
-      <c r="I33" s="71"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="5"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="5"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
-    </row>
-  </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="C33:I33"/>
-    <mergeCell ref="C32:I32"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="B10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="G10:H11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="C29:I29"/>
-    <mergeCell ref="A27:I27"/>
-    <mergeCell ref="C31:I31"/>
-    <mergeCell ref="C30:I30"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="D16:E16" numberStoredAsText="1"/>
-  </ignoredErrors>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M32"/>
-  <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32:I32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="12.25" customWidth="1"/>
-    <col min="3" max="3" width="11.125" customWidth="1"/>
-    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.75" customWidth="1"/>
-    <col min="8" max="8" width="9" customWidth="1"/>
-    <col min="9" max="9" width="9.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="22"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="64"/>
-      <c r="I2" s="34"/>
-    </row>
-    <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A3" s="26"/>
-      <c r="B3" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="27">
-        <v>43737</v>
-      </c>
-      <c r="H3" s="33"/>
-      <c r="I3" s="34"/>
-    </row>
-    <row r="4" spans="1:13" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A4" s="28"/>
-      <c r="B4" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="G4" s="29">
-        <v>1</v>
-      </c>
-      <c r="H4" s="33"/>
-      <c r="I4" s="34"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A5" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="34"/>
-    </row>
-    <row r="6" spans="1:13" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A6" s="26"/>
-      <c r="B6" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="34"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A7" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="22"/>
-    </row>
-    <row r="8" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="36"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="48"/>
-      <c r="B9" s="44" t="s">
-        <v>100</v>
-      </c>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="6"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A10" s="4"/>
-      <c r="B10" s="82" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" s="83"/>
-      <c r="D10" s="82" t="s">
-        <v>61</v>
-      </c>
-      <c r="E10" s="82" t="s">
-        <v>62</v>
-      </c>
-      <c r="F10" s="86" t="s">
-        <v>132</v>
-      </c>
-      <c r="G10" s="82" t="s">
-        <v>108</v>
-      </c>
-      <c r="H10" s="83"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A11" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" s="84"/>
-      <c r="C11" s="85"/>
-      <c r="D11" s="84"/>
-      <c r="E11" s="84"/>
-      <c r="F11" s="87"/>
-      <c r="G11" s="84"/>
-      <c r="H11" s="85"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A12" s="4"/>
-      <c r="B12" s="95">
-        <v>43737.5</v>
-      </c>
-      <c r="C12" s="96"/>
-      <c r="D12" s="93" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="93" t="s">
-        <v>63</v>
-      </c>
-      <c r="F12" s="104" t="s">
-        <v>133</v>
-      </c>
-      <c r="G12" s="93" t="s">
-        <v>93</v>
-      </c>
-      <c r="H12" s="99"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-    </row>
-    <row r="13" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="4"/>
-      <c r="B13" s="97"/>
-      <c r="C13" s="98"/>
-      <c r="D13" s="94"/>
-      <c r="E13" s="94"/>
-      <c r="F13" s="105"/>
-      <c r="G13" s="94"/>
-      <c r="H13" s="100"/>
-      <c r="I13" s="37"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A14" s="4"/>
-      <c r="B14" s="95">
-        <v>43737.541666666664</v>
-      </c>
-      <c r="C14" s="96"/>
-      <c r="D14" s="93" t="s">
-        <v>64</v>
-      </c>
-      <c r="E14" s="93" t="s">
-        <v>65</v>
-      </c>
-      <c r="F14" s="104" t="s">
-        <v>134</v>
-      </c>
-      <c r="G14" s="93" t="s">
-        <v>93</v>
-      </c>
-      <c r="H14" s="99"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-    </row>
-    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="4"/>
-      <c r="B15" s="97"/>
-      <c r="C15" s="98"/>
-      <c r="D15" s="94"/>
-      <c r="E15" s="94"/>
-      <c r="F15" s="105"/>
-      <c r="G15" s="94"/>
-      <c r="H15" s="100"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="35"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A16" s="4"/>
-      <c r="B16" s="95">
-        <v>43738.5</v>
-      </c>
-      <c r="C16" s="96"/>
-      <c r="D16" s="93" t="s">
-        <v>66</v>
-      </c>
-      <c r="E16" s="93" t="s">
-        <v>67</v>
-      </c>
-      <c r="F16" s="104" t="s">
-        <v>135</v>
-      </c>
-      <c r="G16" s="93" t="s">
-        <v>94</v>
-      </c>
-      <c r="H16" s="99"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A17" s="4"/>
-      <c r="B17" s="97"/>
-      <c r="C17" s="98"/>
-      <c r="D17" s="94"/>
-      <c r="E17" s="94"/>
-      <c r="F17" s="105"/>
-      <c r="G17" s="94"/>
-      <c r="H17" s="100"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A18" s="4"/>
-      <c r="B18" s="95">
-        <v>43738.5</v>
-      </c>
-      <c r="C18" s="96"/>
-      <c r="D18" s="93" t="s">
-        <v>68</v>
-      </c>
-      <c r="E18" s="101" t="s">
-        <v>69</v>
-      </c>
-      <c r="F18" s="104" t="s">
-        <v>136</v>
-      </c>
-      <c r="G18" s="93" t="s">
-        <v>94</v>
-      </c>
-      <c r="H18" s="99"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A19" s="4"/>
-      <c r="B19" s="97"/>
-      <c r="C19" s="98"/>
-      <c r="D19" s="94"/>
-      <c r="E19" s="102"/>
-      <c r="F19" s="105"/>
-      <c r="G19" s="94"/>
-      <c r="H19" s="100"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A20" s="38"/>
-      <c r="B20" s="95">
-        <v>43739.5</v>
-      </c>
-      <c r="C20" s="96"/>
-      <c r="D20" s="93" t="s">
-        <v>70</v>
-      </c>
-      <c r="E20" s="101" t="s">
-        <v>71</v>
-      </c>
-      <c r="F20" s="104" t="s">
-        <v>137</v>
-      </c>
-      <c r="G20" s="93" t="s">
-        <v>94</v>
-      </c>
-      <c r="H20" s="99"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="5"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A21" s="4"/>
-      <c r="B21" s="97"/>
-      <c r="C21" s="98"/>
-      <c r="D21" s="94"/>
-      <c r="E21" s="102"/>
-      <c r="F21" s="105"/>
-      <c r="G21" s="94"/>
-      <c r="H21" s="100"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A22" s="4"/>
-      <c r="B22" s="95">
-        <v>43739.541666666664</v>
-      </c>
-      <c r="C22" s="96"/>
-      <c r="D22" s="93" t="s">
-        <v>72</v>
-      </c>
-      <c r="E22" s="93" t="s">
-        <v>73</v>
-      </c>
-      <c r="F22" s="104" t="s">
-        <v>138</v>
-      </c>
-      <c r="G22" s="93" t="s">
-        <v>94</v>
-      </c>
-      <c r="H22" s="99"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A23" s="4"/>
-      <c r="B23" s="97"/>
-      <c r="C23" s="98"/>
-      <c r="D23" s="94"/>
-      <c r="E23" s="94"/>
-      <c r="F23" s="105"/>
-      <c r="G23" s="94"/>
-      <c r="H23" s="100"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A24" s="4"/>
       <c r="B24" s="4"/>
-      <c r="F24" s="5"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="11"/>
       <c r="G24" s="5"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
@@ -6999,17 +7193,13 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="D25" s="88" t="s">
-        <v>75</v>
-      </c>
-      <c r="E25" s="89"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="6"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="9"/>
       <c r="I25" s="6"/>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
@@ -7017,165 +7207,114 @@
       <c r="M25" s="5"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A26" s="4"/>
-      <c r="B26" s="7"/>
+      <c r="A26" s="7"/>
+      <c r="B26" s="8"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="9"/>
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A27" s="7"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="9"/>
+      <c r="A27" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="16"/>
       <c r="L27" s="5"/>
       <c r="M27" s="5"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A28" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="16"/>
+      <c r="A28" s="57" t="s">
+        <v>116</v>
+      </c>
+      <c r="B28" s="58"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="58"/>
+      <c r="G28" s="58"/>
+      <c r="H28" s="58"/>
+      <c r="I28" s="59"/>
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A29" s="69" t="s">
-        <v>95</v>
-      </c>
-      <c r="B29" s="70"/>
-      <c r="C29" s="70"/>
-      <c r="D29" s="70"/>
-      <c r="E29" s="70"/>
-      <c r="F29" s="70"/>
-      <c r="G29" s="70"/>
-      <c r="H29" s="70"/>
-      <c r="I29" s="71"/>
+      <c r="A29" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A30" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="16"/>
+    <row r="30" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="60" t="s">
+        <v>115</v>
+      </c>
+      <c r="D30" s="58"/>
+      <c r="E30" s="58"/>
+      <c r="F30" s="58"/>
+      <c r="G30" s="58"/>
+      <c r="H30" s="58"/>
+      <c r="I30" s="59"/>
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
       <c r="M30" s="5"/>
     </row>
-    <row r="31" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A31" s="12" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="C31" s="72" t="s">
-        <v>139</v>
-      </c>
-      <c r="D31" s="70"/>
-      <c r="E31" s="70"/>
-      <c r="F31" s="70"/>
-      <c r="G31" s="70"/>
-      <c r="H31" s="70"/>
-      <c r="I31" s="71"/>
+        <v>61</v>
+      </c>
+      <c r="C31" s="57" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" s="58"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="58"/>
+      <c r="H31" s="58"/>
+      <c r="I31" s="59"/>
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A32" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="C32" s="69" t="s">
-        <v>80</v>
-      </c>
-      <c r="D32" s="70"/>
-      <c r="E32" s="70"/>
-      <c r="F32" s="70"/>
-      <c r="G32" s="70"/>
-      <c r="H32" s="70"/>
-      <c r="I32" s="71"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="39">
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="G10:H11"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="G12:H13"/>
-    <mergeCell ref="G22:H23"/>
-    <mergeCell ref="G20:H21"/>
-    <mergeCell ref="G18:H19"/>
-    <mergeCell ref="G16:H17"/>
-    <mergeCell ref="G14:H15"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="C32:I32"/>
-    <mergeCell ref="A29:I29"/>
-    <mergeCell ref="B18:C19"/>
-    <mergeCell ref="B20:C21"/>
-    <mergeCell ref="B22:C23"/>
+  <mergeCells count="3">
     <mergeCell ref="C31:I31"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="B14:C15"/>
-    <mergeCell ref="B16:C17"/>
-    <mergeCell ref="B10:C11"/>
-    <mergeCell ref="B12:C13"/>
+    <mergeCell ref="A28:I28"/>
+    <mergeCell ref="C30:I30"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7193,9 +7332,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:16" s="65" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" s="48" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="20" t="s">
-        <v>116</v>
+        <v>77</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
@@ -7295,7 +7434,7 @@
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5" t="s">
-        <v>121</v>
+        <v>82</v>
       </c>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
@@ -7369,7 +7508,7 @@
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5" t="s">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
@@ -7437,14 +7576,14 @@
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5" t="s">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5" t="s">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
@@ -7676,13 +7815,13 @@
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5" t="s">
-        <v>118</v>
+        <v>79</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5" t="s">
-        <v>119</v>
+        <v>80</v>
       </c>
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
@@ -7846,9 +7985,9 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -7857,7 +7996,7 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A1" s="20" t="s">
-        <v>125</v>
+        <v>85</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
@@ -7876,39 +8015,39 @@
       <c r="P1" s="22"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A2" s="103" t="s">
-        <v>126</v>
+      <c r="A2" s="52" t="s">
+        <v>86</v>
       </c>
       <c r="B2" s="25"/>
-      <c r="C2" s="66" t="s">
-        <v>127</v>
-      </c>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="67"/>
-      <c r="M2" s="67"/>
-      <c r="N2" s="67"/>
-      <c r="O2" s="67"/>
-      <c r="P2" s="68"/>
+      <c r="C2" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="51"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A3" s="103" t="s">
-        <v>128</v>
-      </c>
-      <c r="B3" s="103" t="s">
-        <v>129</v>
-      </c>
-      <c r="C3" s="108" t="s">
-        <v>130</v>
-      </c>
-      <c r="D3" s="109" t="s">
-        <v>131</v>
+      <c r="A3" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="55" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3" s="56" t="s">
+        <v>91</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
@@ -7928,13 +8067,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>144</v>
+        <v>118</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>144</v>
+        <v>92</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -7953,14 +8092,14 @@
       <c r="A5" s="12">
         <v>2</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>143</v>
+      <c r="B5" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="54" t="s">
+        <v>119</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -7979,14 +8118,14 @@
       <c r="A6" s="12">
         <v>3</v>
       </c>
-      <c r="B6" s="106" t="s">
-        <v>62</v>
-      </c>
-      <c r="C6" s="107" t="s">
-        <v>142</v>
+      <c r="B6" s="53" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="54" t="s">
+        <v>122</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -8005,14 +8144,14 @@
       <c r="A7" s="12">
         <v>4</v>
       </c>
-      <c r="B7" s="106" t="s">
-        <v>140</v>
-      </c>
-      <c r="C7" s="107" t="s">
-        <v>145</v>
+      <c r="B7" s="53" t="s">
+        <v>124</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>124</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -8031,27 +8170,29 @@
       <c r="A8" s="12">
         <v>5</v>
       </c>
-      <c r="B8" s="106" t="s">
-        <v>141</v>
+      <c r="B8" s="53" t="s">
+        <v>76</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A9" s="12">
+        <v>6</v>
+      </c>
+      <c r="B9" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>125</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/design.xlsx
+++ b/design.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2370" windowHeight="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="6105" windowHeight="2055" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="menu" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="history" sheetId="4" r:id="rId4"/>
     <sheet name=" screenTransition" sheetId="5" r:id="rId5"/>
     <sheet name="DB" sheetId="6" r:id="rId6"/>
+    <sheet name="画面のスクリーンショット" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="132">
   <si>
     <t>色識別アプリ</t>
     <rPh sb="0" eb="1">
@@ -1151,6 +1152,28 @@
   </si>
   <si>
     <t>y</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NotNull</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>主キー</t>
+    <rPh sb="0" eb="1">
+      <t>シュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>履歴画面</t>
+    <rPh sb="0" eb="4">
+      <t>リレキガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1424,7 +1447,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1596,6 +1619,33 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1632,31 +1682,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4998,6 +5024,201 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>214313</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="214313" y="314324"/>
+          <a:ext cx="5748337" cy="3086100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>464345</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>147829</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="3943350"/>
+          <a:ext cx="5950744" cy="2891029"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>440531</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>154555</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6172200" y="3943351"/>
+          <a:ext cx="5241131" cy="2897754"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>130970</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>35719</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>345282</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>35166</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="130970" y="7236619"/>
+          <a:ext cx="5700712" cy="3085547"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>369095</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="10629900"/>
+          <a:ext cx="5855494" cy="3109912"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -5263,7 +5484,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -5433,15 +5654,15 @@
     </row>
     <row r="11" spans="1:13" ht="30.75" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
-      <c r="B11" s="61" t="s">
+      <c r="B11" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="63"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="71"/>
+      <c r="G11" s="71"/>
+      <c r="H11" s="72"/>
       <c r="I11" s="37"/>
       <c r="J11" s="31"/>
       <c r="K11" s="31"/>
@@ -5590,15 +5811,15 @@
     <row r="21" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
-      <c r="C21" s="64" t="s">
+      <c r="C21" s="73" t="s">
         <v>68</v>
       </c>
-      <c r="D21" s="65"/>
+      <c r="D21" s="74"/>
       <c r="E21" s="5"/>
-      <c r="F21" s="64" t="s">
+      <c r="F21" s="73" t="s">
         <v>70</v>
       </c>
-      <c r="G21" s="65"/>
+      <c r="G21" s="74"/>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
       <c r="J21" s="5"/>
@@ -5662,17 +5883,17 @@
       <c r="M25" s="5"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A26" s="57" t="s">
+      <c r="A26" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="B26" s="58"/>
-      <c r="C26" s="58"/>
-      <c r="D26" s="58"/>
-      <c r="E26" s="58"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="58"/>
-      <c r="H26" s="58"/>
-      <c r="I26" s="59"/>
+      <c r="B26" s="67"/>
+      <c r="C26" s="67"/>
+      <c r="D26" s="67"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="67"/>
+      <c r="G26" s="67"/>
+      <c r="H26" s="67"/>
+      <c r="I26" s="68"/>
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
     </row>
@@ -5702,15 +5923,15 @@
       <c r="B28" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="57" t="s">
+      <c r="C28" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="D28" s="58"/>
-      <c r="E28" s="58"/>
-      <c r="F28" s="58"/>
-      <c r="G28" s="58"/>
-      <c r="H28" s="58"/>
-      <c r="I28" s="59"/>
+      <c r="D28" s="67"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="67"/>
+      <c r="H28" s="67"/>
+      <c r="I28" s="68"/>
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
     </row>
@@ -5721,15 +5942,15 @@
       <c r="B29" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="57" t="s">
+      <c r="C29" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="D29" s="58"/>
-      <c r="E29" s="58"/>
-      <c r="F29" s="58"/>
-      <c r="G29" s="58"/>
-      <c r="H29" s="58"/>
-      <c r="I29" s="59"/>
+      <c r="D29" s="67"/>
+      <c r="E29" s="67"/>
+      <c r="F29" s="67"/>
+      <c r="G29" s="67"/>
+      <c r="H29" s="67"/>
+      <c r="I29" s="68"/>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
@@ -5742,15 +5963,15 @@
       <c r="B30" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="60" t="s">
+      <c r="C30" s="69" t="s">
         <v>84</v>
       </c>
-      <c r="D30" s="58"/>
-      <c r="E30" s="58"/>
-      <c r="F30" s="58"/>
-      <c r="G30" s="58"/>
-      <c r="H30" s="58"/>
-      <c r="I30" s="59"/>
+      <c r="D30" s="67"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="67"/>
+      <c r="G30" s="67"/>
+      <c r="H30" s="67"/>
+      <c r="I30" s="68"/>
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
@@ -6097,17 +6318,17 @@
       <c r="I24" s="16"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A25" s="57" t="s">
+      <c r="A25" s="66" t="s">
         <v>117</v>
       </c>
-      <c r="B25" s="58"/>
-      <c r="C25" s="58"/>
-      <c r="D25" s="58"/>
-      <c r="E25" s="58"/>
-      <c r="F25" s="58"/>
-      <c r="G25" s="58"/>
-      <c r="H25" s="58"/>
-      <c r="I25" s="59"/>
+      <c r="B25" s="67"/>
+      <c r="C25" s="67"/>
+      <c r="D25" s="67"/>
+      <c r="E25" s="67"/>
+      <c r="F25" s="67"/>
+      <c r="G25" s="67"/>
+      <c r="H25" s="67"/>
+      <c r="I25" s="68"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A26" s="13" t="s">
@@ -6133,15 +6354,15 @@
       <c r="B27" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="C27" s="60" t="s">
+      <c r="C27" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="D27" s="58"/>
-      <c r="E27" s="58"/>
-      <c r="F27" s="58"/>
-      <c r="G27" s="58"/>
-      <c r="H27" s="58"/>
-      <c r="I27" s="59"/>
+      <c r="D27" s="67"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="67"/>
+      <c r="G27" s="67"/>
+      <c r="H27" s="67"/>
+      <c r="I27" s="68"/>
       <c r="L27" s="5"/>
       <c r="M27" s="5"/>
     </row>
@@ -6152,15 +6373,15 @@
       <c r="B28" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="C28" s="60" t="s">
+      <c r="C28" s="69" t="s">
         <v>100</v>
       </c>
-      <c r="D28" s="58"/>
-      <c r="E28" s="58"/>
-      <c r="F28" s="58"/>
-      <c r="G28" s="58"/>
-      <c r="H28" s="58"/>
-      <c r="I28" s="59"/>
+      <c r="D28" s="67"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="67"/>
+      <c r="H28" s="67"/>
+      <c r="I28" s="68"/>
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
     </row>
@@ -6171,15 +6392,15 @@
       <c r="B29" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C29" s="60" t="s">
+      <c r="C29" s="69" t="s">
         <v>99</v>
       </c>
-      <c r="D29" s="58"/>
-      <c r="E29" s="58"/>
-      <c r="F29" s="58"/>
-      <c r="G29" s="58"/>
-      <c r="H29" s="58"/>
-      <c r="I29" s="59"/>
+      <c r="D29" s="67"/>
+      <c r="E29" s="67"/>
+      <c r="F29" s="67"/>
+      <c r="G29" s="67"/>
+      <c r="H29" s="67"/>
+      <c r="I29" s="68"/>
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
     </row>
@@ -6190,15 +6411,15 @@
       <c r="B30" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="57" t="s">
+      <c r="C30" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="D30" s="58"/>
-      <c r="E30" s="58"/>
-      <c r="F30" s="58"/>
-      <c r="G30" s="58"/>
-      <c r="H30" s="58"/>
-      <c r="I30" s="59"/>
+      <c r="D30" s="67"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="67"/>
+      <c r="G30" s="67"/>
+      <c r="H30" s="67"/>
+      <c r="I30" s="68"/>
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
@@ -6376,22 +6597,22 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
-      <c r="B9" s="69" t="s">
+      <c r="B9" s="57" t="s">
         <v>74</v>
       </c>
-      <c r="C9" s="72"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="72"/>
-      <c r="G9" s="72"/>
-      <c r="H9" s="70"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="58"/>
       <c r="I9" s="6"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
-      <c r="B10" s="73" t="s">
+      <c r="B10" s="61" t="s">
         <v>103</v>
       </c>
       <c r="C10" s="46"/>
@@ -6399,7 +6620,7 @@
       <c r="E10" s="46"/>
       <c r="F10" s="46"/>
       <c r="G10" s="46"/>
-      <c r="H10" s="74"/>
+      <c r="H10" s="62"/>
       <c r="I10" s="6"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
@@ -6469,8 +6690,8 @@
         <v>110</v>
       </c>
       <c r="C15" s="41"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="71"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
       <c r="G15" s="42"/>
       <c r="H15" s="43"/>
       <c r="I15" s="6"/>
@@ -6480,7 +6701,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
-      <c r="B16" s="75" t="s">
+      <c r="B16" s="63" t="s">
         <v>108</v>
       </c>
       <c r="C16" s="5"/>
@@ -6562,7 +6783,7 @@
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A21" s="4"/>
-      <c r="B21" s="76" t="s">
+      <c r="B21" s="64" t="s">
         <v>48</v>
       </c>
       <c r="C21" s="42"/>
@@ -6631,17 +6852,17 @@
       <c r="M25" s="5"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A26" s="57" t="s">
+      <c r="A26" s="66" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="58"/>
-      <c r="C26" s="58"/>
-      <c r="D26" s="58"/>
-      <c r="E26" s="58"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="58"/>
-      <c r="H26" s="58"/>
-      <c r="I26" s="59"/>
+      <c r="B26" s="67"/>
+      <c r="C26" s="67"/>
+      <c r="D26" s="67"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="67"/>
+      <c r="G26" s="67"/>
+      <c r="H26" s="67"/>
+      <c r="I26" s="68"/>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
@@ -6675,15 +6896,15 @@
       <c r="B28" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="66" t="s">
+      <c r="C28" s="75" t="s">
         <v>109</v>
       </c>
-      <c r="D28" s="67"/>
-      <c r="E28" s="67"/>
-      <c r="F28" s="67"/>
-      <c r="G28" s="67"/>
-      <c r="H28" s="67"/>
-      <c r="I28" s="68"/>
+      <c r="D28" s="76"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="76"/>
+      <c r="H28" s="76"/>
+      <c r="I28" s="77"/>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
@@ -6696,15 +6917,15 @@
       <c r="B29" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C29" s="57" t="s">
+      <c r="C29" s="66" t="s">
         <v>51</v>
       </c>
-      <c r="D29" s="58"/>
-      <c r="E29" s="58"/>
-      <c r="F29" s="58"/>
-      <c r="G29" s="58"/>
-      <c r="H29" s="58"/>
-      <c r="I29" s="59"/>
+      <c r="D29" s="67"/>
+      <c r="E29" s="67"/>
+      <c r="F29" s="67"/>
+      <c r="G29" s="67"/>
+      <c r="H29" s="67"/>
+      <c r="I29" s="68"/>
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
     </row>
@@ -6715,15 +6936,15 @@
       <c r="B30" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="57" t="s">
+      <c r="C30" s="66" t="s">
         <v>112</v>
       </c>
-      <c r="D30" s="58"/>
-      <c r="E30" s="58"/>
-      <c r="F30" s="58"/>
-      <c r="G30" s="58"/>
-      <c r="H30" s="58"/>
-      <c r="I30" s="59"/>
+      <c r="D30" s="67"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="67"/>
+      <c r="G30" s="67"/>
+      <c r="H30" s="67"/>
+      <c r="I30" s="68"/>
       <c r="L30" s="5"/>
       <c r="M30" s="5"/>
     </row>
@@ -6734,15 +6955,15 @@
       <c r="B31" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="57" t="s">
+      <c r="C31" s="66" t="s">
         <v>111</v>
       </c>
-      <c r="D31" s="58"/>
-      <c r="E31" s="58"/>
-      <c r="F31" s="58"/>
-      <c r="G31" s="58"/>
-      <c r="H31" s="58"/>
-      <c r="I31" s="59"/>
+      <c r="D31" s="67"/>
+      <c r="E31" s="67"/>
+      <c r="F31" s="67"/>
+      <c r="G31" s="67"/>
+      <c r="H31" s="67"/>
+      <c r="I31" s="68"/>
       <c r="L31" s="5"/>
       <c r="M31" s="5"/>
     </row>
@@ -6753,15 +6974,15 @@
       <c r="B32" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="57" t="s">
+      <c r="C32" s="66" t="s">
         <v>52</v>
       </c>
-      <c r="D32" s="58"/>
-      <c r="E32" s="58"/>
-      <c r="F32" s="58"/>
-      <c r="G32" s="58"/>
-      <c r="H32" s="58"/>
-      <c r="I32" s="59"/>
+      <c r="D32" s="67"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="67"/>
+      <c r="G32" s="67"/>
+      <c r="H32" s="67"/>
+      <c r="I32" s="68"/>
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
@@ -6940,26 +7161,26 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
-      <c r="B9" s="69"/>
-      <c r="C9" s="72"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="72"/>
-      <c r="G9" s="72"/>
-      <c r="H9" s="70"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="58"/>
       <c r="I9" s="6"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10" s="39"/>
-      <c r="B10" s="73"/>
+      <c r="B10" s="61"/>
       <c r="C10" s="46"/>
       <c r="D10" s="46"/>
       <c r="E10" s="46"/>
       <c r="F10" s="46"/>
       <c r="G10" s="46"/>
-      <c r="H10" s="74"/>
+      <c r="H10" s="62"/>
       <c r="I10" s="6"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
@@ -7078,7 +7299,7 @@
       <c r="A17" s="4"/>
       <c r="B17" s="40"/>
       <c r="C17" s="41"/>
-      <c r="E17" s="77"/>
+      <c r="E17" s="65"/>
       <c r="F17" s="42"/>
       <c r="G17" s="42"/>
       <c r="H17" s="43"/>
@@ -7093,7 +7314,7 @@
       <c r="B18" s="40"/>
       <c r="C18" s="41"/>
       <c r="D18" s="42"/>
-      <c r="E18" s="77"/>
+      <c r="E18" s="65"/>
       <c r="F18" s="42"/>
       <c r="G18" s="42"/>
       <c r="H18" s="43"/>
@@ -7108,7 +7329,7 @@
       <c r="B19" s="40"/>
       <c r="C19" s="41"/>
       <c r="D19" s="42"/>
-      <c r="E19" s="77"/>
+      <c r="E19" s="65"/>
       <c r="F19" s="42"/>
       <c r="G19" s="42"/>
       <c r="H19" s="43"/>
@@ -7123,7 +7344,7 @@
       <c r="B20" s="40"/>
       <c r="C20" s="41"/>
       <c r="D20" s="42"/>
-      <c r="E20" s="77"/>
+      <c r="E20" s="65"/>
       <c r="F20" s="42"/>
       <c r="G20" s="42"/>
       <c r="H20" s="43"/>
@@ -7235,17 +7456,17 @@
       <c r="M27" s="5"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A28" s="57" t="s">
+      <c r="A28" s="66" t="s">
         <v>116</v>
       </c>
-      <c r="B28" s="58"/>
-      <c r="C28" s="58"/>
-      <c r="D28" s="58"/>
-      <c r="E28" s="58"/>
-      <c r="F28" s="58"/>
-      <c r="G28" s="58"/>
-      <c r="H28" s="58"/>
-      <c r="I28" s="59"/>
+      <c r="B28" s="67"/>
+      <c r="C28" s="67"/>
+      <c r="D28" s="67"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="67"/>
+      <c r="H28" s="67"/>
+      <c r="I28" s="68"/>
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
     </row>
@@ -7277,15 +7498,15 @@
       <c r="B30" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="C30" s="60" t="s">
+      <c r="C30" s="69" t="s">
         <v>115</v>
       </c>
-      <c r="D30" s="58"/>
-      <c r="E30" s="58"/>
-      <c r="F30" s="58"/>
-      <c r="G30" s="58"/>
-      <c r="H30" s="58"/>
-      <c r="I30" s="59"/>
+      <c r="D30" s="67"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="67"/>
+      <c r="G30" s="67"/>
+      <c r="H30" s="67"/>
+      <c r="I30" s="68"/>
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
@@ -7298,15 +7519,15 @@
       <c r="B31" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="C31" s="57" t="s">
+      <c r="C31" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="D31" s="58"/>
-      <c r="E31" s="58"/>
-      <c r="F31" s="58"/>
-      <c r="G31" s="58"/>
-      <c r="H31" s="58"/>
-      <c r="I31" s="59"/>
+      <c r="D31" s="67"/>
+      <c r="E31" s="67"/>
+      <c r="F31" s="67"/>
+      <c r="G31" s="67"/>
+      <c r="H31" s="67"/>
+      <c r="I31" s="68"/>
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
     </row>
@@ -8049,8 +8270,12 @@
       <c r="D3" s="56" t="s">
         <v>91</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
+      <c r="E3" s="56" t="s">
+        <v>128</v>
+      </c>
+      <c r="F3" s="56" t="s">
+        <v>129</v>
+      </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
@@ -8075,8 +8300,8 @@
       <c r="D4" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
@@ -8101,8 +8326,8 @@
       <c r="D5" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
@@ -8127,8 +8352,8 @@
       <c r="D6" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
@@ -8153,8 +8378,12 @@
       <c r="D7" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
+      <c r="E7" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>131</v>
+      </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
@@ -8179,6 +8408,8 @@
       <c r="D8" s="12" t="s">
         <v>125</v>
       </c>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="12">
@@ -8193,10 +8424,47 @@
       <c r="D9" s="12" t="s">
         <v>125</v>
       </c>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A62"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A62" t="s">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/design.xlsx
+++ b/design.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="6105" windowHeight="2055" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="6105" windowHeight="2055" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="menu" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="143">
   <si>
     <t>色識別アプリ</t>
     <rPh sb="0" eb="1">
@@ -781,16 +781,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>識別情報</t>
-    <rPh sb="0" eb="2">
-      <t>シキベツ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジョウホウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -798,16 +788,6 @@
     <t>論理名</t>
     <rPh sb="0" eb="2">
       <t>ロンリ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>物理名</t>
-    <rPh sb="0" eb="2">
-      <t>ブツリ</t>
     </rPh>
     <rPh sb="2" eb="3">
       <t>メイ</t>
@@ -1155,10 +1135,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>NotNull</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>主キー</t>
     <rPh sb="0" eb="1">
       <t>シュ</t>
@@ -1174,6 +1150,134 @@
   </si>
   <si>
     <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>db1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブル名</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>history</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カラム名</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブル名</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>history</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>判定日時、RGB値、判定画像のファイルパス、判定座標(X座標, Y座標)をほぞんするテーブルです。</t>
+    <rPh sb="0" eb="2">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ザヒョウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ザヒョウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ザヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>判定した日時です</t>
+    <rPh sb="0" eb="2">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>判定結果のRGB値です</t>
+    <rPh sb="0" eb="2">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>チ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>判定した画像のファイルパスです</t>
+    <rPh sb="0" eb="2">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レコードのIDです。主キーです。</t>
+    <rPh sb="10" eb="11">
+      <t>シュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>判定したX座標です</t>
+    <rPh sb="0" eb="2">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ザヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>判定したY座標です</t>
+    <rPh sb="0" eb="2">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ザヒョウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1447,7 +1551,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1646,6 +1750,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1682,8 +1798,17 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5654,15 +5779,15 @@
     </row>
     <row r="11" spans="1:13" ht="30.75" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
-      <c r="B11" s="70" t="s">
+      <c r="B11" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="71"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="71"/>
-      <c r="G11" s="71"/>
-      <c r="H11" s="72"/>
+      <c r="C11" s="75"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="75"/>
+      <c r="G11" s="75"/>
+      <c r="H11" s="76"/>
       <c r="I11" s="37"/>
       <c r="J11" s="31"/>
       <c r="K11" s="31"/>
@@ -5811,15 +5936,15 @@
     <row r="21" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
-      <c r="C21" s="73" t="s">
+      <c r="C21" s="77" t="s">
         <v>68</v>
       </c>
-      <c r="D21" s="74"/>
+      <c r="D21" s="78"/>
       <c r="E21" s="5"/>
-      <c r="F21" s="73" t="s">
+      <c r="F21" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="G21" s="74"/>
+      <c r="G21" s="78"/>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
       <c r="J21" s="5"/>
@@ -5883,17 +6008,17 @@
       <c r="M25" s="5"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A26" s="66" t="s">
+      <c r="A26" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="B26" s="67"/>
-      <c r="C26" s="67"/>
-      <c r="D26" s="67"/>
-      <c r="E26" s="67"/>
-      <c r="F26" s="67"/>
-      <c r="G26" s="67"/>
-      <c r="H26" s="67"/>
-      <c r="I26" s="68"/>
+      <c r="B26" s="71"/>
+      <c r="C26" s="71"/>
+      <c r="D26" s="71"/>
+      <c r="E26" s="71"/>
+      <c r="F26" s="71"/>
+      <c r="G26" s="71"/>
+      <c r="H26" s="71"/>
+      <c r="I26" s="72"/>
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
     </row>
@@ -5923,15 +6048,15 @@
       <c r="B28" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="66" t="s">
+      <c r="C28" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="D28" s="67"/>
-      <c r="E28" s="67"/>
-      <c r="F28" s="67"/>
-      <c r="G28" s="67"/>
-      <c r="H28" s="67"/>
-      <c r="I28" s="68"/>
+      <c r="D28" s="71"/>
+      <c r="E28" s="71"/>
+      <c r="F28" s="71"/>
+      <c r="G28" s="71"/>
+      <c r="H28" s="71"/>
+      <c r="I28" s="72"/>
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
     </row>
@@ -5942,15 +6067,15 @@
       <c r="B29" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="66" t="s">
+      <c r="C29" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="D29" s="67"/>
-      <c r="E29" s="67"/>
-      <c r="F29" s="67"/>
-      <c r="G29" s="67"/>
-      <c r="H29" s="67"/>
-      <c r="I29" s="68"/>
+      <c r="D29" s="71"/>
+      <c r="E29" s="71"/>
+      <c r="F29" s="71"/>
+      <c r="G29" s="71"/>
+      <c r="H29" s="71"/>
+      <c r="I29" s="72"/>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
@@ -5963,15 +6088,15 @@
       <c r="B30" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="69" t="s">
+      <c r="C30" s="73" t="s">
         <v>84</v>
       </c>
-      <c r="D30" s="67"/>
-      <c r="E30" s="67"/>
-      <c r="F30" s="67"/>
-      <c r="G30" s="67"/>
-      <c r="H30" s="67"/>
-      <c r="I30" s="68"/>
+      <c r="D30" s="71"/>
+      <c r="E30" s="71"/>
+      <c r="F30" s="71"/>
+      <c r="G30" s="71"/>
+      <c r="H30" s="71"/>
+      <c r="I30" s="72"/>
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
@@ -6154,13 +6279,13 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="3"/>
       <c r="F10" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G10" s="44"/>
       <c r="H10" s="2"/>
@@ -6174,14 +6299,14 @@
       <c r="F11" s="4"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I11" s="6"/>
     </row>
     <row r="12" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="39"/>
       <c r="B12" s="11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C12" s="31"/>
       <c r="D12" s="6"/>
@@ -6195,10 +6320,10 @@
         <v>65</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D13" s="6"/>
       <c r="F13" s="39"/>
@@ -6272,7 +6397,7 @@
       </c>
       <c r="G20" s="5"/>
       <c r="H20" s="11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I20" s="45" t="s">
         <v>64</v>
@@ -6318,17 +6443,17 @@
       <c r="I24" s="16"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A25" s="66" t="s">
-        <v>117</v>
-      </c>
-      <c r="B25" s="67"/>
-      <c r="C25" s="67"/>
-      <c r="D25" s="67"/>
-      <c r="E25" s="67"/>
-      <c r="F25" s="67"/>
-      <c r="G25" s="67"/>
-      <c r="H25" s="67"/>
-      <c r="I25" s="68"/>
+      <c r="A25" s="70" t="s">
+        <v>115</v>
+      </c>
+      <c r="B25" s="71"/>
+      <c r="C25" s="71"/>
+      <c r="D25" s="71"/>
+      <c r="E25" s="71"/>
+      <c r="F25" s="71"/>
+      <c r="G25" s="71"/>
+      <c r="H25" s="71"/>
+      <c r="I25" s="72"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A26" s="13" t="s">
@@ -6352,17 +6477,17 @@
         <v>38</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="C27" s="69" t="s">
+        <v>96</v>
+      </c>
+      <c r="C27" s="73" t="s">
         <v>69</v>
       </c>
-      <c r="D27" s="67"/>
-      <c r="E27" s="67"/>
-      <c r="F27" s="67"/>
-      <c r="G27" s="67"/>
-      <c r="H27" s="67"/>
-      <c r="I27" s="68"/>
+      <c r="D27" s="71"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="71"/>
+      <c r="G27" s="71"/>
+      <c r="H27" s="71"/>
+      <c r="I27" s="72"/>
       <c r="L27" s="5"/>
       <c r="M27" s="5"/>
     </row>
@@ -6371,17 +6496,17 @@
         <v>39</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="C28" s="69" t="s">
-        <v>100</v>
-      </c>
-      <c r="D28" s="67"/>
-      <c r="E28" s="67"/>
-      <c r="F28" s="67"/>
-      <c r="G28" s="67"/>
-      <c r="H28" s="67"/>
-      <c r="I28" s="68"/>
+        <v>95</v>
+      </c>
+      <c r="C28" s="73" t="s">
+        <v>98</v>
+      </c>
+      <c r="D28" s="71"/>
+      <c r="E28" s="71"/>
+      <c r="F28" s="71"/>
+      <c r="G28" s="71"/>
+      <c r="H28" s="71"/>
+      <c r="I28" s="72"/>
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
     </row>
@@ -6392,15 +6517,15 @@
       <c r="B29" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C29" s="69" t="s">
-        <v>99</v>
-      </c>
-      <c r="D29" s="67"/>
-      <c r="E29" s="67"/>
-      <c r="F29" s="67"/>
-      <c r="G29" s="67"/>
-      <c r="H29" s="67"/>
-      <c r="I29" s="68"/>
+      <c r="C29" s="73" t="s">
+        <v>97</v>
+      </c>
+      <c r="D29" s="71"/>
+      <c r="E29" s="71"/>
+      <c r="F29" s="71"/>
+      <c r="G29" s="71"/>
+      <c r="H29" s="71"/>
+      <c r="I29" s="72"/>
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
     </row>
@@ -6411,15 +6536,15 @@
       <c r="B30" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="66" t="s">
+      <c r="C30" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="D30" s="67"/>
-      <c r="E30" s="67"/>
-      <c r="F30" s="67"/>
-      <c r="G30" s="67"/>
-      <c r="H30" s="67"/>
-      <c r="I30" s="68"/>
+      <c r="D30" s="71"/>
+      <c r="E30" s="71"/>
+      <c r="F30" s="71"/>
+      <c r="G30" s="71"/>
+      <c r="H30" s="71"/>
+      <c r="I30" s="72"/>
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
@@ -6613,7 +6738,7 @@
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
       <c r="B10" s="61" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C10" s="46"/>
       <c r="D10" s="46"/>
@@ -6642,7 +6767,7 @@
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
       <c r="B12" s="40" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -6658,7 +6783,7 @@
     <row r="13" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="40" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -6687,7 +6812,7 @@
     <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="40" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C15" s="41"/>
       <c r="D15" s="59"/>
@@ -6702,7 +6827,7 @@
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
       <c r="B16" s="63" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -6732,7 +6857,7 @@
     <row r="18" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
       <c r="B18" s="40" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -6748,7 +6873,7 @@
     <row r="19" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
       <c r="B19" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -6852,17 +6977,17 @@
       <c r="M25" s="5"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A26" s="66" t="s">
+      <c r="A26" s="70" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="67"/>
-      <c r="C26" s="67"/>
-      <c r="D26" s="67"/>
-      <c r="E26" s="67"/>
-      <c r="F26" s="67"/>
-      <c r="G26" s="67"/>
-      <c r="H26" s="67"/>
-      <c r="I26" s="68"/>
+      <c r="B26" s="71"/>
+      <c r="C26" s="71"/>
+      <c r="D26" s="71"/>
+      <c r="E26" s="71"/>
+      <c r="F26" s="71"/>
+      <c r="G26" s="71"/>
+      <c r="H26" s="71"/>
+      <c r="I26" s="72"/>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
@@ -6896,15 +7021,15 @@
       <c r="B28" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="75" t="s">
-        <v>109</v>
-      </c>
-      <c r="D28" s="76"/>
-      <c r="E28" s="76"/>
-      <c r="F28" s="76"/>
-      <c r="G28" s="76"/>
-      <c r="H28" s="76"/>
-      <c r="I28" s="77"/>
+      <c r="C28" s="79" t="s">
+        <v>107</v>
+      </c>
+      <c r="D28" s="80"/>
+      <c r="E28" s="80"/>
+      <c r="F28" s="80"/>
+      <c r="G28" s="80"/>
+      <c r="H28" s="80"/>
+      <c r="I28" s="81"/>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
@@ -6917,15 +7042,15 @@
       <c r="B29" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C29" s="66" t="s">
+      <c r="C29" s="70" t="s">
         <v>51</v>
       </c>
-      <c r="D29" s="67"/>
-      <c r="E29" s="67"/>
-      <c r="F29" s="67"/>
-      <c r="G29" s="67"/>
-      <c r="H29" s="67"/>
-      <c r="I29" s="68"/>
+      <c r="D29" s="71"/>
+      <c r="E29" s="71"/>
+      <c r="F29" s="71"/>
+      <c r="G29" s="71"/>
+      <c r="H29" s="71"/>
+      <c r="I29" s="72"/>
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
     </row>
@@ -6936,15 +7061,15 @@
       <c r="B30" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="66" t="s">
-        <v>112</v>
-      </c>
-      <c r="D30" s="67"/>
-      <c r="E30" s="67"/>
-      <c r="F30" s="67"/>
-      <c r="G30" s="67"/>
-      <c r="H30" s="67"/>
-      <c r="I30" s="68"/>
+      <c r="C30" s="70" t="s">
+        <v>110</v>
+      </c>
+      <c r="D30" s="71"/>
+      <c r="E30" s="71"/>
+      <c r="F30" s="71"/>
+      <c r="G30" s="71"/>
+      <c r="H30" s="71"/>
+      <c r="I30" s="72"/>
       <c r="L30" s="5"/>
       <c r="M30" s="5"/>
     </row>
@@ -6955,15 +7080,15 @@
       <c r="B31" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="66" t="s">
-        <v>111</v>
-      </c>
-      <c r="D31" s="67"/>
-      <c r="E31" s="67"/>
-      <c r="F31" s="67"/>
-      <c r="G31" s="67"/>
-      <c r="H31" s="67"/>
-      <c r="I31" s="68"/>
+      <c r="C31" s="70" t="s">
+        <v>109</v>
+      </c>
+      <c r="D31" s="71"/>
+      <c r="E31" s="71"/>
+      <c r="F31" s="71"/>
+      <c r="G31" s="71"/>
+      <c r="H31" s="71"/>
+      <c r="I31" s="72"/>
       <c r="L31" s="5"/>
       <c r="M31" s="5"/>
     </row>
@@ -6974,15 +7099,15 @@
       <c r="B32" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="66" t="s">
+      <c r="C32" s="70" t="s">
         <v>52</v>
       </c>
-      <c r="D32" s="67"/>
-      <c r="E32" s="67"/>
-      <c r="F32" s="67"/>
-      <c r="G32" s="67"/>
-      <c r="H32" s="67"/>
-      <c r="I32" s="68"/>
+      <c r="D32" s="71"/>
+      <c r="E32" s="71"/>
+      <c r="F32" s="71"/>
+      <c r="G32" s="71"/>
+      <c r="H32" s="71"/>
+      <c r="I32" s="72"/>
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
@@ -7018,7 +7143,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29:I30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -7191,10 +7318,10 @@
         <v>43870</v>
       </c>
       <c r="C11" s="42" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D11" s="46" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E11" s="42"/>
       <c r="F11" s="42">
@@ -7230,10 +7357,10 @@
         <v>43870</v>
       </c>
       <c r="C13" s="42" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D13" s="46" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E13" s="42"/>
       <c r="F13" s="42">
@@ -7456,17 +7583,17 @@
       <c r="M27" s="5"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A28" s="66" t="s">
-        <v>116</v>
-      </c>
-      <c r="B28" s="67"/>
-      <c r="C28" s="67"/>
-      <c r="D28" s="67"/>
-      <c r="E28" s="67"/>
-      <c r="F28" s="67"/>
-      <c r="G28" s="67"/>
-      <c r="H28" s="67"/>
-      <c r="I28" s="68"/>
+      <c r="A28" s="70" t="s">
+        <v>114</v>
+      </c>
+      <c r="B28" s="71"/>
+      <c r="C28" s="71"/>
+      <c r="D28" s="71"/>
+      <c r="E28" s="71"/>
+      <c r="F28" s="71"/>
+      <c r="G28" s="71"/>
+      <c r="H28" s="71"/>
+      <c r="I28" s="72"/>
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
     </row>
@@ -7498,15 +7625,15 @@
       <c r="B30" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="C30" s="69" t="s">
-        <v>115</v>
-      </c>
-      <c r="D30" s="67"/>
-      <c r="E30" s="67"/>
-      <c r="F30" s="67"/>
-      <c r="G30" s="67"/>
-      <c r="H30" s="67"/>
-      <c r="I30" s="68"/>
+      <c r="C30" s="73" t="s">
+        <v>113</v>
+      </c>
+      <c r="D30" s="71"/>
+      <c r="E30" s="71"/>
+      <c r="F30" s="71"/>
+      <c r="G30" s="71"/>
+      <c r="H30" s="71"/>
+      <c r="I30" s="72"/>
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
@@ -7519,15 +7646,15 @@
       <c r="B31" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="C31" s="66" t="s">
+      <c r="C31" s="70" t="s">
         <v>62</v>
       </c>
-      <c r="D31" s="67"/>
-      <c r="E31" s="67"/>
-      <c r="F31" s="67"/>
-      <c r="G31" s="67"/>
-      <c r="H31" s="67"/>
-      <c r="I31" s="68"/>
+      <c r="D31" s="71"/>
+      <c r="E31" s="71"/>
+      <c r="F31" s="71"/>
+      <c r="G31" s="71"/>
+      <c r="H31" s="71"/>
+      <c r="I31" s="72"/>
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
     </row>
@@ -8206,13 +8333,18 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:P19"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="1" max="1" width="11.125" customWidth="1"/>
+    <col min="3" max="3" width="9" customWidth="1"/>
     <col min="4" max="4" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.15">
@@ -8241,7 +8373,7 @@
       </c>
       <c r="B2" s="25"/>
       <c r="C2" s="49" t="s">
-        <v>87</v>
+        <v>129</v>
       </c>
       <c r="D2" s="50"/>
       <c r="E2" s="50"/>
@@ -8258,50 +8390,46 @@
       <c r="P2" s="51"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="82" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" s="83"/>
+      <c r="C3" s="67" t="s">
+        <v>131</v>
+      </c>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="68"/>
+      <c r="O3" s="68"/>
+      <c r="P3" s="69"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A4" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="C4" s="55" t="s">
+        <v>133</v>
+      </c>
+      <c r="D4" s="56" t="s">
         <v>89</v>
       </c>
-      <c r="C3" s="55" t="s">
-        <v>90</v>
-      </c>
-      <c r="D3" s="56" t="s">
-        <v>91</v>
-      </c>
-      <c r="E3" s="56" t="s">
-        <v>128</v>
-      </c>
-      <c r="F3" s="56" t="s">
-        <v>129</v>
-      </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A4" s="12">
-        <v>1</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
+      <c r="E4" s="56" t="s">
+        <v>132</v>
+      </c>
+      <c r="F4" s="56" t="s">
+        <v>126</v>
+      </c>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
@@ -8315,19 +8443,21 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5" s="12">
-        <v>2</v>
-      </c>
-      <c r="B5" s="53" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" s="54" t="s">
-        <v>119</v>
+        <v>1</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>116</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
+        <v>90</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="F5" s="66"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
@@ -8341,18 +8471,20 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" s="53" t="s">
-        <v>121</v>
+        <v>56</v>
       </c>
       <c r="C6" s="54" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="E6" s="12"/>
+        <v>118</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>128</v>
+      </c>
       <c r="F6" s="12"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
@@ -8367,23 +8499,21 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" s="53" t="s">
-        <v>124</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>124</v>
+        <v>119</v>
+      </c>
+      <c r="C7" s="54" t="s">
+        <v>120</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>131</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="F7" s="12"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
@@ -8397,37 +8527,207 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" s="53" t="s">
-        <v>76</v>
+        <v>122</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
+        <v>123</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="12">
+        <v>5</v>
+      </c>
+      <c r="B9" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="F9" s="12"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A10" s="12">
         <v>6</v>
       </c>
-      <c r="B9" s="53" t="s">
+      <c r="B10" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="D9" s="12" t="s">
+      <c r="C10" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
+      <c r="D10" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="F10" s="12"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A11" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="16"/>
+    </row>
+    <row r="12" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="B12" s="73" t="s">
+        <v>136</v>
+      </c>
+      <c r="C12" s="71"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="71"/>
+      <c r="H12" s="72"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A13" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="16"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A14" s="53" t="s">
+        <v>122</v>
+      </c>
+      <c r="B14" s="73" t="s">
+        <v>140</v>
+      </c>
+      <c r="C14" s="71"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="71"/>
+      <c r="H14" s="72"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A15" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="73" t="s">
+        <v>137</v>
+      </c>
+      <c r="C15" s="71"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="71"/>
+      <c r="H15" s="72"/>
+    </row>
+    <row r="16" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="73" t="s">
+        <v>138</v>
+      </c>
+      <c r="C16" s="84"/>
+      <c r="D16" s="84"/>
+      <c r="E16" s="84"/>
+      <c r="F16" s="84"/>
+      <c r="G16" s="84"/>
+      <c r="H16" s="85"/>
+    </row>
+    <row r="17" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="53" t="s">
+        <v>119</v>
+      </c>
+      <c r="B17" s="73" t="s">
+        <v>139</v>
+      </c>
+      <c r="C17" s="84"/>
+      <c r="D17" s="84"/>
+      <c r="E17" s="84"/>
+      <c r="F17" s="84"/>
+      <c r="G17" s="84"/>
+      <c r="H17" s="85"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A18" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" s="73" t="s">
+        <v>141</v>
+      </c>
+      <c r="C18" s="71"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="71"/>
+      <c r="H18" s="72"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A19" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19" s="73" t="s">
+        <v>142</v>
+      </c>
+      <c r="C19" s="71"/>
+      <c r="D19" s="71"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="71"/>
+      <c r="H19" s="72"/>
     </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="B14:H14"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8438,7 +8738,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView topLeftCell="A47" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -8459,7 +8759,7 @@
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/design.xlsx
+++ b/design.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="6105" windowHeight="2055" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="6105" windowHeight="2055" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="menu" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="144">
   <si>
     <t>色識別アプリ</t>
     <rPh sb="0" eb="1">
@@ -429,19 +429,6 @@
   </si>
   <si>
     <t>テキスト</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>判定した座標情報を表示</t>
-    <rPh sb="4" eb="6">
-      <t>ザヒョウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ヒョウジ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -836,54 +823,6 @@
   </si>
   <si>
     <t>ボタン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>色を判定するボタン。
-押下すると結果表示画面に遷移します。
-画像内のランダムな位置の色を取得して結果を返します。</t>
-    <rPh sb="0" eb="1">
-      <t>イロ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ハンテイ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>オウカ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>センイ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>イチ</t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t>イロ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="51" eb="52">
-      <t>カエ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -937,28 +876,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">C:\upload\files\ダウンロード (1).png_20200216213206130.png
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>判定した位置</t>
-    <rPh sb="0" eb="2">
-      <t>ハンテイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>イチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>X : 41 Y : 35</t>
   </si>
   <si>
     <t>RGB値</t>
-  </si>
-  <si>
-    <t>R:2G:63B:152</t>
   </si>
   <si>
     <t>青</t>
@@ -968,65 +889,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>判定した画像のパスを表示</t>
-    <rPh sb="0" eb="2">
-      <t>ハンテイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>最も強い三原色の成分</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>判定したRGB値を表示</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>判定した色の中で最も強い三原色の成分を表示</t>
-    <rPh sb="4" eb="5">
-      <t>イロ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ナカ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>R:2G:63B:152</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">C:\upload\ ～
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DBから判定した日時、RGB値、判定した画像、判定した位置を取得し、表示</t>
-    <rPh sb="16" eb="18">
-      <t>ハンテイ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ハンテイ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>イチ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>ヒョウジ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1277,6 +1140,153 @@
     </rPh>
     <rPh sb="5" eb="7">
       <t>ザヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>色を判定するボタン。
+押下すると結果表示画面に遷移します。
+画像内のランダムな位置の色を取得して結果を返します。
+DBに判定した日時、RGB値、選択した画像、判定した位置を登録します。</t>
+    <rPh sb="0" eb="1">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R:2 G:63 B:152</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R:2 G:63 B:152</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>判定した画像のパスを表示します。</t>
+    <rPh sb="0" eb="2">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>判定した座標情報を表示します。</t>
+    <rPh sb="4" eb="6">
+      <t>ザヒョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>判定した色の中で最も強い三原色の成分を表示します。</t>
+    <rPh sb="4" eb="5">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>判定したRGB値を表示します。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DBから判定した日時、RGB値、判定した画像、判定した位置を取得し、表示します。</t>
+    <rPh sb="16" eb="18">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～.png</t>
+  </si>
+  <si>
+    <t>～.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">abc.png_20200216213206130.png
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>色を判定した位置</t>
+    <rPh sb="0" eb="1">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イチ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1551,7 +1561,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1808,6 +1818,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2128,7 +2141,7 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
-            <a:t>送信する</a:t>
+            <a:t>表示する</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
         </a:p>
@@ -2805,7 +2818,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>313035</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>59531</xdr:rowOff>
+      <xdr:rowOff>59532</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2817,7 +2830,7 @@
       <xdr:spPr>
         <a:xfrm flipV="1">
           <a:off x="166687" y="2135467"/>
-          <a:ext cx="146348" cy="138627"/>
+          <a:ext cx="146348" cy="138628"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3225,7 +3238,7 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
-            <a:t>送信する</a:t>
+            <a:t>表示する</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
         </a:p>
@@ -4043,8 +4056,8 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1047750</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>904876</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>59531</xdr:rowOff>
     </xdr:from>
@@ -4056,7 +4069,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1738313" y="1607344"/>
+          <a:off x="2678907" y="1607344"/>
           <a:ext cx="498342" cy="242374"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4100,10 +4113,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>11906</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1023938</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
+      <xdr:rowOff>59531</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="841064" cy="242374"/>
     <xdr:sp macro="" textlink="">
@@ -4113,7 +4126,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2631281" y="1595437"/>
+          <a:off x="1714501" y="1607344"/>
           <a:ext cx="841064" cy="242374"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4158,7 +4171,7 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>59530</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="900952" cy="242374"/>
+    <xdr:ext cx="1115113" cy="242374"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="9" name="テキスト ボックス 8"/>
@@ -4166,8 +4179,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4000501" y="1607343"/>
-          <a:ext cx="900952" cy="242374"/>
+          <a:off x="4119563" y="1607343"/>
+          <a:ext cx="1115113" cy="242374"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4196,7 +4209,7 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
-            <a:t>判定した</a:t>
+            <a:t>色を判定した</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
@@ -4219,7 +4232,7 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="900952" cy="242374"/>
+    <xdr:ext cx="1111458" cy="242374"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="10" name="テキスト ボックス 9"/>
@@ -4227,8 +4240,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4988719" y="1595438"/>
-          <a:ext cx="900952" cy="242374"/>
+          <a:off x="5107781" y="1595438"/>
+          <a:ext cx="1111458" cy="242374"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4257,7 +4270,7 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
-            <a:t>判定した</a:t>
+            <a:t>色を判定した</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
@@ -5154,19 +5167,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>214313</xdr:colOff>
+      <xdr:colOff>226218</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
+      <xdr:rowOff>130969</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>333374</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>25641</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPr id="7" name="図 6"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5179,8 +5192,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="214313" y="314324"/>
-          <a:ext cx="5748337" cy="3086100"/>
+          <a:off x="226218" y="297657"/>
+          <a:ext cx="6322219" cy="3061734"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5192,19 +5205,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>50007</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>464345</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>147829</xdr:rowOff>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>91737</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPr id="8" name="図 7"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5217,8 +5230,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1" y="3943350"/>
-          <a:ext cx="5950744" cy="2891029"/>
+          <a:off x="95250" y="3717132"/>
+          <a:ext cx="6096000" cy="2708730"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5230,19 +5243,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:colOff>404812</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>142877</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>440531</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>154555</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>166687</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>158789</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3"/>
+        <xdr:cNvPr id="9" name="図 8"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5255,8 +5268,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6172200" y="3943351"/>
-          <a:ext cx="5241131" cy="2897754"/>
+          <a:off x="6619875" y="3643315"/>
+          <a:ext cx="5286375" cy="2682912"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5268,19 +5281,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>130970</xdr:colOff>
+      <xdr:colOff>107157</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>35719</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>345282</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>35166</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>642937</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>133500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="図 4"/>
+        <xdr:cNvPr id="10" name="図 9"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5293,8 +5306,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="130970" y="7236619"/>
-          <a:ext cx="5700712" cy="3085547"/>
+          <a:off x="107157" y="7096125"/>
+          <a:ext cx="5369718" cy="2705250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5306,19 +5319,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:colOff>11908</xdr:colOff>
       <xdr:row>62</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>11906</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>369095</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:colOff>344986</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>107156</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="図 5"/>
+        <xdr:cNvPr id="11" name="図 10"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5331,8 +5344,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1" y="10629900"/>
-          <a:ext cx="5855494" cy="3109912"/>
+          <a:off x="11908" y="10346531"/>
+          <a:ext cx="5857578" cy="2428875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5609,7 +5622,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -5937,12 +5950,12 @@
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="77" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D21" s="78"/>
       <c r="E21" s="5"/>
       <c r="F21" s="77" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G21" s="78"/>
       <c r="H21" s="6"/>
@@ -6089,7 +6102,7 @@
         <v>33</v>
       </c>
       <c r="C30" s="73" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D30" s="71"/>
       <c r="E30" s="71"/>
@@ -6127,7 +6140,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -6269,23 +6284,23 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C9" s="5"/>
       <c r="F9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="3"/>
       <c r="F10" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G10" s="44"/>
       <c r="H10" s="2"/>
@@ -6299,14 +6314,14 @@
       <c r="F11" s="4"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I11" s="6"/>
     </row>
     <row r="12" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="39"/>
       <c r="B12" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C12" s="31"/>
       <c r="D12" s="6"/>
@@ -6317,13 +6332,13 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B13" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>93</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>94</v>
       </c>
       <c r="D13" s="6"/>
       <c r="F13" s="39"/>
@@ -6397,10 +6412,10 @@
       </c>
       <c r="G20" s="5"/>
       <c r="H20" s="11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I20" s="45" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J20" s="4"/>
     </row>
@@ -6444,7 +6459,7 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A25" s="70" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="B25" s="71"/>
       <c r="C25" s="71"/>
@@ -6477,10 +6492,10 @@
         <v>38</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C27" s="73" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D27" s="71"/>
       <c r="E27" s="71"/>
@@ -6496,10 +6511,10 @@
         <v>39</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C28" s="73" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D28" s="71"/>
       <c r="E28" s="71"/>
@@ -6510,7 +6525,7 @@
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
     </row>
-    <row r="29" spans="1:13" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:13" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="12" t="s">
         <v>37</v>
       </c>
@@ -6518,7 +6533,7 @@
         <v>40</v>
       </c>
       <c r="C29" s="73" t="s">
-        <v>97</v>
+        <v>132</v>
       </c>
       <c r="D29" s="71"/>
       <c r="E29" s="71"/>
@@ -6537,7 +6552,7 @@
         <v>33</v>
       </c>
       <c r="C30" s="70" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D30" s="71"/>
       <c r="E30" s="71"/>
@@ -6582,7 +6597,9 @@
   </sheetPr>
   <dimension ref="A1:S34"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -6656,7 +6673,7 @@
       <c r="D4" s="33"/>
       <c r="E4" s="33"/>
       <c r="F4" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G4" s="29">
         <v>1</v>
@@ -6723,7 +6740,7 @@
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
       <c r="B9" s="57" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C9" s="60"/>
       <c r="D9" s="60"/>
@@ -6735,10 +6752,10 @@
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
       <c r="B10" s="61" t="s">
-        <v>101</v>
+        <v>142</v>
       </c>
       <c r="C10" s="46"/>
       <c r="D10" s="46"/>
@@ -6767,7 +6784,7 @@
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
       <c r="B12" s="40" t="s">
-        <v>102</v>
+        <v>143</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -6783,7 +6800,7 @@
     <row r="13" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="40" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -6812,7 +6829,7 @@
     <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="40" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C15" s="41"/>
       <c r="D15" s="59"/>
@@ -6827,7 +6844,7 @@
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
       <c r="B16" s="63" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -6857,7 +6874,7 @@
     <row r="18" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
       <c r="B18" s="40" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -6873,7 +6890,7 @@
     <row r="19" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
       <c r="B19" s="4" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -7022,7 +7039,7 @@
         <v>50</v>
       </c>
       <c r="C28" s="79" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="D28" s="80"/>
       <c r="E28" s="80"/>
@@ -7037,13 +7054,13 @@
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A29" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B29" s="12" t="s">
         <v>50</v>
       </c>
       <c r="C29" s="70" t="s">
-        <v>51</v>
+        <v>136</v>
       </c>
       <c r="D29" s="71"/>
       <c r="E29" s="71"/>
@@ -7062,7 +7079,7 @@
         <v>42</v>
       </c>
       <c r="C30" s="70" t="s">
-        <v>110</v>
+        <v>137</v>
       </c>
       <c r="D30" s="71"/>
       <c r="E30" s="71"/>
@@ -7075,13 +7092,13 @@
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A31" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B31" s="12" t="s">
         <v>42</v>
       </c>
       <c r="C31" s="70" t="s">
-        <v>109</v>
+        <v>138</v>
       </c>
       <c r="D31" s="71"/>
       <c r="E31" s="71"/>
@@ -7094,13 +7111,13 @@
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A32" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B32" s="12" t="s">
         <v>9</v>
       </c>
       <c r="C32" s="70" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D32" s="71"/>
       <c r="E32" s="71"/>
@@ -7144,13 +7161,13 @@
   <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29:I30"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="14.25" customWidth="1"/>
-    <col min="3" max="3" width="11.125" customWidth="1"/>
+    <col min="3" max="3" width="12.625" customWidth="1"/>
     <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.75" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.75" customWidth="1"/>
@@ -7238,7 +7255,7 @@
         <v>25</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D5" s="33"/>
       <c r="E5" s="33"/>
@@ -7253,7 +7270,7 @@
         <v>27</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D6" s="33"/>
       <c r="E6" s="33"/>
@@ -7312,16 +7329,16 @@
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
       <c r="B11" s="40">
         <v>43870</v>
       </c>
-      <c r="C11" s="42" t="s">
-        <v>105</v>
-      </c>
-      <c r="D11" s="46" t="s">
-        <v>112</v>
+      <c r="C11" s="86" t="s">
+        <v>141</v>
+      </c>
+      <c r="D11" s="42" t="s">
+        <v>134</v>
       </c>
       <c r="E11" s="42"/>
       <c r="F11" s="42">
@@ -7340,8 +7357,8 @@
     <row r="12" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
       <c r="B12" s="40"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="42"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="41"/>
       <c r="E12" s="42"/>
       <c r="F12" s="42"/>
       <c r="G12" s="42"/>
@@ -7356,11 +7373,11 @@
       <c r="B13" s="40">
         <v>43870</v>
       </c>
-      <c r="C13" s="42" t="s">
-        <v>105</v>
-      </c>
-      <c r="D13" s="46" t="s">
-        <v>112</v>
+      <c r="C13" s="46" t="s">
+        <v>140</v>
+      </c>
+      <c r="D13" s="42" t="s">
+        <v>134</v>
       </c>
       <c r="E13" s="42"/>
       <c r="F13" s="42">
@@ -7395,7 +7412,7 @@
       <c r="A15" s="4"/>
       <c r="B15" s="40"/>
       <c r="C15" s="42" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D15" s="42"/>
       <c r="E15" s="42"/>
@@ -7456,7 +7473,6 @@
       <c r="B19" s="40"/>
       <c r="C19" s="41"/>
       <c r="D19" s="42"/>
-      <c r="E19" s="65"/>
       <c r="F19" s="42"/>
       <c r="G19" s="42"/>
       <c r="H19" s="43"/>
@@ -7471,7 +7487,6 @@
       <c r="B20" s="40"/>
       <c r="C20" s="41"/>
       <c r="D20" s="42"/>
-      <c r="E20" s="65"/>
       <c r="F20" s="42"/>
       <c r="G20" s="42"/>
       <c r="H20" s="43"/>
@@ -7486,7 +7501,6 @@
       <c r="B21" s="40"/>
       <c r="C21" s="41"/>
       <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
       <c r="F21" s="42"/>
       <c r="G21" s="42"/>
       <c r="H21" s="43"/>
@@ -7584,7 +7598,7 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A28" s="70" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="B28" s="71"/>
       <c r="C28" s="71"/>
@@ -7620,13 +7634,13 @@
     </row>
     <row r="30" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="12" t="s">
-        <v>59</v>
-      </c>
       <c r="C30" s="73" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="D30" s="71"/>
       <c r="E30" s="71"/>
@@ -7641,13 +7655,13 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A31" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="C31" s="70" t="s">
         <v>61</v>
-      </c>
-      <c r="C31" s="70" t="s">
-        <v>62</v>
       </c>
       <c r="D31" s="71"/>
       <c r="E31" s="71"/>
@@ -7682,7 +7696,7 @@
   <sheetData>
     <row r="1" spans="1:16" s="48" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
@@ -7782,7 +7796,7 @@
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
@@ -7856,7 +7870,7 @@
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
@@ -7924,14 +7938,14 @@
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
@@ -8163,13 +8177,13 @@
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
@@ -8335,7 +8349,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
@@ -8349,7 +8363,7 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A1" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
@@ -8369,11 +8383,11 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A2" s="52" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B2" s="25"/>
       <c r="C2" s="49" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="D2" s="50"/>
       <c r="E2" s="50"/>
@@ -8391,11 +8405,11 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3" s="82" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="B3" s="83"/>
       <c r="C3" s="67" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="D3" s="68"/>
       <c r="E3" s="68"/>
@@ -8413,22 +8427,22 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="52" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="C4" s="55" t="s">
+        <v>122</v>
+      </c>
+      <c r="D4" s="56" t="s">
         <v>88</v>
       </c>
-      <c r="C4" s="55" t="s">
-        <v>133</v>
-      </c>
-      <c r="D4" s="56" t="s">
-        <v>89</v>
-      </c>
       <c r="E4" s="56" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="F4" s="56" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
@@ -8446,16 +8460,16 @@
         <v>1</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="F5" s="66"/>
       <c r="G5" s="5"/>
@@ -8474,16 +8488,16 @@
         <v>2</v>
       </c>
       <c r="B6" s="53" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C6" s="54" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="E6" s="12" t="s">
         <v>117</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>128</v>
       </c>
       <c r="F6" s="12"/>
       <c r="G6" s="5"/>
@@ -8502,16 +8516,16 @@
         <v>3</v>
       </c>
       <c r="B7" s="53" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="C7" s="54" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="F7" s="12"/>
       <c r="G7" s="5"/>
@@ -8530,19 +8544,19 @@
         <v>4</v>
       </c>
       <c r="B8" s="53" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
@@ -8560,16 +8574,16 @@
         <v>5</v>
       </c>
       <c r="B9" s="53" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="F9" s="12"/>
     </row>
@@ -8578,22 +8592,22 @@
         <v>6</v>
       </c>
       <c r="B10" s="53" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="F10" s="12"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="13" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="B11" s="14" t="s">
         <v>8</v>
@@ -8607,10 +8621,10 @@
     </row>
     <row r="12" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="12" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="B12" s="73" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="C12" s="71"/>
       <c r="D12" s="71"/>
@@ -8621,7 +8635,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="13" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="B13" s="14" t="s">
         <v>8</v>
@@ -8635,10 +8649,10 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="53" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="B14" s="73" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="C14" s="71"/>
       <c r="D14" s="71"/>
@@ -8649,10 +8663,10 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B15" s="73" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="C15" s="71"/>
       <c r="D15" s="71"/>
@@ -8663,10 +8677,10 @@
     </row>
     <row r="16" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="53" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B16" s="73" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="C16" s="84"/>
       <c r="D16" s="84"/>
@@ -8677,10 +8691,10 @@
     </row>
     <row r="17" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="53" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="B17" s="73" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="C17" s="84"/>
       <c r="D17" s="84"/>
@@ -8691,10 +8705,10 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="53" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B18" s="73" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="C18" s="71"/>
       <c r="D18" s="71"/>
@@ -8705,10 +8719,10 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="53" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B19" s="73" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C19" s="71"/>
       <c r="D19" s="71"/>
@@ -8738,7 +8752,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A62"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -8759,7 +8773,7 @@
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/design.xlsx
+++ b/design.xlsx
@@ -20,6 +20,9 @@
     <sheet name="DB" sheetId="6" r:id="rId6"/>
     <sheet name="画面のスクリーンショット" sheetId="7" r:id="rId7"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">importPicture!$A$1:$I$45</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -30,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="140">
   <si>
     <t>色識別アプリ</t>
     <rPh sb="0" eb="1">
@@ -400,34 +403,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>結果画面です。判定した座標情報、色、RGB値を表示します。</t>
-    <rPh sb="0" eb="2">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ハンテイ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ザヒョウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>イロ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>チ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>テキスト</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -533,19 +508,6 @@
     <t>(画像選択済み)</t>
     <rPh sb="5" eb="6">
       <t>ズ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>画像入力画面へ</t>
-    <rPh sb="0" eb="2">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -591,16 +553,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>履歴画面へ</t>
-    <rPh sb="0" eb="2">
-      <t>リレキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>⑤</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -807,14 +759,6 @@
   </si>
   <si>
     <t>①</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">        ③</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">      ④</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -893,43 +837,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>履歴画面です。判定した日時、RGB値、選択した画像、判定した位置を一覧表示します。</t>
-    <rPh sb="0" eb="2">
-      <t>リレキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ハンテイ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ニチジ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>チ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ハンテイ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>イチ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>画像入力画面です。色を判定ボタンを押下すると、ランダムな位置の色を判定して表示します。</t>
     <rPh sb="4" eb="6">
       <t>ガメン</t>
@@ -1016,10 +923,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>db1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>テーブル名</t>
     <rPh sb="4" eb="5">
       <t>メイ</t>
@@ -1027,10 +930,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>history</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>NOT NULL</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1053,37 +952,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>判定日時、RGB値、判定画像のファイルパス、判定座標(X座標, Y座標)をほぞんするテーブルです。</t>
-    <rPh sb="0" eb="2">
-      <t>ハンテイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ニチジ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ハンテイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ハンテイ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ザヒョウ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ザヒョウ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ザヒョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>判定した日時です</t>
     <rPh sb="0" eb="2">
       <t>ハンテイ</t>
@@ -1113,33 +981,6 @@
     </rPh>
     <rPh sb="4" eb="6">
       <t>ガゾウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>レコードのIDです。主キーです。</t>
-    <rPh sb="10" eb="11">
-      <t>シュ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>判定したX座標です</t>
-    <rPh sb="0" eb="2">
-      <t>ハンテイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ザヒョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>判定したY座標です</t>
-    <rPh sb="0" eb="2">
-      <t>ハンテイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ザヒョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1204,19 +1045,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>判定した画像のパスを表示します。</t>
-    <rPh sb="0" eb="2">
-      <t>ハンテイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>判定した座標情報を表示します。</t>
     <rPh sb="4" eb="6">
       <t>ザヒョウ</t>
@@ -1247,25 +1075,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>DBから判定した日時、RGB値、判定した画像、判定した位置を取得し、表示します。</t>
-    <rPh sb="16" eb="18">
-      <t>ハンテイ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ハンテイ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>イチ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>～.png</t>
   </si>
   <si>
@@ -1287,6 +1096,185 @@
     </rPh>
     <rPh sb="6" eb="8">
       <t>イチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>history</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>result</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>判定日時、RGB値、判定画像のファイルパス、色を判定した座標(X座標, Y座標)を保存するテーブルです。</t>
+    <rPh sb="0" eb="2">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ザヒョウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ザヒョウ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ザヒョウ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>色を判定した画像の位置(X座標) です</t>
+    <rPh sb="0" eb="1">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ザヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レコードのIDです。主キーです</t>
+    <rPh sb="10" eb="11">
+      <t>シュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>色を判定した画像の位置(Y座標) です</t>
+    <rPh sb="0" eb="1">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ザヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>履歴画面です。判定した日時、選択した画像、RGB値、判定した位置を一覧表示します。</t>
+    <rPh sb="0" eb="2">
+      <t>リレキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DBから判定した日時、判定した画像、RGB値、判定した位置を取得し、表示します。</t>
+    <rPh sb="23" eb="25">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>判定した画像のファイル名を表示します。</t>
+    <rPh sb="0" eb="2">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>結果画面です。判定した画像のファイル名、判定した座標情報、判定した色の中で最も強い三原色の成分、
+RGB値を表示します。</t>
+    <rPh sb="0" eb="2">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ザヒョウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1298,7 +1286,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm;@"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1358,6 +1346,22 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="36"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="36"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -1561,7 +1565,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1697,9 +1701,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1772,6 +1773,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1784,20 +1800,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1813,15 +1829,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1844,16 +1851,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>226219</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>141287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>873125</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>22225</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>206375</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1861,9 +1868,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="889000" y="4264025"/>
-          <a:ext cx="669925" cy="377825"/>
+        <a:xfrm flipV="1">
+          <a:off x="1845469" y="3058318"/>
+          <a:ext cx="825500" cy="382588"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1895,15 +1902,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>281782</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>107157</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>650875</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>11906</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1911,9 +1918,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4016375" y="4248150"/>
-          <a:ext cx="511175" cy="342900"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4163220" y="3024188"/>
+          <a:ext cx="456405" cy="404812"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1992,6 +1999,232 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>154782</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="992579" cy="242374"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="テキスト ボックス 4"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2464594" y="2738438"/>
+          <a:ext cx="992579" cy="242374"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t>画像入力画面へ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>23810</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>11905</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>214311</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>71438</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="正方形/長方形 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2488404" y="2762249"/>
+          <a:ext cx="881063" cy="226220"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>488157</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>154782</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="761747" cy="242374"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="テキスト ボックス 9"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3643313" y="2738438"/>
+          <a:ext cx="761747" cy="242374"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t>履歴画面へ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>476252</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>11905</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>535782</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="正方形/長方形 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3631408" y="2762249"/>
+          <a:ext cx="785812" cy="226219"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1999,9 +2232,9 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>226217</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>67683</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1801859" cy="1087223"/>
@@ -2038,16 +2271,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>738188</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>107156</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>166687</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>726281</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>142873</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>271462</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>11906</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2056,8 +2289,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6298407" y="2988469"/>
-          <a:ext cx="797718" cy="202404"/>
+          <a:off x="4048125" y="4345782"/>
+          <a:ext cx="795337" cy="190499"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2151,10 +2384,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>583406</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>107156</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>130968</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="629660" cy="242374"/>
     <xdr:sp macro="" textlink="">
@@ -2164,7 +2397,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1273969" y="1881188"/>
+          <a:off x="3262312" y="1678781"/>
           <a:ext cx="629660" cy="242374"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2204,10 +2437,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>23812</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>83343</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="629660" cy="242374"/>
     <xdr:sp macro="" textlink="">
@@ -2217,7 +2450,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5584031" y="2964656"/>
+          <a:off x="3250406" y="4310062"/>
           <a:ext cx="629660" cy="242374"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2257,12 +2490,12 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>404813</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>154782</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>23812</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>130969</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="923651" cy="242374"/>
+    <xdr:ext cx="923651" cy="214312"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="32" name="テキスト ボックス 31"/>
@@ -2270,8 +2503,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2024063" y="1869282"/>
-          <a:ext cx="923651" cy="242374"/>
+          <a:off x="3905250" y="1678782"/>
+          <a:ext cx="923651" cy="214312"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2294,7 +2527,7 @@
       </xdr:style>
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
+          <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
@@ -2310,10 +2543,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>714376</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>83344</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>130969</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="923651" cy="242374"/>
     <xdr:sp macro="" textlink="">
@@ -2323,7 +2556,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6274595" y="2964657"/>
+          <a:off x="4012407" y="4310063"/>
           <a:ext cx="923651" cy="242374"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2423,16 +2656,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>559593</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>11907</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>11906</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>297656</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>71436</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2441,8 +2674,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1250156" y="1893094"/>
-          <a:ext cx="666750" cy="226217"/>
+          <a:off x="3202781" y="1726407"/>
+          <a:ext cx="666750" cy="166687"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2483,16 +2716,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>476249</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>11905</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>83342</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>154781</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>440531</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>59529</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>202406</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2501,8 +2734,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2095499" y="1893093"/>
-          <a:ext cx="809626" cy="214311"/>
+          <a:off x="3964780" y="1702594"/>
+          <a:ext cx="809626" cy="178594"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2543,16 +2776,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>976313</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>107156</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>59532</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>726282</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>59531</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>11907</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2561,8 +2794,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5548313" y="2988469"/>
-          <a:ext cx="738188" cy="202406"/>
+          <a:off x="3214688" y="4345782"/>
+          <a:ext cx="726281" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2603,16 +2836,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>130968</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>159030</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>28061</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>338642</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>35718</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>410080</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>11906</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2623,8 +2856,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5691187" y="3207030"/>
-          <a:ext cx="207674" cy="210063"/>
+          <a:off x="3298031" y="4552436"/>
+          <a:ext cx="267205" cy="388658"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2655,15 +2888,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>130967</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>321469</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>11906</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2707,15 +2940,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>11907</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>11906</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>83343</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2757,28 +2990,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>142874</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>159031</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>178593</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>39970</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>366577</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>521358</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>35718</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="50" name="直線矢印コネクタ 49"/>
-        <xdr:cNvCxnSpPr>
-          <a:endCxn id="33" idx="2"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6512718" y="3207031"/>
-          <a:ext cx="223703" cy="198156"/>
+          <a:off x="4060031" y="4564345"/>
+          <a:ext cx="342765" cy="400561"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2861,16 +3092,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>75687</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>39967</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>898236</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>23811</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>421986</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>11906</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2881,8 +3112,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="1214438" y="2123562"/>
-          <a:ext cx="374361" cy="114812"/>
+          <a:off x="3298031" y="1921155"/>
+          <a:ext cx="279111" cy="138626"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2913,16 +3144,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>63781</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>178593</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>11906</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>21295</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>11905</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>485638</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2933,8 +3164,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2047875" y="2111656"/>
-          <a:ext cx="438014" cy="114812"/>
+          <a:off x="4060031" y="1893094"/>
+          <a:ext cx="307045" cy="178594"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3075,15 +3306,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>285751</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>226219</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>11905</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3135,15 +3366,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>23813</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>154781</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>23812</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3195,9 +3426,9 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="626069" cy="242374"/>
@@ -3470,16 +3701,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>513557</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>311151</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>416719</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>214313</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>115095</xdr:rowOff>
+      <xdr:rowOff>67470</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3488,7 +3719,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4394995" y="1785937"/>
+          <a:off x="2775745" y="1738312"/>
           <a:ext cx="593724" cy="43658"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3771,16 +4002,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>369093</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>178593</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>107156</xdr:rowOff>
+      <xdr:rowOff>11906</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>654843</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>35720</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>464343</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>107158</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3789,7 +4020,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4941093" y="1654969"/>
+          <a:off x="3333749" y="1559719"/>
           <a:ext cx="285750" cy="261939"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3893,16 +4124,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1000124</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>535781</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>59531</xdr:rowOff>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>297656</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>154780</xdr:rowOff>
+      <xdr:colOff>916781</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>23811</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3911,8 +4142,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="1690687" y="2809875"/>
-          <a:ext cx="381000" cy="261936"/>
+          <a:off x="2309812" y="2905124"/>
+          <a:ext cx="381000" cy="261937"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3943,16 +4174,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>976311</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>785813</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:rowOff>178594</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>214311</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>416719</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>11906</xdr:rowOff>
+      <xdr:rowOff>23813</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3961,8 +4192,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1666874" y="2559843"/>
-          <a:ext cx="1166812" cy="202407"/>
+          <a:off x="2559844" y="2631282"/>
+          <a:ext cx="1285875" cy="202406"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4167,11 +4398,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>690563</xdr:colOff>
+      <xdr:colOff>619125</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>59530</xdr:rowOff>
+      <xdr:rowOff>83342</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1115113" cy="242374"/>
+    <xdr:ext cx="1788310" cy="242374"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="9" name="テキスト ボックス 8"/>
@@ -4179,8 +4410,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4119563" y="1607343"/>
-          <a:ext cx="1115113" cy="242374"/>
+          <a:off x="4048125" y="1631155"/>
+          <a:ext cx="1788310" cy="242374"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4209,17 +4440,20 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
-            <a:t>色を判定した</a:t>
+            <a:t>色を判定した画像の位置</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
-            <a:t>X</a:t>
+            <a:t>(X</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
             <a:t>座標</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+            <a:t>) </a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4228,11 +4462,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
+      <xdr:colOff>1607345</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>71437</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1111458" cy="242374"/>
+    <xdr:ext cx="1784656" cy="242374"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="10" name="テキスト ボックス 9"/>
@@ -4240,8 +4474,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5107781" y="1595438"/>
-          <a:ext cx="1111458" cy="242374"/>
+          <a:off x="5762626" y="1619250"/>
+          <a:ext cx="1784656" cy="242374"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4270,17 +4504,20 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
-            <a:t>色を判定した</a:t>
+            <a:t>色を判定した画像の位置</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
-            <a:t>Y</a:t>
+            <a:t>(Y</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
             <a:t>座標</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+            <a:t>) </a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4288,16 +4525,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>785812</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>250032</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
+      <xdr:rowOff>154782</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1071562</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>535782</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>23814</xdr:rowOff>
+      <xdr:rowOff>83345</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4306,7 +4543,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1476375" y="3012282"/>
+          <a:off x="2024063" y="3131345"/>
           <a:ext cx="285750" cy="261938"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5319,19 +5556,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>11908</xdr:colOff>
+      <xdr:colOff>59532</xdr:colOff>
       <xdr:row>62</xdr:row>
-      <xdr:rowOff>11906</xdr:rowOff>
+      <xdr:rowOff>35720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>344986</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>107156</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>130969</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>94496</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="図 10"/>
+        <xdr:cNvPr id="2" name="図 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5344,8 +5581,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11908" y="10346531"/>
-          <a:ext cx="5857578" cy="2428875"/>
+          <a:off x="59532" y="10370345"/>
+          <a:ext cx="6977062" cy="2225714"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5622,7 +5859,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -5790,17 +6029,17 @@
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
     </row>
-    <row r="11" spans="1:13" ht="30.75" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="42" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
-      <c r="B11" s="74" t="s">
+      <c r="B11" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="75"/>
-      <c r="D11" s="75"/>
-      <c r="E11" s="75"/>
-      <c r="F11" s="75"/>
-      <c r="G11" s="75"/>
-      <c r="H11" s="76"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="79"/>
+      <c r="H11" s="80"/>
       <c r="I11" s="37"/>
       <c r="J11" s="31"/>
       <c r="K11" s="31"/>
@@ -5826,8 +6065,8 @@
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="73"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="6"/>
@@ -5899,16 +6138,14 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A18" s="38"/>
-      <c r="B18" s="11" t="s">
+      <c r="C18" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
-      <c r="F18" s="11" t="s">
+      <c r="G18" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="G18" s="5"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
       <c r="J18" s="5"/>
@@ -5949,15 +6186,9 @@
     <row r="21" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
-      <c r="C21" s="77" t="s">
-        <v>67</v>
-      </c>
-      <c r="D21" s="78"/>
       <c r="E21" s="5"/>
-      <c r="F21" s="77" t="s">
-        <v>69</v>
-      </c>
-      <c r="G21" s="78"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="73"/>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
       <c r="J21" s="5"/>
@@ -6021,17 +6252,17 @@
       <c r="M25" s="5"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A26" s="70" t="s">
+      <c r="A26" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="B26" s="71"/>
-      <c r="C26" s="71"/>
-      <c r="D26" s="71"/>
-      <c r="E26" s="71"/>
-      <c r="F26" s="71"/>
-      <c r="G26" s="71"/>
-      <c r="H26" s="71"/>
-      <c r="I26" s="72"/>
+      <c r="B26" s="75"/>
+      <c r="C26" s="75"/>
+      <c r="D26" s="75"/>
+      <c r="E26" s="75"/>
+      <c r="F26" s="75"/>
+      <c r="G26" s="75"/>
+      <c r="H26" s="75"/>
+      <c r="I26" s="76"/>
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
     </row>
@@ -6061,15 +6292,15 @@
       <c r="B28" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="70" t="s">
+      <c r="C28" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="D28" s="71"/>
-      <c r="E28" s="71"/>
-      <c r="F28" s="71"/>
-      <c r="G28" s="71"/>
-      <c r="H28" s="71"/>
-      <c r="I28" s="72"/>
+      <c r="D28" s="75"/>
+      <c r="E28" s="75"/>
+      <c r="F28" s="75"/>
+      <c r="G28" s="75"/>
+      <c r="H28" s="75"/>
+      <c r="I28" s="76"/>
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
     </row>
@@ -6080,15 +6311,15 @@
       <c r="B29" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="70" t="s">
+      <c r="C29" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="D29" s="71"/>
-      <c r="E29" s="71"/>
-      <c r="F29" s="71"/>
-      <c r="G29" s="71"/>
-      <c r="H29" s="71"/>
-      <c r="I29" s="72"/>
+      <c r="D29" s="75"/>
+      <c r="E29" s="75"/>
+      <c r="F29" s="75"/>
+      <c r="G29" s="75"/>
+      <c r="H29" s="75"/>
+      <c r="I29" s="76"/>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
@@ -6101,15 +6332,15 @@
       <c r="B30" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="73" t="s">
-        <v>83</v>
-      </c>
-      <c r="D30" s="71"/>
-      <c r="E30" s="71"/>
-      <c r="F30" s="71"/>
-      <c r="G30" s="71"/>
-      <c r="H30" s="71"/>
-      <c r="I30" s="72"/>
+      <c r="C30" s="77" t="s">
+        <v>80</v>
+      </c>
+      <c r="D30" s="75"/>
+      <c r="E30" s="75"/>
+      <c r="F30" s="75"/>
+      <c r="G30" s="75"/>
+      <c r="H30" s="75"/>
+      <c r="I30" s="76"/>
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
@@ -6120,14 +6351,12 @@
       <c r="K31" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="5">
     <mergeCell ref="C29:I29"/>
     <mergeCell ref="C30:I30"/>
     <mergeCell ref="B11:H11"/>
     <mergeCell ref="C28:I28"/>
     <mergeCell ref="A26:I26"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="F21:G21"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6138,11 +6367,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M32"/>
+  <dimension ref="A1:M47"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
-    </sheetView>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -6284,308 +6511,472 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C9" s="5"/>
-      <c r="F9" t="s">
-        <v>66</v>
-      </c>
       <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
-      <c r="D10" s="3"/>
-      <c r="F10" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G10" s="44"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="3"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="3"/>
+      <c r="I10" s="6"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5" t="s">
-        <v>98</v>
-      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="6"/>
       <c r="I11" s="6"/>
     </row>
     <row r="12" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="39"/>
       <c r="B12" s="11" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C12" s="31"/>
-      <c r="D12" s="6"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="31"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="G12" s="6"/>
       <c r="I12" s="6"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
+        <v>63</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="6"/>
       <c r="I13" s="6"/>
     </row>
     <row r="14" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="6"/>
       <c r="I14" s="6"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="6"/>
       <c r="I15" s="6"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="6"/>
       <c r="I16" s="6"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="6"/>
       <c r="I17" s="6"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
-      <c r="D18" s="6"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="6"/>
       <c r="I18" s="6"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="D19" s="6"/>
-      <c r="E19" s="38"/>
-      <c r="H19" s="5"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A20" s="5"/>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A19" s="4"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="6"/>
+      <c r="I19" s="6"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A20" s="4"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="G20" s="5"/>
-      <c r="H20" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="I20" s="45" t="s">
-        <v>63</v>
-      </c>
-      <c r="J20" s="4"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="5"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
-      <c r="D21" s="6"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="6"/>
       <c r="I21" s="6"/>
     </row>
-    <row r="22" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="7"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="9"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="9"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A23" s="4"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="9"/>
+      <c r="I22" s="6"/>
+    </row>
+    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
       <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
       <c r="I23" s="6"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A24" s="14" t="s">
+    <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>65</v>
+      </c>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="6"/>
+    </row>
+    <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B25" s="44"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="6"/>
+    </row>
+    <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="4"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="6"/>
+    </row>
+    <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="4"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="6"/>
+    </row>
+    <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="39"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="G28" s="6"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="6"/>
+    </row>
+    <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="4"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="6"/>
+    </row>
+    <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="4"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="6"/>
+    </row>
+    <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="4"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="6"/>
+    </row>
+    <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="4"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="6"/>
+    </row>
+    <row r="33" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="4"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="6"/>
+    </row>
+    <row r="34" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="4"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="6"/>
+    </row>
+    <row r="35" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="6"/>
+    </row>
+    <row r="36" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="4"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="6"/>
+    </row>
+    <row r="37" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="7"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="6"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A38" s="4"/>
+      <c r="C38" s="5"/>
+      <c r="I38" s="6"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A39" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="16"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A25" s="70" t="s">
-        <v>104</v>
-      </c>
-      <c r="B25" s="71"/>
-      <c r="C25" s="71"/>
-      <c r="D25" s="71"/>
-      <c r="E25" s="71"/>
-      <c r="F25" s="71"/>
-      <c r="G25" s="71"/>
-      <c r="H25" s="71"/>
-      <c r="I25" s="72"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A26" s="13" t="s">
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="16"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A40" s="74" t="s">
+        <v>98</v>
+      </c>
+      <c r="B40" s="75"/>
+      <c r="C40" s="75"/>
+      <c r="D40" s="75"/>
+      <c r="E40" s="75"/>
+      <c r="F40" s="75"/>
+      <c r="G40" s="75"/>
+      <c r="H40" s="75"/>
+      <c r="I40" s="76"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A41" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B41" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C41" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="16"/>
-    </row>
-    <row r="27" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="12" t="s">
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="16"/>
+    </row>
+    <row r="42" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="C27" s="73" t="s">
-        <v>68</v>
-      </c>
-      <c r="D27" s="71"/>
-      <c r="E27" s="71"/>
-      <c r="F27" s="71"/>
-      <c r="G27" s="71"/>
-      <c r="H27" s="71"/>
-      <c r="I27" s="72"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-    </row>
-    <row r="28" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="12" t="s">
+      <c r="B42" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C42" s="77" t="s">
+        <v>66</v>
+      </c>
+      <c r="D42" s="81"/>
+      <c r="E42" s="81"/>
+      <c r="F42" s="81"/>
+      <c r="G42" s="81"/>
+      <c r="H42" s="81"/>
+      <c r="I42" s="82"/>
+      <c r="L42" s="5"/>
+      <c r="M42" s="5"/>
+    </row>
+    <row r="43" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="C28" s="73" t="s">
-        <v>96</v>
-      </c>
-      <c r="D28" s="71"/>
-      <c r="E28" s="71"/>
-      <c r="F28" s="71"/>
-      <c r="G28" s="71"/>
-      <c r="H28" s="71"/>
-      <c r="I28" s="72"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-    </row>
-    <row r="29" spans="1:13" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="12" t="s">
+      <c r="B43" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C43" s="77" t="s">
+        <v>91</v>
+      </c>
+      <c r="D43" s="81"/>
+      <c r="E43" s="81"/>
+      <c r="F43" s="81"/>
+      <c r="G43" s="81"/>
+      <c r="H43" s="81"/>
+      <c r="I43" s="82"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="5"/>
+    </row>
+    <row r="44" spans="1:13" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B44" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C29" s="73" t="s">
-        <v>132</v>
-      </c>
-      <c r="D29" s="71"/>
-      <c r="E29" s="71"/>
-      <c r="F29" s="71"/>
-      <c r="G29" s="71"/>
-      <c r="H29" s="71"/>
-      <c r="I29" s="72"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A30" s="12" t="s">
+      <c r="C44" s="77" t="s">
+        <v>120</v>
+      </c>
+      <c r="D44" s="81"/>
+      <c r="E44" s="81"/>
+      <c r="F44" s="81"/>
+      <c r="G44" s="81"/>
+      <c r="H44" s="81"/>
+      <c r="I44" s="82"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="5"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A45" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B45" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="70" t="s">
-        <v>62</v>
-      </c>
-      <c r="D30" s="71"/>
-      <c r="E30" s="71"/>
-      <c r="F30" s="71"/>
-      <c r="G30" s="71"/>
-      <c r="H30" s="71"/>
-      <c r="I30" s="72"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
+      <c r="C45" s="74" t="s">
+        <v>61</v>
+      </c>
+      <c r="D45" s="75"/>
+      <c r="E45" s="75"/>
+      <c r="F45" s="75"/>
+      <c r="G45" s="75"/>
+      <c r="H45" s="75"/>
+      <c r="I45" s="76"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="5"/>
+      <c r="M45" s="5"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="J46" s="5"/>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5"/>
+      <c r="M46" s="5"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="J47" s="5"/>
+      <c r="K47" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A25:I25"/>
-    <mergeCell ref="C29:I29"/>
-    <mergeCell ref="C30:I30"/>
-    <mergeCell ref="C27:I27"/>
-    <mergeCell ref="C28:I28"/>
+    <mergeCell ref="C43:I43"/>
+    <mergeCell ref="C42:I42"/>
+    <mergeCell ref="C45:I45"/>
+    <mergeCell ref="C44:I44"/>
+    <mergeCell ref="A40:I40"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="95" orientation="portrait" r:id="rId1"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="9" max="1048575" man="1"/>
+  </colBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -6597,9 +6988,7 @@
   </sheetPr>
   <dimension ref="A1:S34"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
-    </sheetView>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -6673,7 +7062,7 @@
       <c r="D4" s="33"/>
       <c r="E4" s="33"/>
       <c r="F4" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G4" s="29">
         <v>1</v>
@@ -6739,30 +7128,30 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
-      <c r="B9" s="57" t="s">
-        <v>73</v>
-      </c>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="58"/>
+      <c r="B9" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="57"/>
       <c r="I9" s="6"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
     </row>
     <row r="10" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
-      <c r="B10" s="61" t="s">
-        <v>142</v>
-      </c>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="62"/>
+      <c r="B10" s="60" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="61"/>
       <c r="I10" s="6"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
@@ -6779,12 +7168,12 @@
       <c r="I11" s="6"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
-      <c r="L11" s="46"/>
+      <c r="L11" s="45"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
       <c r="B12" s="40" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -6800,7 +7189,7 @@
     <row r="13" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="40" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -6829,11 +7218,11 @@
     <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="40" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C15" s="41"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="59"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="58"/>
       <c r="G15" s="42"/>
       <c r="H15" s="43"/>
       <c r="I15" s="6"/>
@@ -6843,8 +7232,8 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
-      <c r="B16" s="63" t="s">
-        <v>101</v>
+      <c r="B16" s="62" t="s">
+        <v>96</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -6874,7 +7263,7 @@
     <row r="18" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
       <c r="B18" s="40" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -6890,7 +7279,7 @@
     <row r="19" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
       <c r="B19" s="4" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -6925,7 +7314,7 @@
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A21" s="4"/>
-      <c r="B21" s="64" t="s">
+      <c r="B21" s="63" t="s">
         <v>48</v>
       </c>
       <c r="C21" s="42"/>
@@ -6993,18 +7382,18 @@
       <c r="L25" s="5"/>
       <c r="M25" s="5"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A26" s="70" t="s">
-        <v>49</v>
-      </c>
-      <c r="B26" s="71"/>
-      <c r="C26" s="71"/>
-      <c r="D26" s="71"/>
-      <c r="E26" s="71"/>
-      <c r="F26" s="71"/>
-      <c r="G26" s="71"/>
-      <c r="H26" s="71"/>
-      <c r="I26" s="72"/>
+    <row r="26" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="77" t="s">
+        <v>139</v>
+      </c>
+      <c r="B26" s="75"/>
+      <c r="C26" s="75"/>
+      <c r="D26" s="75"/>
+      <c r="E26" s="75"/>
+      <c r="F26" s="75"/>
+      <c r="G26" s="75"/>
+      <c r="H26" s="75"/>
+      <c r="I26" s="76"/>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
@@ -7036,17 +7425,17 @@
         <v>46</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C28" s="79" t="s">
-        <v>135</v>
-      </c>
-      <c r="D28" s="80"/>
-      <c r="E28" s="80"/>
-      <c r="F28" s="80"/>
-      <c r="G28" s="80"/>
-      <c r="H28" s="80"/>
-      <c r="I28" s="81"/>
+        <v>49</v>
+      </c>
+      <c r="C28" s="83" t="s">
+        <v>138</v>
+      </c>
+      <c r="D28" s="84"/>
+      <c r="E28" s="84"/>
+      <c r="F28" s="84"/>
+      <c r="G28" s="84"/>
+      <c r="H28" s="84"/>
+      <c r="I28" s="85"/>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
@@ -7054,20 +7443,20 @@
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A29" s="12" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C29" s="70" t="s">
-        <v>136</v>
-      </c>
-      <c r="D29" s="71"/>
-      <c r="E29" s="71"/>
-      <c r="F29" s="71"/>
-      <c r="G29" s="71"/>
-      <c r="H29" s="71"/>
-      <c r="I29" s="72"/>
+        <v>49</v>
+      </c>
+      <c r="C29" s="74" t="s">
+        <v>123</v>
+      </c>
+      <c r="D29" s="75"/>
+      <c r="E29" s="75"/>
+      <c r="F29" s="75"/>
+      <c r="G29" s="75"/>
+      <c r="H29" s="75"/>
+      <c r="I29" s="76"/>
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
     </row>
@@ -7078,53 +7467,53 @@
       <c r="B30" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="70" t="s">
-        <v>137</v>
-      </c>
-      <c r="D30" s="71"/>
-      <c r="E30" s="71"/>
-      <c r="F30" s="71"/>
-      <c r="G30" s="71"/>
-      <c r="H30" s="71"/>
-      <c r="I30" s="72"/>
+      <c r="C30" s="74" t="s">
+        <v>124</v>
+      </c>
+      <c r="D30" s="75"/>
+      <c r="E30" s="75"/>
+      <c r="F30" s="75"/>
+      <c r="G30" s="75"/>
+      <c r="H30" s="75"/>
+      <c r="I30" s="76"/>
       <c r="L30" s="5"/>
       <c r="M30" s="5"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A31" s="12" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B31" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="70" t="s">
-        <v>138</v>
-      </c>
-      <c r="D31" s="71"/>
-      <c r="E31" s="71"/>
-      <c r="F31" s="71"/>
-      <c r="G31" s="71"/>
-      <c r="H31" s="71"/>
-      <c r="I31" s="72"/>
+      <c r="C31" s="74" t="s">
+        <v>125</v>
+      </c>
+      <c r="D31" s="75"/>
+      <c r="E31" s="75"/>
+      <c r="F31" s="75"/>
+      <c r="G31" s="75"/>
+      <c r="H31" s="75"/>
+      <c r="I31" s="76"/>
       <c r="L31" s="5"/>
       <c r="M31" s="5"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A32" s="12" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B32" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="70" t="s">
-        <v>51</v>
-      </c>
-      <c r="D32" s="71"/>
-      <c r="E32" s="71"/>
-      <c r="F32" s="71"/>
-      <c r="G32" s="71"/>
-      <c r="H32" s="71"/>
-      <c r="I32" s="72"/>
+      <c r="C32" s="74" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" s="75"/>
+      <c r="E32" s="75"/>
+      <c r="F32" s="75"/>
+      <c r="G32" s="75"/>
+      <c r="H32" s="75"/>
+      <c r="I32" s="76"/>
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
@@ -7160,17 +7549,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
-    </sheetView>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="14.25" customWidth="1"/>
     <col min="3" max="3" width="12.625" customWidth="1"/>
     <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.75" customWidth="1"/>
+    <col min="6" max="6" width="22" customWidth="1"/>
+    <col min="7" max="7" width="15.625" customWidth="1"/>
     <col min="8" max="8" width="9" customWidth="1"/>
     <col min="9" max="9" width="9.125" customWidth="1"/>
   </cols>
@@ -7206,7 +7593,7 @@
       <c r="G2" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="47"/>
+      <c r="H2" s="46"/>
       <c r="I2" s="34"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.15">
@@ -7255,7 +7642,7 @@
         <v>25</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D5" s="33"/>
       <c r="E5" s="33"/>
@@ -7270,7 +7657,7 @@
         <v>27</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D6" s="33"/>
       <c r="E6" s="33"/>
@@ -7305,46 +7692,46 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
-      <c r="B9" s="57"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="58"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="57"/>
       <c r="I9" s="6"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10" s="39"/>
-      <c r="B10" s="61"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="62"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="61"/>
       <c r="I10" s="6"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
     </row>
     <row r="11" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
-      <c r="B11" s="40">
+      <c r="B11" s="70">
         <v>43870</v>
       </c>
-      <c r="C11" s="86" t="s">
-        <v>141</v>
+      <c r="C11" s="69" t="s">
+        <v>127</v>
       </c>
       <c r="D11" s="42" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="E11" s="42"/>
-      <c r="F11" s="42">
+      <c r="F11" s="71">
         <v>38</v>
       </c>
-      <c r="G11" s="42">
+      <c r="G11" s="71">
         <v>120</v>
       </c>
       <c r="H11" s="43"/>
@@ -7370,20 +7757,20 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
-      <c r="B13" s="40">
+      <c r="B13" s="70">
         <v>43870</v>
       </c>
-      <c r="C13" s="46" t="s">
-        <v>140</v>
+      <c r="C13" s="45" t="s">
+        <v>126</v>
       </c>
       <c r="D13" s="42" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="E13" s="42"/>
-      <c r="F13" s="42">
+      <c r="F13" s="71">
         <v>25</v>
       </c>
-      <c r="G13" s="42">
+      <c r="G13" s="71">
         <v>24</v>
       </c>
       <c r="H13" s="43"/>
@@ -7411,10 +7798,9 @@
     <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="40"/>
-      <c r="C15" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15" s="42"/>
+      <c r="D15" s="42" t="s">
+        <v>55</v>
+      </c>
       <c r="E15" s="42"/>
       <c r="F15" s="42"/>
       <c r="G15" s="42"/>
@@ -7443,7 +7829,7 @@
       <c r="A17" s="4"/>
       <c r="B17" s="40"/>
       <c r="C17" s="41"/>
-      <c r="E17" s="65"/>
+      <c r="E17" s="64"/>
       <c r="F17" s="42"/>
       <c r="G17" s="42"/>
       <c r="H17" s="43"/>
@@ -7458,7 +7844,7 @@
       <c r="B18" s="40"/>
       <c r="C18" s="41"/>
       <c r="D18" s="42"/>
-      <c r="E18" s="65"/>
+      <c r="E18" s="64"/>
       <c r="F18" s="42"/>
       <c r="G18" s="42"/>
       <c r="H18" s="43"/>
@@ -7597,17 +7983,17 @@
       <c r="M27" s="5"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A28" s="70" t="s">
-        <v>103</v>
-      </c>
-      <c r="B28" s="71"/>
-      <c r="C28" s="71"/>
-      <c r="D28" s="71"/>
-      <c r="E28" s="71"/>
-      <c r="F28" s="71"/>
-      <c r="G28" s="71"/>
-      <c r="H28" s="71"/>
-      <c r="I28" s="72"/>
+      <c r="A28" s="74" t="s">
+        <v>136</v>
+      </c>
+      <c r="B28" s="75"/>
+      <c r="C28" s="75"/>
+      <c r="D28" s="75"/>
+      <c r="E28" s="75"/>
+      <c r="F28" s="75"/>
+      <c r="G28" s="75"/>
+      <c r="H28" s="75"/>
+      <c r="I28" s="76"/>
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
     </row>
@@ -7634,20 +8020,20 @@
     </row>
     <row r="30" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="B30" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C30" s="73" t="s">
-        <v>139</v>
-      </c>
-      <c r="D30" s="71"/>
-      <c r="E30" s="71"/>
-      <c r="F30" s="71"/>
-      <c r="G30" s="71"/>
-      <c r="H30" s="71"/>
-      <c r="I30" s="72"/>
+      <c r="C30" s="77" t="s">
+        <v>137</v>
+      </c>
+      <c r="D30" s="75"/>
+      <c r="E30" s="75"/>
+      <c r="F30" s="75"/>
+      <c r="G30" s="75"/>
+      <c r="H30" s="75"/>
+      <c r="I30" s="76"/>
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
@@ -7655,20 +8041,20 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A31" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="C31" s="74" t="s">
         <v>60</v>
       </c>
-      <c r="C31" s="70" t="s">
-        <v>61</v>
-      </c>
-      <c r="D31" s="71"/>
-      <c r="E31" s="71"/>
-      <c r="F31" s="71"/>
-      <c r="G31" s="71"/>
-      <c r="H31" s="71"/>
-      <c r="I31" s="72"/>
+      <c r="D31" s="75"/>
+      <c r="E31" s="75"/>
+      <c r="F31" s="75"/>
+      <c r="G31" s="75"/>
+      <c r="H31" s="75"/>
+      <c r="I31" s="76"/>
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
     </row>
@@ -7694,9 +8080,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:16" s="48" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
@@ -7796,7 +8182,7 @@
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
@@ -7870,7 +8256,7 @@
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
@@ -7938,14 +8324,14 @@
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
@@ -8177,13 +8563,13 @@
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
@@ -8350,7 +8736,7 @@
   <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8363,7 +8749,7 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A1" s="20" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
@@ -8382,67 +8768,67 @@
       <c r="P1" s="22"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="25"/>
+      <c r="C2" s="48" t="s">
+        <v>131</v>
+      </c>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="50"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A3" s="86" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" s="87"/>
+      <c r="C3" s="66" t="s">
+        <v>130</v>
+      </c>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="67"/>
+      <c r="O3" s="67"/>
+      <c r="P3" s="68"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A4" s="51" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="54" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="49" t="s">
-        <v>118</v>
-      </c>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="50"/>
-      <c r="O2" s="50"/>
-      <c r="P2" s="51"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A3" s="82" t="s">
-        <v>119</v>
-      </c>
-      <c r="B3" s="83"/>
-      <c r="C3" s="67" t="s">
-        <v>120</v>
-      </c>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="68"/>
-      <c r="M3" s="68"/>
-      <c r="N3" s="68"/>
-      <c r="O3" s="68"/>
-      <c r="P3" s="69"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A4" s="52" t="s">
-        <v>86</v>
-      </c>
-      <c r="B4" s="52" t="s">
-        <v>87</v>
-      </c>
-      <c r="C4" s="55" t="s">
-        <v>122</v>
-      </c>
-      <c r="D4" s="56" t="s">
-        <v>88</v>
-      </c>
-      <c r="E4" s="56" t="s">
-        <v>121</v>
-      </c>
-      <c r="F4" s="56" t="s">
-        <v>115</v>
+      <c r="E4" s="55" t="s">
+        <v>113</v>
+      </c>
+      <c r="F4" s="55" t="s">
+        <v>109</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
@@ -8459,19 +8845,21 @@
       <c r="A5" s="12">
         <v>1</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>54</v>
+      <c r="B5" s="52" t="s">
+        <v>105</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>105</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="F5" s="66"/>
+        <v>111</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>111</v>
+      </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
@@ -8487,19 +8875,19 @@
       <c r="A6" s="12">
         <v>2</v>
       </c>
-      <c r="B6" s="53" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6" s="54" t="s">
-        <v>106</v>
+      <c r="B6" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>99</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="F6" s="12"/>
+        <v>111</v>
+      </c>
+      <c r="F6" s="65"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
@@ -8515,17 +8903,17 @@
       <c r="A7" s="12">
         <v>3</v>
       </c>
-      <c r="B7" s="53" t="s">
-        <v>108</v>
-      </c>
-      <c r="C7" s="54" t="s">
-        <v>109</v>
+      <c r="B7" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="53" t="s">
+        <v>100</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F7" s="12"/>
       <c r="G7" s="5"/>
@@ -8543,28 +8931,21 @@
       <c r="A8" s="12">
         <v>4</v>
       </c>
-      <c r="B8" s="53" t="s">
+      <c r="B8" s="52" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" s="53" t="s">
+        <v>103</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="E8" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>117</v>
-      </c>
+      <c r="F8" s="12"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
@@ -8573,17 +8954,17 @@
       <c r="A9" s="12">
         <v>5</v>
       </c>
-      <c r="B9" s="53" t="s">
-        <v>75</v>
+      <c r="B9" s="52" t="s">
+        <v>72</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F9" s="12"/>
     </row>
@@ -8591,23 +8972,23 @@
       <c r="A10" s="12">
         <v>6</v>
       </c>
-      <c r="B10" s="53" t="s">
-        <v>74</v>
+      <c r="B10" s="52" t="s">
+        <v>71</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F10" s="12"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="13" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B11" s="14" t="s">
         <v>8</v>
@@ -8621,21 +9002,21 @@
     </row>
     <row r="12" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="B12" s="73" t="s">
-        <v>125</v>
-      </c>
-      <c r="C12" s="71"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="71"/>
-      <c r="G12" s="71"/>
-      <c r="H12" s="72"/>
+        <v>116</v>
+      </c>
+      <c r="B12" s="77" t="s">
+        <v>132</v>
+      </c>
+      <c r="C12" s="75"/>
+      <c r="D12" s="75"/>
+      <c r="E12" s="75"/>
+      <c r="F12" s="75"/>
+      <c r="G12" s="75"/>
+      <c r="H12" s="76"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="13" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B13" s="14" t="s">
         <v>8</v>
@@ -8648,88 +9029,88 @@
       <c r="H13" s="16"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A14" s="53" t="s">
-        <v>111</v>
-      </c>
-      <c r="B14" s="73" t="s">
-        <v>129</v>
-      </c>
-      <c r="C14" s="71"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="71"/>
-      <c r="H14" s="72"/>
+      <c r="A14" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="B14" s="77" t="s">
+        <v>134</v>
+      </c>
+      <c r="C14" s="75"/>
+      <c r="D14" s="75"/>
+      <c r="E14" s="75"/>
+      <c r="F14" s="75"/>
+      <c r="G14" s="75"/>
+      <c r="H14" s="76"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="77" t="s">
+        <v>117</v>
+      </c>
+      <c r="C15" s="75"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="75"/>
+      <c r="F15" s="75"/>
+      <c r="G15" s="75"/>
+      <c r="H15" s="76"/>
+    </row>
+    <row r="16" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="B15" s="73" t="s">
-        <v>126</v>
-      </c>
-      <c r="C15" s="71"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="71"/>
-      <c r="G15" s="71"/>
-      <c r="H15" s="72"/>
-    </row>
-    <row r="16" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="53" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" s="73" t="s">
-        <v>127</v>
-      </c>
-      <c r="C16" s="84"/>
-      <c r="D16" s="84"/>
-      <c r="E16" s="84"/>
-      <c r="F16" s="84"/>
-      <c r="G16" s="84"/>
-      <c r="H16" s="85"/>
+      <c r="B16" s="77" t="s">
+        <v>118</v>
+      </c>
+      <c r="C16" s="81"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="81"/>
+      <c r="G16" s="81"/>
+      <c r="H16" s="82"/>
     </row>
     <row r="17" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="53" t="s">
-        <v>108</v>
-      </c>
-      <c r="B17" s="73" t="s">
-        <v>128</v>
-      </c>
-      <c r="C17" s="84"/>
-      <c r="D17" s="84"/>
-      <c r="E17" s="84"/>
-      <c r="F17" s="84"/>
-      <c r="G17" s="84"/>
-      <c r="H17" s="85"/>
+      <c r="A17" s="52" t="s">
+        <v>102</v>
+      </c>
+      <c r="B17" s="77" t="s">
+        <v>119</v>
+      </c>
+      <c r="C17" s="81"/>
+      <c r="D17" s="81"/>
+      <c r="E17" s="81"/>
+      <c r="F17" s="81"/>
+      <c r="G17" s="81"/>
+      <c r="H17" s="82"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="53" t="s">
-        <v>75</v>
-      </c>
-      <c r="B18" s="73" t="s">
-        <v>130</v>
-      </c>
-      <c r="C18" s="71"/>
-      <c r="D18" s="71"/>
-      <c r="E18" s="71"/>
-      <c r="F18" s="71"/>
-      <c r="G18" s="71"/>
-      <c r="H18" s="72"/>
+      <c r="A18" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="77" t="s">
+        <v>133</v>
+      </c>
+      <c r="C18" s="75"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="75"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="75"/>
+      <c r="H18" s="76"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="B19" s="73" t="s">
-        <v>131</v>
-      </c>
-      <c r="C19" s="71"/>
-      <c r="D19" s="71"/>
-      <c r="E19" s="71"/>
-      <c r="F19" s="71"/>
-      <c r="G19" s="71"/>
-      <c r="H19" s="72"/>
+      <c r="A19" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" s="77" t="s">
+        <v>135</v>
+      </c>
+      <c r="C19" s="75"/>
+      <c r="D19" s="75"/>
+      <c r="E19" s="75"/>
+      <c r="F19" s="75"/>
+      <c r="G19" s="75"/>
+      <c r="H19" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -8773,7 +9154,7 @@
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
